--- a/mysite/DB6_Storage.xlsx
+++ b/mysite/DB6_Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCG\PycharmProjects\django-wms-skk\mysite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSC\django-wms-skk\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C413EAE4-EF2F-444E-B96A-57F01DB268DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFA90B4-FC9D-4001-9993-D46871D0A6F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="1154">
   <si>
     <t>storage_id</t>
   </si>
@@ -3450,6 +3450,48 @@
   </si>
   <si>
     <t>B42R07</t>
+  </si>
+  <si>
+    <t>B43R01</t>
+  </si>
+  <si>
+    <t>B43R02</t>
+  </si>
+  <si>
+    <t>B43R03</t>
+  </si>
+  <si>
+    <t>B43R04</t>
+  </si>
+  <si>
+    <t>B43R05</t>
+  </si>
+  <si>
+    <t>B43R06</t>
+  </si>
+  <si>
+    <t>B43R07</t>
+  </si>
+  <si>
+    <t>B44R01</t>
+  </si>
+  <si>
+    <t>B44R02</t>
+  </si>
+  <si>
+    <t>B44R03</t>
+  </si>
+  <si>
+    <t>B44R04</t>
+  </si>
+  <si>
+    <t>B44R05</t>
+  </si>
+  <si>
+    <t>B44R06</t>
+  </si>
+  <si>
+    <t>B44R07</t>
   </si>
 </sst>
 </file>
@@ -3802,11 +3844,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V1119"/>
+  <dimension ref="A1:V1133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A1099" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1121" sqref="E1121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12969,7 +13011,7 @@
         <v>846</v>
       </c>
       <c r="B826">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="C826">
         <v>1</v>
@@ -12980,7 +13022,7 @@
         <v>847</v>
       </c>
       <c r="B827">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="C827">
         <v>2</v>
@@ -12991,7 +13033,7 @@
         <v>848</v>
       </c>
       <c r="B828">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="C828">
         <v>3</v>
@@ -13002,7 +13044,7 @@
         <v>849</v>
       </c>
       <c r="B829">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="C829">
         <v>4</v>
@@ -13013,7 +13055,7 @@
         <v>850</v>
       </c>
       <c r="B830">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="C830">
         <v>5</v>
@@ -13024,7 +13066,7 @@
         <v>851</v>
       </c>
       <c r="B831">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="C831">
         <v>6</v>
@@ -13035,7 +13077,7 @@
         <v>852</v>
       </c>
       <c r="B832">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="C832">
         <v>7</v>
@@ -13046,7 +13088,7 @@
         <v>853</v>
       </c>
       <c r="B833">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="C833">
         <v>1</v>
@@ -13057,7 +13099,7 @@
         <v>854</v>
       </c>
       <c r="B834">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="C834">
         <v>2</v>
@@ -13068,7 +13110,7 @@
         <v>855</v>
       </c>
       <c r="B835">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="C835">
         <v>3</v>
@@ -13079,7 +13121,7 @@
         <v>856</v>
       </c>
       <c r="B836">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="C836">
         <v>4</v>
@@ -13090,7 +13132,7 @@
         <v>857</v>
       </c>
       <c r="B837">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="C837">
         <v>5</v>
@@ -13101,7 +13143,7 @@
         <v>858</v>
       </c>
       <c r="B838">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="C838">
         <v>6</v>
@@ -13112,7 +13154,7 @@
         <v>859</v>
       </c>
       <c r="B839">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="C839">
         <v>7</v>
@@ -13123,7 +13165,7 @@
         <v>860</v>
       </c>
       <c r="B840">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C840">
         <v>1</v>
@@ -13134,7 +13176,7 @@
         <v>861</v>
       </c>
       <c r="B841">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C841">
         <v>2</v>
@@ -13145,7 +13187,7 @@
         <v>862</v>
       </c>
       <c r="B842">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C842">
         <v>3</v>
@@ -13156,7 +13198,7 @@
         <v>863</v>
       </c>
       <c r="B843">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C843">
         <v>4</v>
@@ -13167,7 +13209,7 @@
         <v>864</v>
       </c>
       <c r="B844">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C844">
         <v>5</v>
@@ -13178,7 +13220,7 @@
         <v>865</v>
       </c>
       <c r="B845">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C845">
         <v>6</v>
@@ -13189,7 +13231,7 @@
         <v>866</v>
       </c>
       <c r="B846">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C846">
         <v>7</v>
@@ -13200,7 +13242,7 @@
         <v>867</v>
       </c>
       <c r="B847">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C847">
         <v>1</v>
@@ -13211,7 +13253,7 @@
         <v>868</v>
       </c>
       <c r="B848">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C848">
         <v>2</v>
@@ -13222,7 +13264,7 @@
         <v>869</v>
       </c>
       <c r="B849">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C849">
         <v>3</v>
@@ -13233,7 +13275,7 @@
         <v>870</v>
       </c>
       <c r="B850">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C850">
         <v>4</v>
@@ -13244,7 +13286,7 @@
         <v>871</v>
       </c>
       <c r="B851">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C851">
         <v>5</v>
@@ -13255,7 +13297,7 @@
         <v>872</v>
       </c>
       <c r="B852">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C852">
         <v>6</v>
@@ -13266,7 +13308,7 @@
         <v>873</v>
       </c>
       <c r="B853">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C853">
         <v>7</v>
@@ -13277,7 +13319,7 @@
         <v>874</v>
       </c>
       <c r="B854">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C854">
         <v>1</v>
@@ -13288,7 +13330,7 @@
         <v>875</v>
       </c>
       <c r="B855">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C855">
         <v>2</v>
@@ -13299,7 +13341,7 @@
         <v>876</v>
       </c>
       <c r="B856">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C856">
         <v>3</v>
@@ -13310,7 +13352,7 @@
         <v>877</v>
       </c>
       <c r="B857">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C857">
         <v>4</v>
@@ -13321,7 +13363,7 @@
         <v>878</v>
       </c>
       <c r="B858">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C858">
         <v>5</v>
@@ -13332,7 +13374,7 @@
         <v>879</v>
       </c>
       <c r="B859">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C859">
         <v>6</v>
@@ -13343,7 +13385,7 @@
         <v>880</v>
       </c>
       <c r="B860">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C860">
         <v>7</v>
@@ -13354,7 +13396,7 @@
         <v>881</v>
       </c>
       <c r="B861">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C861">
         <v>1</v>
@@ -13365,7 +13407,7 @@
         <v>882</v>
       </c>
       <c r="B862">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C862">
         <v>2</v>
@@ -13376,7 +13418,7 @@
         <v>883</v>
       </c>
       <c r="B863">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C863">
         <v>3</v>
@@ -13387,7 +13429,7 @@
         <v>884</v>
       </c>
       <c r="B864">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C864">
         <v>4</v>
@@ -13398,7 +13440,7 @@
         <v>885</v>
       </c>
       <c r="B865">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C865">
         <v>5</v>
@@ -13409,7 +13451,7 @@
         <v>886</v>
       </c>
       <c r="B866">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C866">
         <v>6</v>
@@ -13420,7 +13462,7 @@
         <v>887</v>
       </c>
       <c r="B867">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C867">
         <v>7</v>
@@ -13431,7 +13473,7 @@
         <v>888</v>
       </c>
       <c r="B868">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C868">
         <v>1</v>
@@ -13442,7 +13484,7 @@
         <v>889</v>
       </c>
       <c r="B869">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C869">
         <v>2</v>
@@ -13453,7 +13495,7 @@
         <v>890</v>
       </c>
       <c r="B870">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C870">
         <v>3</v>
@@ -13464,7 +13506,7 @@
         <v>891</v>
       </c>
       <c r="B871">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C871">
         <v>4</v>
@@ -13475,7 +13517,7 @@
         <v>892</v>
       </c>
       <c r="B872">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C872">
         <v>5</v>
@@ -13486,7 +13528,7 @@
         <v>893</v>
       </c>
       <c r="B873">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C873">
         <v>6</v>
@@ -13497,7 +13539,7 @@
         <v>894</v>
       </c>
       <c r="B874">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C874">
         <v>7</v>
@@ -13508,7 +13550,7 @@
         <v>895</v>
       </c>
       <c r="B875">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C875">
         <v>1</v>
@@ -13519,7 +13561,7 @@
         <v>896</v>
       </c>
       <c r="B876">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C876">
         <v>2</v>
@@ -13530,7 +13572,7 @@
         <v>897</v>
       </c>
       <c r="B877">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C877">
         <v>3</v>
@@ -13541,7 +13583,7 @@
         <v>898</v>
       </c>
       <c r="B878">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C878">
         <v>4</v>
@@ -13552,7 +13594,7 @@
         <v>899</v>
       </c>
       <c r="B879">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C879">
         <v>5</v>
@@ -13563,7 +13605,7 @@
         <v>900</v>
       </c>
       <c r="B880">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C880">
         <v>6</v>
@@ -13574,7 +13616,7 @@
         <v>901</v>
       </c>
       <c r="B881">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C881">
         <v>7</v>
@@ -13585,7 +13627,7 @@
         <v>902</v>
       </c>
       <c r="B882">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C882">
         <v>1</v>
@@ -13596,7 +13638,7 @@
         <v>903</v>
       </c>
       <c r="B883">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C883">
         <v>2</v>
@@ -13607,7 +13649,7 @@
         <v>904</v>
       </c>
       <c r="B884">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C884">
         <v>3</v>
@@ -13618,7 +13660,7 @@
         <v>905</v>
       </c>
       <c r="B885">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C885">
         <v>4</v>
@@ -13629,7 +13671,7 @@
         <v>906</v>
       </c>
       <c r="B886">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C886">
         <v>5</v>
@@ -13640,7 +13682,7 @@
         <v>907</v>
       </c>
       <c r="B887">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C887">
         <v>6</v>
@@ -13651,7 +13693,7 @@
         <v>908</v>
       </c>
       <c r="B888">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C888">
         <v>7</v>
@@ -13662,7 +13704,7 @@
         <v>909</v>
       </c>
       <c r="B889">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C889">
         <v>1</v>
@@ -13673,7 +13715,7 @@
         <v>910</v>
       </c>
       <c r="B890">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C890">
         <v>2</v>
@@ -13684,7 +13726,7 @@
         <v>911</v>
       </c>
       <c r="B891">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C891">
         <v>3</v>
@@ -13695,7 +13737,7 @@
         <v>912</v>
       </c>
       <c r="B892">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C892">
         <v>4</v>
@@ -13706,7 +13748,7 @@
         <v>913</v>
       </c>
       <c r="B893">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C893">
         <v>5</v>
@@ -13717,7 +13759,7 @@
         <v>914</v>
       </c>
       <c r="B894">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C894">
         <v>6</v>
@@ -13728,7 +13770,7 @@
         <v>915</v>
       </c>
       <c r="B895">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C895">
         <v>7</v>
@@ -13739,7 +13781,7 @@
         <v>916</v>
       </c>
       <c r="B896">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C896">
         <v>1</v>
@@ -13750,7 +13792,7 @@
         <v>917</v>
       </c>
       <c r="B897">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C897">
         <v>2</v>
@@ -13761,7 +13803,7 @@
         <v>918</v>
       </c>
       <c r="B898">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C898">
         <v>3</v>
@@ -13772,7 +13814,7 @@
         <v>919</v>
       </c>
       <c r="B899">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C899">
         <v>4</v>
@@ -13783,7 +13825,7 @@
         <v>920</v>
       </c>
       <c r="B900">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C900">
         <v>5</v>
@@ -13794,7 +13836,7 @@
         <v>921</v>
       </c>
       <c r="B901">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C901">
         <v>6</v>
@@ -13805,7 +13847,7 @@
         <v>922</v>
       </c>
       <c r="B902">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C902">
         <v>7</v>
@@ -13816,7 +13858,7 @@
         <v>923</v>
       </c>
       <c r="B903">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C903">
         <v>1</v>
@@ -13827,7 +13869,7 @@
         <v>924</v>
       </c>
       <c r="B904">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C904">
         <v>2</v>
@@ -13838,7 +13880,7 @@
         <v>925</v>
       </c>
       <c r="B905">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C905">
         <v>3</v>
@@ -13849,7 +13891,7 @@
         <v>926</v>
       </c>
       <c r="B906">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C906">
         <v>4</v>
@@ -13860,7 +13902,7 @@
         <v>927</v>
       </c>
       <c r="B907">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C907">
         <v>5</v>
@@ -13871,7 +13913,7 @@
         <v>928</v>
       </c>
       <c r="B908">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C908">
         <v>6</v>
@@ -13882,7 +13924,7 @@
         <v>929</v>
       </c>
       <c r="B909">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C909">
         <v>7</v>
@@ -13893,7 +13935,7 @@
         <v>930</v>
       </c>
       <c r="B910">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C910">
         <v>1</v>
@@ -13904,7 +13946,7 @@
         <v>931</v>
       </c>
       <c r="B911">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C911">
         <v>2</v>
@@ -13915,7 +13957,7 @@
         <v>932</v>
       </c>
       <c r="B912">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C912">
         <v>3</v>
@@ -13926,7 +13968,7 @@
         <v>933</v>
       </c>
       <c r="B913">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C913">
         <v>4</v>
@@ -13937,7 +13979,7 @@
         <v>934</v>
       </c>
       <c r="B914">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C914">
         <v>5</v>
@@ -13948,7 +13990,7 @@
         <v>935</v>
       </c>
       <c r="B915">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C915">
         <v>6</v>
@@ -13959,7 +14001,7 @@
         <v>936</v>
       </c>
       <c r="B916">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C916">
         <v>7</v>
@@ -13970,7 +14012,7 @@
         <v>937</v>
       </c>
       <c r="B917">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C917">
         <v>1</v>
@@ -13981,7 +14023,7 @@
         <v>938</v>
       </c>
       <c r="B918">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C918">
         <v>2</v>
@@ -13992,7 +14034,7 @@
         <v>939</v>
       </c>
       <c r="B919">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C919">
         <v>3</v>
@@ -14003,7 +14045,7 @@
         <v>940</v>
       </c>
       <c r="B920">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C920">
         <v>4</v>
@@ -14014,7 +14056,7 @@
         <v>941</v>
       </c>
       <c r="B921">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C921">
         <v>5</v>
@@ -14025,7 +14067,7 @@
         <v>942</v>
       </c>
       <c r="B922">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C922">
         <v>6</v>
@@ -14036,7 +14078,7 @@
         <v>943</v>
       </c>
       <c r="B923">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C923">
         <v>7</v>
@@ -14047,7 +14089,7 @@
         <v>944</v>
       </c>
       <c r="B924">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C924">
         <v>1</v>
@@ -14058,7 +14100,7 @@
         <v>945</v>
       </c>
       <c r="B925">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C925">
         <v>2</v>
@@ -14069,7 +14111,7 @@
         <v>946</v>
       </c>
       <c r="B926">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C926">
         <v>3</v>
@@ -14080,7 +14122,7 @@
         <v>947</v>
       </c>
       <c r="B927">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C927">
         <v>4</v>
@@ -14091,7 +14133,7 @@
         <v>948</v>
       </c>
       <c r="B928">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C928">
         <v>5</v>
@@ -14102,7 +14144,7 @@
         <v>949</v>
       </c>
       <c r="B929">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C929">
         <v>6</v>
@@ -14113,7 +14155,7 @@
         <v>950</v>
       </c>
       <c r="B930">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C930">
         <v>7</v>
@@ -14124,7 +14166,7 @@
         <v>951</v>
       </c>
       <c r="B931">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C931">
         <v>1</v>
@@ -14135,7 +14177,7 @@
         <v>952</v>
       </c>
       <c r="B932">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C932">
         <v>2</v>
@@ -14146,7 +14188,7 @@
         <v>953</v>
       </c>
       <c r="B933">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C933">
         <v>3</v>
@@ -14157,7 +14199,7 @@
         <v>954</v>
       </c>
       <c r="B934">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C934">
         <v>4</v>
@@ -14168,7 +14210,7 @@
         <v>955</v>
       </c>
       <c r="B935">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C935">
         <v>5</v>
@@ -14179,7 +14221,7 @@
         <v>956</v>
       </c>
       <c r="B936">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C936">
         <v>6</v>
@@ -14190,7 +14232,7 @@
         <v>957</v>
       </c>
       <c r="B937">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C937">
         <v>7</v>
@@ -14201,7 +14243,7 @@
         <v>958</v>
       </c>
       <c r="B938">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C938">
         <v>1</v>
@@ -14212,7 +14254,7 @@
         <v>959</v>
       </c>
       <c r="B939">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C939">
         <v>2</v>
@@ -14223,7 +14265,7 @@
         <v>960</v>
       </c>
       <c r="B940">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C940">
         <v>3</v>
@@ -14234,7 +14276,7 @@
         <v>961</v>
       </c>
       <c r="B941">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C941">
         <v>4</v>
@@ -14245,7 +14287,7 @@
         <v>962</v>
       </c>
       <c r="B942">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C942">
         <v>5</v>
@@ -14256,7 +14298,7 @@
         <v>963</v>
       </c>
       <c r="B943">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C943">
         <v>6</v>
@@ -14267,7 +14309,7 @@
         <v>964</v>
       </c>
       <c r="B944">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C944">
         <v>7</v>
@@ -14278,7 +14320,7 @@
         <v>965</v>
       </c>
       <c r="B945">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C945">
         <v>1</v>
@@ -14289,7 +14331,7 @@
         <v>966</v>
       </c>
       <c r="B946">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C946">
         <v>2</v>
@@ -14300,7 +14342,7 @@
         <v>967</v>
       </c>
       <c r="B947">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C947">
         <v>3</v>
@@ -14311,7 +14353,7 @@
         <v>968</v>
       </c>
       <c r="B948">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C948">
         <v>4</v>
@@ -14322,7 +14364,7 @@
         <v>969</v>
       </c>
       <c r="B949">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C949">
         <v>5</v>
@@ -14333,7 +14375,7 @@
         <v>970</v>
       </c>
       <c r="B950">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C950">
         <v>6</v>
@@ -14344,7 +14386,7 @@
         <v>971</v>
       </c>
       <c r="B951">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C951">
         <v>7</v>
@@ -14355,7 +14397,7 @@
         <v>972</v>
       </c>
       <c r="B952">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C952">
         <v>1</v>
@@ -14366,7 +14408,7 @@
         <v>973</v>
       </c>
       <c r="B953">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C953">
         <v>2</v>
@@ -14377,7 +14419,7 @@
         <v>974</v>
       </c>
       <c r="B954">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C954">
         <v>3</v>
@@ -14388,7 +14430,7 @@
         <v>975</v>
       </c>
       <c r="B955">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C955">
         <v>4</v>
@@ -14399,7 +14441,7 @@
         <v>976</v>
       </c>
       <c r="B956">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C956">
         <v>5</v>
@@ -14410,7 +14452,7 @@
         <v>977</v>
       </c>
       <c r="B957">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C957">
         <v>6</v>
@@ -14421,7 +14463,7 @@
         <v>978</v>
       </c>
       <c r="B958">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C958">
         <v>7</v>
@@ -14432,7 +14474,7 @@
         <v>979</v>
       </c>
       <c r="B959">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C959">
         <v>1</v>
@@ -14443,7 +14485,7 @@
         <v>980</v>
       </c>
       <c r="B960">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C960">
         <v>2</v>
@@ -14454,7 +14496,7 @@
         <v>981</v>
       </c>
       <c r="B961">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C961">
         <v>3</v>
@@ -14465,7 +14507,7 @@
         <v>982</v>
       </c>
       <c r="B962">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C962">
         <v>4</v>
@@ -14476,7 +14518,7 @@
         <v>983</v>
       </c>
       <c r="B963">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C963">
         <v>5</v>
@@ -14487,7 +14529,7 @@
         <v>984</v>
       </c>
       <c r="B964">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C964">
         <v>6</v>
@@ -14498,7 +14540,7 @@
         <v>985</v>
       </c>
       <c r="B965">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C965">
         <v>7</v>
@@ -14509,7 +14551,7 @@
         <v>986</v>
       </c>
       <c r="B966">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C966">
         <v>1</v>
@@ -14520,7 +14562,7 @@
         <v>987</v>
       </c>
       <c r="B967">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C967">
         <v>2</v>
@@ -14531,7 +14573,7 @@
         <v>988</v>
       </c>
       <c r="B968">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C968">
         <v>3</v>
@@ -14542,7 +14584,7 @@
         <v>989</v>
       </c>
       <c r="B969">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C969">
         <v>4</v>
@@ -14553,7 +14595,7 @@
         <v>990</v>
       </c>
       <c r="B970">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C970">
         <v>5</v>
@@ -14564,7 +14606,7 @@
         <v>991</v>
       </c>
       <c r="B971">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C971">
         <v>6</v>
@@ -14575,7 +14617,7 @@
         <v>992</v>
       </c>
       <c r="B972">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C972">
         <v>7</v>
@@ -14586,7 +14628,7 @@
         <v>993</v>
       </c>
       <c r="B973">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C973">
         <v>1</v>
@@ -14597,7 +14639,7 @@
         <v>994</v>
       </c>
       <c r="B974">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C974">
         <v>2</v>
@@ -14608,7 +14650,7 @@
         <v>995</v>
       </c>
       <c r="B975">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C975">
         <v>3</v>
@@ -14619,7 +14661,7 @@
         <v>996</v>
       </c>
       <c r="B976">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C976">
         <v>4</v>
@@ -14630,7 +14672,7 @@
         <v>997</v>
       </c>
       <c r="B977">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C977">
         <v>5</v>
@@ -14641,7 +14683,7 @@
         <v>998</v>
       </c>
       <c r="B978">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C978">
         <v>6</v>
@@ -14652,7 +14694,7 @@
         <v>999</v>
       </c>
       <c r="B979">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C979">
         <v>7</v>
@@ -14663,7 +14705,7 @@
         <v>1000</v>
       </c>
       <c r="B980">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C980">
         <v>1</v>
@@ -14674,7 +14716,7 @@
         <v>1001</v>
       </c>
       <c r="B981">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C981">
         <v>2</v>
@@ -14685,7 +14727,7 @@
         <v>1002</v>
       </c>
       <c r="B982">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C982">
         <v>3</v>
@@ -14696,7 +14738,7 @@
         <v>1003</v>
       </c>
       <c r="B983">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C983">
         <v>4</v>
@@ -14707,7 +14749,7 @@
         <v>1004</v>
       </c>
       <c r="B984">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C984">
         <v>5</v>
@@ -14718,7 +14760,7 @@
         <v>1005</v>
       </c>
       <c r="B985">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C985">
         <v>6</v>
@@ -14729,7 +14771,7 @@
         <v>1006</v>
       </c>
       <c r="B986">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C986">
         <v>7</v>
@@ -14740,7 +14782,7 @@
         <v>1007</v>
       </c>
       <c r="B987">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C987">
         <v>1</v>
@@ -14751,7 +14793,7 @@
         <v>1008</v>
       </c>
       <c r="B988">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C988">
         <v>2</v>
@@ -14762,7 +14804,7 @@
         <v>1009</v>
       </c>
       <c r="B989">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C989">
         <v>3</v>
@@ -14773,7 +14815,7 @@
         <v>1010</v>
       </c>
       <c r="B990">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C990">
         <v>4</v>
@@ -14784,7 +14826,7 @@
         <v>1011</v>
       </c>
       <c r="B991">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C991">
         <v>5</v>
@@ -14795,7 +14837,7 @@
         <v>1012</v>
       </c>
       <c r="B992">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C992">
         <v>6</v>
@@ -14806,7 +14848,7 @@
         <v>1013</v>
       </c>
       <c r="B993">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C993">
         <v>7</v>
@@ -14817,7 +14859,7 @@
         <v>1014</v>
       </c>
       <c r="B994">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C994">
         <v>1</v>
@@ -14828,7 +14870,7 @@
         <v>1015</v>
       </c>
       <c r="B995">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C995">
         <v>2</v>
@@ -14839,7 +14881,7 @@
         <v>1016</v>
       </c>
       <c r="B996">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C996">
         <v>3</v>
@@ -14850,7 +14892,7 @@
         <v>1017</v>
       </c>
       <c r="B997">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C997">
         <v>4</v>
@@ -14861,7 +14903,7 @@
         <v>1018</v>
       </c>
       <c r="B998">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C998">
         <v>5</v>
@@ -14872,7 +14914,7 @@
         <v>1019</v>
       </c>
       <c r="B999">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C999">
         <v>6</v>
@@ -14883,7 +14925,7 @@
         <v>1020</v>
       </c>
       <c r="B1000">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1000">
         <v>7</v>
@@ -14894,7 +14936,7 @@
         <v>1021</v>
       </c>
       <c r="B1001">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1001">
         <v>1</v>
@@ -14905,7 +14947,7 @@
         <v>1022</v>
       </c>
       <c r="B1002">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1002">
         <v>2</v>
@@ -14916,7 +14958,7 @@
         <v>1023</v>
       </c>
       <c r="B1003">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1003">
         <v>3</v>
@@ -14927,7 +14969,7 @@
         <v>1024</v>
       </c>
       <c r="B1004">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1004">
         <v>4</v>
@@ -14938,7 +14980,7 @@
         <v>1025</v>
       </c>
       <c r="B1005">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1005">
         <v>5</v>
@@ -14949,7 +14991,7 @@
         <v>1026</v>
       </c>
       <c r="B1006">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1006">
         <v>6</v>
@@ -14960,7 +15002,7 @@
         <v>1027</v>
       </c>
       <c r="B1007">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1007">
         <v>7</v>
@@ -14971,7 +15013,7 @@
         <v>1028</v>
       </c>
       <c r="B1008">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C1008">
         <v>1</v>
@@ -14982,7 +15024,7 @@
         <v>1029</v>
       </c>
       <c r="B1009">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C1009">
         <v>2</v>
@@ -14993,7 +15035,7 @@
         <v>1030</v>
       </c>
       <c r="B1010">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C1010">
         <v>3</v>
@@ -15004,7 +15046,7 @@
         <v>1031</v>
       </c>
       <c r="B1011">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C1011">
         <v>4</v>
@@ -15015,7 +15057,7 @@
         <v>1032</v>
       </c>
       <c r="B1012">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C1012">
         <v>5</v>
@@ -15026,7 +15068,7 @@
         <v>1033</v>
       </c>
       <c r="B1013">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C1013">
         <v>6</v>
@@ -15037,7 +15079,7 @@
         <v>1034</v>
       </c>
       <c r="B1014">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C1014">
         <v>7</v>
@@ -15048,7 +15090,7 @@
         <v>1035</v>
       </c>
       <c r="B1015">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C1015">
         <v>1</v>
@@ -15059,7 +15101,7 @@
         <v>1036</v>
       </c>
       <c r="B1016">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C1016">
         <v>2</v>
@@ -15070,7 +15112,7 @@
         <v>1037</v>
       </c>
       <c r="B1017">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C1017">
         <v>3</v>
@@ -15081,7 +15123,7 @@
         <v>1038</v>
       </c>
       <c r="B1018">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C1018">
         <v>4</v>
@@ -15092,7 +15134,7 @@
         <v>1039</v>
       </c>
       <c r="B1019">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C1019">
         <v>5</v>
@@ -15103,7 +15145,7 @@
         <v>1040</v>
       </c>
       <c r="B1020">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C1020">
         <v>6</v>
@@ -15114,7 +15156,7 @@
         <v>1041</v>
       </c>
       <c r="B1021">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C1021">
         <v>7</v>
@@ -15125,7 +15167,7 @@
         <v>1042</v>
       </c>
       <c r="B1022">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C1022">
         <v>1</v>
@@ -15136,7 +15178,7 @@
         <v>1043</v>
       </c>
       <c r="B1023">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C1023">
         <v>2</v>
@@ -15147,7 +15189,7 @@
         <v>1044</v>
       </c>
       <c r="B1024">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C1024">
         <v>3</v>
@@ -15158,7 +15200,7 @@
         <v>1045</v>
       </c>
       <c r="B1025">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C1025">
         <v>4</v>
@@ -15169,7 +15211,7 @@
         <v>1046</v>
       </c>
       <c r="B1026">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C1026">
         <v>5</v>
@@ -15180,7 +15222,7 @@
         <v>1047</v>
       </c>
       <c r="B1027">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C1027">
         <v>6</v>
@@ -15191,7 +15233,7 @@
         <v>1048</v>
       </c>
       <c r="B1028">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C1028">
         <v>7</v>
@@ -15202,7 +15244,7 @@
         <v>1049</v>
       </c>
       <c r="B1029">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C1029">
         <v>1</v>
@@ -15213,7 +15255,7 @@
         <v>1050</v>
       </c>
       <c r="B1030">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C1030">
         <v>2</v>
@@ -15224,7 +15266,7 @@
         <v>1051</v>
       </c>
       <c r="B1031">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C1031">
         <v>3</v>
@@ -15235,7 +15277,7 @@
         <v>1052</v>
       </c>
       <c r="B1032">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C1032">
         <v>4</v>
@@ -15246,7 +15288,7 @@
         <v>1053</v>
       </c>
       <c r="B1033">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C1033">
         <v>5</v>
@@ -15257,7 +15299,7 @@
         <v>1054</v>
       </c>
       <c r="B1034">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C1034">
         <v>6</v>
@@ -15268,7 +15310,7 @@
         <v>1055</v>
       </c>
       <c r="B1035">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C1035">
         <v>7</v>
@@ -15279,7 +15321,7 @@
         <v>1056</v>
       </c>
       <c r="B1036">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C1036">
         <v>1</v>
@@ -15290,7 +15332,7 @@
         <v>1057</v>
       </c>
       <c r="B1037">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C1037">
         <v>2</v>
@@ -15301,7 +15343,7 @@
         <v>1058</v>
       </c>
       <c r="B1038">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C1038">
         <v>3</v>
@@ -15312,7 +15354,7 @@
         <v>1059</v>
       </c>
       <c r="B1039">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C1039">
         <v>4</v>
@@ -15323,7 +15365,7 @@
         <v>1060</v>
       </c>
       <c r="B1040">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C1040">
         <v>5</v>
@@ -15334,7 +15376,7 @@
         <v>1061</v>
       </c>
       <c r="B1041">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C1041">
         <v>6</v>
@@ -15345,7 +15387,7 @@
         <v>1062</v>
       </c>
       <c r="B1042">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C1042">
         <v>7</v>
@@ -15356,7 +15398,7 @@
         <v>1063</v>
       </c>
       <c r="B1043">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C1043">
         <v>1</v>
@@ -15367,7 +15409,7 @@
         <v>1064</v>
       </c>
       <c r="B1044">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C1044">
         <v>2</v>
@@ -15378,7 +15420,7 @@
         <v>1065</v>
       </c>
       <c r="B1045">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C1045">
         <v>3</v>
@@ -15389,7 +15431,7 @@
         <v>1066</v>
       </c>
       <c r="B1046">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C1046">
         <v>4</v>
@@ -15400,7 +15442,7 @@
         <v>1067</v>
       </c>
       <c r="B1047">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C1047">
         <v>5</v>
@@ -15411,7 +15453,7 @@
         <v>1068</v>
       </c>
       <c r="B1048">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C1048">
         <v>6</v>
@@ -15422,7 +15464,7 @@
         <v>1069</v>
       </c>
       <c r="B1049">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C1049">
         <v>7</v>
@@ -15433,7 +15475,7 @@
         <v>1070</v>
       </c>
       <c r="B1050">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C1050">
         <v>1</v>
@@ -15444,7 +15486,7 @@
         <v>1071</v>
       </c>
       <c r="B1051">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C1051">
         <v>2</v>
@@ -15455,7 +15497,7 @@
         <v>1072</v>
       </c>
       <c r="B1052">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C1052">
         <v>3</v>
@@ -15466,7 +15508,7 @@
         <v>1073</v>
       </c>
       <c r="B1053">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C1053">
         <v>4</v>
@@ -15477,7 +15519,7 @@
         <v>1074</v>
       </c>
       <c r="B1054">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C1054">
         <v>5</v>
@@ -15488,7 +15530,7 @@
         <v>1075</v>
       </c>
       <c r="B1055">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C1055">
         <v>6</v>
@@ -15499,7 +15541,7 @@
         <v>1076</v>
       </c>
       <c r="B1056">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C1056">
         <v>7</v>
@@ -15510,7 +15552,7 @@
         <v>1077</v>
       </c>
       <c r="B1057">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C1057">
         <v>1</v>
@@ -15521,7 +15563,7 @@
         <v>1078</v>
       </c>
       <c r="B1058">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C1058">
         <v>2</v>
@@ -15532,7 +15574,7 @@
         <v>1079</v>
       </c>
       <c r="B1059">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C1059">
         <v>3</v>
@@ -15543,7 +15585,7 @@
         <v>1080</v>
       </c>
       <c r="B1060">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C1060">
         <v>4</v>
@@ -15554,7 +15596,7 @@
         <v>1081</v>
       </c>
       <c r="B1061">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C1061">
         <v>5</v>
@@ -15565,7 +15607,7 @@
         <v>1082</v>
       </c>
       <c r="B1062">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C1062">
         <v>6</v>
@@ -15576,7 +15618,7 @@
         <v>1083</v>
       </c>
       <c r="B1063">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C1063">
         <v>7</v>
@@ -15587,7 +15629,7 @@
         <v>1084</v>
       </c>
       <c r="B1064">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C1064">
         <v>1</v>
@@ -15598,7 +15640,7 @@
         <v>1085</v>
       </c>
       <c r="B1065">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C1065">
         <v>2</v>
@@ -15609,7 +15651,7 @@
         <v>1086</v>
       </c>
       <c r="B1066">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C1066">
         <v>3</v>
@@ -15620,7 +15662,7 @@
         <v>1087</v>
       </c>
       <c r="B1067">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C1067">
         <v>4</v>
@@ -15631,7 +15673,7 @@
         <v>1088</v>
       </c>
       <c r="B1068">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C1068">
         <v>5</v>
@@ -15642,7 +15684,7 @@
         <v>1089</v>
       </c>
       <c r="B1069">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C1069">
         <v>6</v>
@@ -15653,7 +15695,7 @@
         <v>1090</v>
       </c>
       <c r="B1070">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C1070">
         <v>7</v>
@@ -15664,7 +15706,7 @@
         <v>1091</v>
       </c>
       <c r="B1071">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C1071">
         <v>1</v>
@@ -15675,7 +15717,7 @@
         <v>1092</v>
       </c>
       <c r="B1072">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C1072">
         <v>2</v>
@@ -15686,7 +15728,7 @@
         <v>1093</v>
       </c>
       <c r="B1073">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C1073">
         <v>3</v>
@@ -15697,7 +15739,7 @@
         <v>1094</v>
       </c>
       <c r="B1074">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C1074">
         <v>4</v>
@@ -15708,7 +15750,7 @@
         <v>1095</v>
       </c>
       <c r="B1075">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C1075">
         <v>5</v>
@@ -15719,7 +15761,7 @@
         <v>1096</v>
       </c>
       <c r="B1076">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C1076">
         <v>6</v>
@@ -15730,7 +15772,7 @@
         <v>1097</v>
       </c>
       <c r="B1077">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C1077">
         <v>7</v>
@@ -15741,7 +15783,7 @@
         <v>1098</v>
       </c>
       <c r="B1078">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C1078">
         <v>1</v>
@@ -15752,7 +15794,7 @@
         <v>1099</v>
       </c>
       <c r="B1079">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C1079">
         <v>2</v>
@@ -15763,7 +15805,7 @@
         <v>1100</v>
       </c>
       <c r="B1080">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C1080">
         <v>3</v>
@@ -15774,7 +15816,7 @@
         <v>1101</v>
       </c>
       <c r="B1081">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C1081">
         <v>4</v>
@@ -15785,7 +15827,7 @@
         <v>1102</v>
       </c>
       <c r="B1082">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C1082">
         <v>5</v>
@@ -15796,7 +15838,7 @@
         <v>1103</v>
       </c>
       <c r="B1083">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C1083">
         <v>6</v>
@@ -15807,7 +15849,7 @@
         <v>1104</v>
       </c>
       <c r="B1084">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C1084">
         <v>7</v>
@@ -15818,7 +15860,7 @@
         <v>1105</v>
       </c>
       <c r="B1085">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C1085">
         <v>1</v>
@@ -15829,7 +15871,7 @@
         <v>1106</v>
       </c>
       <c r="B1086">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C1086">
         <v>2</v>
@@ -15840,7 +15882,7 @@
         <v>1107</v>
       </c>
       <c r="B1087">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C1087">
         <v>3</v>
@@ -15851,7 +15893,7 @@
         <v>1108</v>
       </c>
       <c r="B1088">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C1088">
         <v>4</v>
@@ -15862,7 +15904,7 @@
         <v>1109</v>
       </c>
       <c r="B1089">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C1089">
         <v>5</v>
@@ -15873,7 +15915,7 @@
         <v>1110</v>
       </c>
       <c r="B1090">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C1090">
         <v>6</v>
@@ -15884,7 +15926,7 @@
         <v>1111</v>
       </c>
       <c r="B1091">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C1091">
         <v>7</v>
@@ -15895,7 +15937,7 @@
         <v>1112</v>
       </c>
       <c r="B1092">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C1092">
         <v>1</v>
@@ -15906,7 +15948,7 @@
         <v>1113</v>
       </c>
       <c r="B1093">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C1093">
         <v>2</v>
@@ -15917,7 +15959,7 @@
         <v>1114</v>
       </c>
       <c r="B1094">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C1094">
         <v>3</v>
@@ -15928,7 +15970,7 @@
         <v>1115</v>
       </c>
       <c r="B1095">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C1095">
         <v>4</v>
@@ -15939,7 +15981,7 @@
         <v>1116</v>
       </c>
       <c r="B1096">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C1096">
         <v>5</v>
@@ -15950,7 +15992,7 @@
         <v>1117</v>
       </c>
       <c r="B1097">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C1097">
         <v>6</v>
@@ -15961,7 +16003,7 @@
         <v>1118</v>
       </c>
       <c r="B1098">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C1098">
         <v>7</v>
@@ -15972,7 +16014,7 @@
         <v>1119</v>
       </c>
       <c r="B1099">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C1099">
         <v>1</v>
@@ -15983,7 +16025,7 @@
         <v>1120</v>
       </c>
       <c r="B1100">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C1100">
         <v>2</v>
@@ -15994,7 +16036,7 @@
         <v>1121</v>
       </c>
       <c r="B1101">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C1101">
         <v>3</v>
@@ -16005,7 +16047,7 @@
         <v>1122</v>
       </c>
       <c r="B1102">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C1102">
         <v>4</v>
@@ -16016,7 +16058,7 @@
         <v>1123</v>
       </c>
       <c r="B1103">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C1103">
         <v>5</v>
@@ -16027,7 +16069,7 @@
         <v>1124</v>
       </c>
       <c r="B1104">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C1104">
         <v>6</v>
@@ -16038,7 +16080,7 @@
         <v>1125</v>
       </c>
       <c r="B1105">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C1105">
         <v>7</v>
@@ -16049,7 +16091,7 @@
         <v>1126</v>
       </c>
       <c r="B1106">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C1106">
         <v>1</v>
@@ -16060,7 +16102,7 @@
         <v>1127</v>
       </c>
       <c r="B1107">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C1107">
         <v>2</v>
@@ -16071,7 +16113,7 @@
         <v>1128</v>
       </c>
       <c r="B1108">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C1108">
         <v>3</v>
@@ -16082,7 +16124,7 @@
         <v>1129</v>
       </c>
       <c r="B1109">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C1109">
         <v>4</v>
@@ -16093,7 +16135,7 @@
         <v>1130</v>
       </c>
       <c r="B1110">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C1110">
         <v>5</v>
@@ -16104,7 +16146,7 @@
         <v>1131</v>
       </c>
       <c r="B1111">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C1111">
         <v>6</v>
@@ -16115,7 +16157,7 @@
         <v>1132</v>
       </c>
       <c r="B1112">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C1112">
         <v>7</v>
@@ -16126,7 +16168,7 @@
         <v>1133</v>
       </c>
       <c r="B1113">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C1113">
         <v>1</v>
@@ -16137,7 +16179,7 @@
         <v>1134</v>
       </c>
       <c r="B1114">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C1114">
         <v>2</v>
@@ -16148,7 +16190,7 @@
         <v>1135</v>
       </c>
       <c r="B1115">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C1115">
         <v>3</v>
@@ -16159,7 +16201,7 @@
         <v>1136</v>
       </c>
       <c r="B1116">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C1116">
         <v>4</v>
@@ -16170,7 +16212,7 @@
         <v>1137</v>
       </c>
       <c r="B1117">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C1117">
         <v>5</v>
@@ -16181,7 +16223,7 @@
         <v>1138</v>
       </c>
       <c r="B1118">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C1118">
         <v>6</v>
@@ -16192,9 +16234,163 @@
         <v>1139</v>
       </c>
       <c r="B1119">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C1119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B1120">
+        <v>74</v>
+      </c>
+      <c r="C1120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B1121">
+        <v>74</v>
+      </c>
+      <c r="C1121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1122">
+        <v>74</v>
+      </c>
+      <c r="C1122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B1123">
+        <v>74</v>
+      </c>
+      <c r="C1123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1124">
+        <v>74</v>
+      </c>
+      <c r="C1124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B1125">
+        <v>74</v>
+      </c>
+      <c r="C1125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B1126">
+        <v>74</v>
+      </c>
+      <c r="C1126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B1127">
+        <v>75</v>
+      </c>
+      <c r="C1127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B1128">
+        <v>75</v>
+      </c>
+      <c r="C1128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B1129">
+        <v>75</v>
+      </c>
+      <c r="C1129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B1130">
+        <v>75</v>
+      </c>
+      <c r="C1130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B1131">
+        <v>75</v>
+      </c>
+      <c r="C1131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B1132">
+        <v>75</v>
+      </c>
+      <c r="C1132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B1133">
+        <v>75</v>
+      </c>
+      <c r="C1133">
         <v>7</v>
       </c>
     </row>

--- a/mysite/DB6_Storage.xlsx
+++ b/mysite/DB6_Storage.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSC\django-wms-skk\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFA90B4-FC9D-4001-9993-D46871D0A6F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D4855D-8609-4D1C-92F8-ED1D907F4268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34995" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
@@ -3844,11 +3844,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V1133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1099" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1121" sqref="E1121"/>
+      <pane ySplit="1" topLeftCell="A1127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1137" sqref="E1137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4915,7 +4916,7 @@
         <v>110</v>
       </c>
       <c r="B90">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C90">
         <v>21</v>
@@ -4926,7 +4927,7 @@
         <v>111</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91">
         <v>20</v>
@@ -4937,7 +4938,7 @@
         <v>112</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C92">
         <v>19</v>
@@ -4948,7 +4949,7 @@
         <v>113</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C93">
         <v>18</v>
@@ -4959,7 +4960,7 @@
         <v>114</v>
       </c>
       <c r="B94">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C94">
         <v>17</v>
@@ -4970,7 +4971,7 @@
         <v>115</v>
       </c>
       <c r="B95">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C95">
         <v>16</v>
@@ -4981,7 +4982,7 @@
         <v>116</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C96">
         <v>15</v>
@@ -4992,7 +4993,7 @@
         <v>117</v>
       </c>
       <c r="B97">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C97">
         <v>14</v>
@@ -5003,7 +5004,7 @@
         <v>118</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C98">
         <v>13</v>
@@ -5014,7 +5015,7 @@
         <v>119</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C99">
         <v>12</v>
@@ -5025,7 +5026,7 @@
         <v>120</v>
       </c>
       <c r="B100">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C100">
         <v>11</v>
@@ -5278,7 +5279,7 @@
         <v>143</v>
       </c>
       <c r="B123">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C123">
         <v>21</v>
@@ -5289,7 +5290,7 @@
         <v>144</v>
       </c>
       <c r="B124">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C124">
         <v>20</v>
@@ -5300,7 +5301,7 @@
         <v>145</v>
       </c>
       <c r="B125">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C125">
         <v>19</v>
@@ -5311,7 +5312,7 @@
         <v>146</v>
       </c>
       <c r="B126">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C126">
         <v>18</v>
@@ -5322,7 +5323,7 @@
         <v>147</v>
       </c>
       <c r="B127">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C127">
         <v>17</v>
@@ -5333,7 +5334,7 @@
         <v>148</v>
       </c>
       <c r="B128">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C128">
         <v>16</v>
@@ -5344,7 +5345,7 @@
         <v>149</v>
       </c>
       <c r="B129">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C129">
         <v>15</v>
@@ -5355,7 +5356,7 @@
         <v>150</v>
       </c>
       <c r="B130">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C130">
         <v>14</v>
@@ -5366,7 +5367,7 @@
         <v>151</v>
       </c>
       <c r="B131">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C131">
         <v>13</v>
@@ -5377,7 +5378,7 @@
         <v>152</v>
       </c>
       <c r="B132">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C132">
         <v>12</v>
@@ -5388,7 +5389,7 @@
         <v>153</v>
       </c>
       <c r="B133">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C133">
         <v>11</v>
@@ -5641,7 +5642,7 @@
         <v>176</v>
       </c>
       <c r="B156">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C156">
         <v>21</v>
@@ -5652,7 +5653,7 @@
         <v>177</v>
       </c>
       <c r="B157">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C157">
         <v>20</v>
@@ -5663,7 +5664,7 @@
         <v>178</v>
       </c>
       <c r="B158">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C158">
         <v>19</v>
@@ -5674,7 +5675,7 @@
         <v>179</v>
       </c>
       <c r="B159">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C159">
         <v>18</v>
@@ -5685,7 +5686,7 @@
         <v>180</v>
       </c>
       <c r="B160">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C160">
         <v>17</v>
@@ -5696,7 +5697,7 @@
         <v>181</v>
       </c>
       <c r="B161">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C161">
         <v>16</v>
@@ -5707,7 +5708,7 @@
         <v>182</v>
       </c>
       <c r="B162">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C162">
         <v>15</v>
@@ -5718,7 +5719,7 @@
         <v>183</v>
       </c>
       <c r="B163">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C163">
         <v>14</v>
@@ -5729,7 +5730,7 @@
         <v>184</v>
       </c>
       <c r="B164">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C164">
         <v>13</v>
@@ -5740,7 +5741,7 @@
         <v>185</v>
       </c>
       <c r="B165">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C165">
         <v>12</v>
@@ -5751,7 +5752,7 @@
         <v>186</v>
       </c>
       <c r="B166">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C166">
         <v>11</v>

--- a/mysite/DB6_Storage.xlsx
+++ b/mysite/DB6_Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22703"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSC\django-wms-skk\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D4855D-8609-4D1C-92F8-ED1D907F4268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AFC4B9-4F65-4528-80F5-462AB68B9615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34995" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
@@ -3848,8 +3848,8 @@
   <dimension ref="A1:V1133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1137" sqref="E1137"/>
+      <pane ySplit="1" topLeftCell="A1110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1135" sqref="D1135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5037,7 +5037,7 @@
         <v>121</v>
       </c>
       <c r="B101">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C101">
         <v>21</v>
@@ -5048,7 +5048,7 @@
         <v>122</v>
       </c>
       <c r="B102">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C102">
         <v>20</v>
@@ -5059,7 +5059,7 @@
         <v>123</v>
       </c>
       <c r="B103">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C103">
         <v>19</v>
@@ -5070,7 +5070,7 @@
         <v>124</v>
       </c>
       <c r="B104">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C104">
         <v>18</v>
@@ -5081,7 +5081,7 @@
         <v>125</v>
       </c>
       <c r="B105">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C105">
         <v>17</v>
@@ -5092,7 +5092,7 @@
         <v>126</v>
       </c>
       <c r="B106">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C106">
         <v>16</v>
@@ -5103,7 +5103,7 @@
         <v>127</v>
       </c>
       <c r="B107">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C107">
         <v>15</v>
@@ -5114,7 +5114,7 @@
         <v>128</v>
       </c>
       <c r="B108">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C108">
         <v>14</v>
@@ -5125,7 +5125,7 @@
         <v>129</v>
       </c>
       <c r="B109">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C109">
         <v>13</v>
@@ -5136,7 +5136,7 @@
         <v>130</v>
       </c>
       <c r="B110">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C110">
         <v>12</v>
@@ -5147,7 +5147,7 @@
         <v>131</v>
       </c>
       <c r="B111">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C111">
         <v>11</v>
@@ -5158,7 +5158,7 @@
         <v>132</v>
       </c>
       <c r="B112">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C112">
         <v>21</v>
@@ -5169,7 +5169,7 @@
         <v>133</v>
       </c>
       <c r="B113">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C113">
         <v>20</v>
@@ -5180,7 +5180,7 @@
         <v>134</v>
       </c>
       <c r="B114">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C114">
         <v>19</v>
@@ -5191,7 +5191,7 @@
         <v>135</v>
       </c>
       <c r="B115">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -5202,7 +5202,7 @@
         <v>136</v>
       </c>
       <c r="B116">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C116">
         <v>17</v>
@@ -5213,7 +5213,7 @@
         <v>137</v>
       </c>
       <c r="B117">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C117">
         <v>16</v>
@@ -5224,7 +5224,7 @@
         <v>138</v>
       </c>
       <c r="B118">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C118">
         <v>15</v>
@@ -5235,7 +5235,7 @@
         <v>139</v>
       </c>
       <c r="B119">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C119">
         <v>14</v>
@@ -5246,7 +5246,7 @@
         <v>140</v>
       </c>
       <c r="B120">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C120">
         <v>13</v>
@@ -5257,7 +5257,7 @@
         <v>141</v>
       </c>
       <c r="B121">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C121">
         <v>12</v>
@@ -5268,7 +5268,7 @@
         <v>142</v>
       </c>
       <c r="B122">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C122">
         <v>11</v>
@@ -5279,7 +5279,7 @@
         <v>143</v>
       </c>
       <c r="B123">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C123">
         <v>21</v>
@@ -5290,7 +5290,7 @@
         <v>144</v>
       </c>
       <c r="B124">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C124">
         <v>20</v>
@@ -5301,7 +5301,7 @@
         <v>145</v>
       </c>
       <c r="B125">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C125">
         <v>19</v>
@@ -5312,7 +5312,7 @@
         <v>146</v>
       </c>
       <c r="B126">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C126">
         <v>18</v>
@@ -5323,7 +5323,7 @@
         <v>147</v>
       </c>
       <c r="B127">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C127">
         <v>17</v>
@@ -5334,7 +5334,7 @@
         <v>148</v>
       </c>
       <c r="B128">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C128">
         <v>16</v>
@@ -5345,7 +5345,7 @@
         <v>149</v>
       </c>
       <c r="B129">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C129">
         <v>15</v>
@@ -5356,7 +5356,7 @@
         <v>150</v>
       </c>
       <c r="B130">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C130">
         <v>14</v>
@@ -5367,7 +5367,7 @@
         <v>151</v>
       </c>
       <c r="B131">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C131">
         <v>13</v>
@@ -5378,7 +5378,7 @@
         <v>152</v>
       </c>
       <c r="B132">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C132">
         <v>12</v>
@@ -5389,7 +5389,7 @@
         <v>153</v>
       </c>
       <c r="B133">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C133">
         <v>11</v>
@@ -5400,7 +5400,7 @@
         <v>154</v>
       </c>
       <c r="B134">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C134">
         <v>21</v>
@@ -5411,7 +5411,7 @@
         <v>155</v>
       </c>
       <c r="B135">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C135">
         <v>20</v>
@@ -5422,7 +5422,7 @@
         <v>156</v>
       </c>
       <c r="B136">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C136">
         <v>19</v>
@@ -5433,7 +5433,7 @@
         <v>157</v>
       </c>
       <c r="B137">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C137">
         <v>18</v>
@@ -5444,7 +5444,7 @@
         <v>158</v>
       </c>
       <c r="B138">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C138">
         <v>17</v>
@@ -5455,7 +5455,7 @@
         <v>159</v>
       </c>
       <c r="B139">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C139">
         <v>16</v>
@@ -5466,7 +5466,7 @@
         <v>160</v>
       </c>
       <c r="B140">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C140">
         <v>15</v>
@@ -5477,7 +5477,7 @@
         <v>161</v>
       </c>
       <c r="B141">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C141">
         <v>14</v>
@@ -5488,7 +5488,7 @@
         <v>162</v>
       </c>
       <c r="B142">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C142">
         <v>13</v>
@@ -5499,7 +5499,7 @@
         <v>163</v>
       </c>
       <c r="B143">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C143">
         <v>12</v>
@@ -5510,7 +5510,7 @@
         <v>164</v>
       </c>
       <c r="B144">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C144">
         <v>11</v>
@@ -5521,7 +5521,7 @@
         <v>165</v>
       </c>
       <c r="B145">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C145">
         <v>21</v>
@@ -5532,7 +5532,7 @@
         <v>166</v>
       </c>
       <c r="B146">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C146">
         <v>20</v>
@@ -5543,7 +5543,7 @@
         <v>167</v>
       </c>
       <c r="B147">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C147">
         <v>19</v>
@@ -5554,7 +5554,7 @@
         <v>168</v>
       </c>
       <c r="B148">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C148">
         <v>18</v>
@@ -5565,7 +5565,7 @@
         <v>169</v>
       </c>
       <c r="B149">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C149">
         <v>17</v>
@@ -5576,7 +5576,7 @@
         <v>170</v>
       </c>
       <c r="B150">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C150">
         <v>16</v>
@@ -5587,7 +5587,7 @@
         <v>171</v>
       </c>
       <c r="B151">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C151">
         <v>15</v>
@@ -5598,7 +5598,7 @@
         <v>172</v>
       </c>
       <c r="B152">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C152">
         <v>14</v>
@@ -5609,7 +5609,7 @@
         <v>173</v>
       </c>
       <c r="B153">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C153">
         <v>13</v>
@@ -5620,7 +5620,7 @@
         <v>174</v>
       </c>
       <c r="B154">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C154">
         <v>12</v>
@@ -5631,7 +5631,7 @@
         <v>175</v>
       </c>
       <c r="B155">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C155">
         <v>11</v>
@@ -5642,7 +5642,7 @@
         <v>176</v>
       </c>
       <c r="B156">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C156">
         <v>21</v>
@@ -5653,7 +5653,7 @@
         <v>177</v>
       </c>
       <c r="B157">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C157">
         <v>20</v>
@@ -5664,7 +5664,7 @@
         <v>178</v>
       </c>
       <c r="B158">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C158">
         <v>19</v>
@@ -5675,7 +5675,7 @@
         <v>179</v>
       </c>
       <c r="B159">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C159">
         <v>18</v>
@@ -5686,7 +5686,7 @@
         <v>180</v>
       </c>
       <c r="B160">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C160">
         <v>17</v>
@@ -5697,7 +5697,7 @@
         <v>181</v>
       </c>
       <c r="B161">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C161">
         <v>16</v>
@@ -5708,7 +5708,7 @@
         <v>182</v>
       </c>
       <c r="B162">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C162">
         <v>15</v>
@@ -5719,7 +5719,7 @@
         <v>183</v>
       </c>
       <c r="B163">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C163">
         <v>14</v>
@@ -5730,7 +5730,7 @@
         <v>184</v>
       </c>
       <c r="B164">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C164">
         <v>13</v>
@@ -5741,7 +5741,7 @@
         <v>185</v>
       </c>
       <c r="B165">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C165">
         <v>12</v>
@@ -5752,7 +5752,7 @@
         <v>186</v>
       </c>
       <c r="B166">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C166">
         <v>11</v>
@@ -5763,7 +5763,7 @@
         <v>187</v>
       </c>
       <c r="B167">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C167">
         <v>21</v>
@@ -5774,7 +5774,7 @@
         <v>188</v>
       </c>
       <c r="B168">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C168">
         <v>20</v>
@@ -5785,7 +5785,7 @@
         <v>189</v>
       </c>
       <c r="B169">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C169">
         <v>19</v>
@@ -5796,7 +5796,7 @@
         <v>190</v>
       </c>
       <c r="B170">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C170">
         <v>18</v>
@@ -5807,7 +5807,7 @@
         <v>191</v>
       </c>
       <c r="B171">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C171">
         <v>17</v>
@@ -5818,7 +5818,7 @@
         <v>192</v>
       </c>
       <c r="B172">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C172">
         <v>16</v>
@@ -5829,7 +5829,7 @@
         <v>193</v>
       </c>
       <c r="B173">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C173">
         <v>15</v>
@@ -5840,7 +5840,7 @@
         <v>194</v>
       </c>
       <c r="B174">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C174">
         <v>14</v>
@@ -5851,7 +5851,7 @@
         <v>195</v>
       </c>
       <c r="B175">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C175">
         <v>13</v>
@@ -5862,7 +5862,7 @@
         <v>196</v>
       </c>
       <c r="B176">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C176">
         <v>12</v>
@@ -5873,7 +5873,7 @@
         <v>197</v>
       </c>
       <c r="B177">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C177">
         <v>11</v>
@@ -5884,7 +5884,7 @@
         <v>198</v>
       </c>
       <c r="B178">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C178">
         <v>21</v>
@@ -5895,7 +5895,7 @@
         <v>199</v>
       </c>
       <c r="B179">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C179">
         <v>20</v>
@@ -5906,7 +5906,7 @@
         <v>200</v>
       </c>
       <c r="B180">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C180">
         <v>19</v>
@@ -5917,7 +5917,7 @@
         <v>201</v>
       </c>
       <c r="B181">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C181">
         <v>18</v>
@@ -5928,7 +5928,7 @@
         <v>202</v>
       </c>
       <c r="B182">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C182">
         <v>17</v>
@@ -5939,7 +5939,7 @@
         <v>203</v>
       </c>
       <c r="B183">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C183">
         <v>16</v>
@@ -5950,7 +5950,7 @@
         <v>204</v>
       </c>
       <c r="B184">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C184">
         <v>15</v>
@@ -5961,7 +5961,7 @@
         <v>205</v>
       </c>
       <c r="B185">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C185">
         <v>14</v>
@@ -5972,7 +5972,7 @@
         <v>206</v>
       </c>
       <c r="B186">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C186">
         <v>13</v>
@@ -5983,7 +5983,7 @@
         <v>207</v>
       </c>
       <c r="B187">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C187">
         <v>12</v>
@@ -5994,7 +5994,7 @@
         <v>208</v>
       </c>
       <c r="B188">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C188">
         <v>11</v>
@@ -6005,7 +6005,7 @@
         <v>209</v>
       </c>
       <c r="B189">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C189">
         <v>21</v>
@@ -6016,7 +6016,7 @@
         <v>210</v>
       </c>
       <c r="B190">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C190">
         <v>20</v>
@@ -6027,7 +6027,7 @@
         <v>211</v>
       </c>
       <c r="B191">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C191">
         <v>19</v>
@@ -6038,7 +6038,7 @@
         <v>212</v>
       </c>
       <c r="B192">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C192">
         <v>18</v>
@@ -6049,7 +6049,7 @@
         <v>213</v>
       </c>
       <c r="B193">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C193">
         <v>17</v>
@@ -6060,7 +6060,7 @@
         <v>214</v>
       </c>
       <c r="B194">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C194">
         <v>16</v>
@@ -6071,7 +6071,7 @@
         <v>215</v>
       </c>
       <c r="B195">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C195">
         <v>15</v>
@@ -6082,7 +6082,7 @@
         <v>216</v>
       </c>
       <c r="B196">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C196">
         <v>14</v>
@@ -6093,7 +6093,7 @@
         <v>217</v>
       </c>
       <c r="B197">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C197">
         <v>13</v>
@@ -6104,7 +6104,7 @@
         <v>218</v>
       </c>
       <c r="B198">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C198">
         <v>12</v>
@@ -6115,7 +6115,7 @@
         <v>219</v>
       </c>
       <c r="B199">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C199">
         <v>11</v>
@@ -6126,7 +6126,7 @@
         <v>220</v>
       </c>
       <c r="B200">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C200">
         <v>21</v>
@@ -6137,7 +6137,7 @@
         <v>221</v>
       </c>
       <c r="B201">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C201">
         <v>20</v>
@@ -6148,7 +6148,7 @@
         <v>222</v>
       </c>
       <c r="B202">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C202">
         <v>19</v>
@@ -6159,7 +6159,7 @@
         <v>223</v>
       </c>
       <c r="B203">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C203">
         <v>18</v>
@@ -6170,7 +6170,7 @@
         <v>224</v>
       </c>
       <c r="B204">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C204">
         <v>17</v>
@@ -6181,7 +6181,7 @@
         <v>225</v>
       </c>
       <c r="B205">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C205">
         <v>16</v>
@@ -6192,7 +6192,7 @@
         <v>226</v>
       </c>
       <c r="B206">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C206">
         <v>15</v>
@@ -6203,7 +6203,7 @@
         <v>227</v>
       </c>
       <c r="B207">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C207">
         <v>14</v>
@@ -6214,7 +6214,7 @@
         <v>228</v>
       </c>
       <c r="B208">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C208">
         <v>13</v>
@@ -6225,7 +6225,7 @@
         <v>229</v>
       </c>
       <c r="B209">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C209">
         <v>12</v>
@@ -6236,7 +6236,7 @@
         <v>230</v>
       </c>
       <c r="B210">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C210">
         <v>11</v>
@@ -6247,7 +6247,7 @@
         <v>231</v>
       </c>
       <c r="B211">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C211">
         <v>21</v>
@@ -6258,7 +6258,7 @@
         <v>232</v>
       </c>
       <c r="B212">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C212">
         <v>20</v>
@@ -6269,7 +6269,7 @@
         <v>233</v>
       </c>
       <c r="B213">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C213">
         <v>19</v>
@@ -6280,7 +6280,7 @@
         <v>234</v>
       </c>
       <c r="B214">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C214">
         <v>18</v>
@@ -6291,7 +6291,7 @@
         <v>235</v>
       </c>
       <c r="B215">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C215">
         <v>17</v>
@@ -6302,7 +6302,7 @@
         <v>236</v>
       </c>
       <c r="B216">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C216">
         <v>16</v>
@@ -6313,7 +6313,7 @@
         <v>237</v>
       </c>
       <c r="B217">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C217">
         <v>15</v>
@@ -6324,7 +6324,7 @@
         <v>238</v>
       </c>
       <c r="B218">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C218">
         <v>14</v>
@@ -6335,7 +6335,7 @@
         <v>239</v>
       </c>
       <c r="B219">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C219">
         <v>13</v>
@@ -6346,7 +6346,7 @@
         <v>240</v>
       </c>
       <c r="B220">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C220">
         <v>12</v>
@@ -6357,7 +6357,7 @@
         <v>241</v>
       </c>
       <c r="B221">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C221">
         <v>11</v>
@@ -6368,7 +6368,7 @@
         <v>242</v>
       </c>
       <c r="B222">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C222">
         <v>21</v>
@@ -6379,7 +6379,7 @@
         <v>243</v>
       </c>
       <c r="B223">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C223">
         <v>20</v>
@@ -6390,7 +6390,7 @@
         <v>244</v>
       </c>
       <c r="B224">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C224">
         <v>19</v>
@@ -6401,7 +6401,7 @@
         <v>245</v>
       </c>
       <c r="B225">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C225">
         <v>18</v>
@@ -6412,7 +6412,7 @@
         <v>246</v>
       </c>
       <c r="B226">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C226">
         <v>17</v>
@@ -6423,7 +6423,7 @@
         <v>247</v>
       </c>
       <c r="B227">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C227">
         <v>16</v>
@@ -6434,7 +6434,7 @@
         <v>248</v>
       </c>
       <c r="B228">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C228">
         <v>15</v>
@@ -6445,7 +6445,7 @@
         <v>249</v>
       </c>
       <c r="B229">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C229">
         <v>14</v>
@@ -6456,7 +6456,7 @@
         <v>250</v>
       </c>
       <c r="B230">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C230">
         <v>13</v>
@@ -6467,7 +6467,7 @@
         <v>251</v>
       </c>
       <c r="B231">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C231">
         <v>12</v>
@@ -6478,7 +6478,7 @@
         <v>252</v>
       </c>
       <c r="B232">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C232">
         <v>11</v>
@@ -6489,7 +6489,7 @@
         <v>253</v>
       </c>
       <c r="B233">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C233">
         <v>21</v>
@@ -6500,7 +6500,7 @@
         <v>254</v>
       </c>
       <c r="B234">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C234">
         <v>20</v>
@@ -6511,7 +6511,7 @@
         <v>255</v>
       </c>
       <c r="B235">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C235">
         <v>19</v>
@@ -6522,7 +6522,7 @@
         <v>256</v>
       </c>
       <c r="B236">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C236">
         <v>18</v>
@@ -6533,7 +6533,7 @@
         <v>257</v>
       </c>
       <c r="B237">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C237">
         <v>17</v>
@@ -6544,7 +6544,7 @@
         <v>258</v>
       </c>
       <c r="B238">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C238">
         <v>16</v>
@@ -6555,7 +6555,7 @@
         <v>259</v>
       </c>
       <c r="B239">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C239">
         <v>15</v>
@@ -6566,7 +6566,7 @@
         <v>260</v>
       </c>
       <c r="B240">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C240">
         <v>14</v>
@@ -6577,7 +6577,7 @@
         <v>261</v>
       </c>
       <c r="B241">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C241">
         <v>13</v>
@@ -6588,7 +6588,7 @@
         <v>262</v>
       </c>
       <c r="B242">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C242">
         <v>12</v>
@@ -6599,7 +6599,7 @@
         <v>263</v>
       </c>
       <c r="B243">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C243">
         <v>11</v>
@@ -6610,7 +6610,7 @@
         <v>264</v>
       </c>
       <c r="B244">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C244">
         <v>21</v>
@@ -6621,7 +6621,7 @@
         <v>265</v>
       </c>
       <c r="B245">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C245">
         <v>20</v>
@@ -6632,7 +6632,7 @@
         <v>266</v>
       </c>
       <c r="B246">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C246">
         <v>19</v>
@@ -6643,7 +6643,7 @@
         <v>267</v>
       </c>
       <c r="B247">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C247">
         <v>18</v>
@@ -6654,7 +6654,7 @@
         <v>268</v>
       </c>
       <c r="B248">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C248">
         <v>17</v>
@@ -6665,7 +6665,7 @@
         <v>269</v>
       </c>
       <c r="B249">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C249">
         <v>16</v>
@@ -6676,7 +6676,7 @@
         <v>270</v>
       </c>
       <c r="B250">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C250">
         <v>15</v>
@@ -6687,7 +6687,7 @@
         <v>271</v>
       </c>
       <c r="B251">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C251">
         <v>14</v>
@@ -6698,7 +6698,7 @@
         <v>272</v>
       </c>
       <c r="B252">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C252">
         <v>13</v>
@@ -6709,7 +6709,7 @@
         <v>273</v>
       </c>
       <c r="B253">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C253">
         <v>12</v>
@@ -6720,7 +6720,7 @@
         <v>274</v>
       </c>
       <c r="B254">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C254">
         <v>11</v>
@@ -6731,7 +6731,7 @@
         <v>275</v>
       </c>
       <c r="B255">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C255">
         <v>21</v>
@@ -6742,7 +6742,7 @@
         <v>276</v>
       </c>
       <c r="B256">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C256">
         <v>20</v>
@@ -6753,7 +6753,7 @@
         <v>277</v>
       </c>
       <c r="B257">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C257">
         <v>19</v>
@@ -6764,7 +6764,7 @@
         <v>278</v>
       </c>
       <c r="B258">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C258">
         <v>18</v>
@@ -6775,7 +6775,7 @@
         <v>279</v>
       </c>
       <c r="B259">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C259">
         <v>17</v>
@@ -6786,7 +6786,7 @@
         <v>280</v>
       </c>
       <c r="B260">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C260">
         <v>16</v>
@@ -6797,7 +6797,7 @@
         <v>281</v>
       </c>
       <c r="B261">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C261">
         <v>15</v>
@@ -6808,7 +6808,7 @@
         <v>282</v>
       </c>
       <c r="B262">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C262">
         <v>14</v>
@@ -6819,7 +6819,7 @@
         <v>283</v>
       </c>
       <c r="B263">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C263">
         <v>13</v>
@@ -6830,7 +6830,7 @@
         <v>284</v>
       </c>
       <c r="B264">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C264">
         <v>12</v>
@@ -6841,7 +6841,7 @@
         <v>285</v>
       </c>
       <c r="B265">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C265">
         <v>11</v>
@@ -6852,7 +6852,7 @@
         <v>286</v>
       </c>
       <c r="B266">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C266">
         <v>21</v>
@@ -6863,7 +6863,7 @@
         <v>287</v>
       </c>
       <c r="B267">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C267">
         <v>20</v>
@@ -6874,7 +6874,7 @@
         <v>288</v>
       </c>
       <c r="B268">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C268">
         <v>19</v>
@@ -6885,7 +6885,7 @@
         <v>289</v>
       </c>
       <c r="B269">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C269">
         <v>18</v>
@@ -6896,7 +6896,7 @@
         <v>290</v>
       </c>
       <c r="B270">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C270">
         <v>17</v>
@@ -6907,7 +6907,7 @@
         <v>291</v>
       </c>
       <c r="B271">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C271">
         <v>16</v>
@@ -6918,7 +6918,7 @@
         <v>292</v>
       </c>
       <c r="B272">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C272">
         <v>15</v>
@@ -6929,7 +6929,7 @@
         <v>293</v>
       </c>
       <c r="B273">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C273">
         <v>14</v>
@@ -6940,7 +6940,7 @@
         <v>294</v>
       </c>
       <c r="B274">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C274">
         <v>13</v>
@@ -6951,7 +6951,7 @@
         <v>295</v>
       </c>
       <c r="B275">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C275">
         <v>12</v>
@@ -6962,7 +6962,7 @@
         <v>296</v>
       </c>
       <c r="B276">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C276">
         <v>21</v>
@@ -6973,7 +6973,7 @@
         <v>297</v>
       </c>
       <c r="B277">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C277">
         <v>20</v>
@@ -6984,7 +6984,7 @@
         <v>298</v>
       </c>
       <c r="B278">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C278">
         <v>19</v>
@@ -6995,7 +6995,7 @@
         <v>299</v>
       </c>
       <c r="B279">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C279">
         <v>18</v>
@@ -7006,7 +7006,7 @@
         <v>300</v>
       </c>
       <c r="B280">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C280">
         <v>17</v>
@@ -7017,7 +7017,7 @@
         <v>301</v>
       </c>
       <c r="B281">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C281">
         <v>16</v>
@@ -7028,7 +7028,7 @@
         <v>302</v>
       </c>
       <c r="B282">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C282">
         <v>15</v>
@@ -7039,7 +7039,7 @@
         <v>303</v>
       </c>
       <c r="B283">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C283">
         <v>14</v>
@@ -7050,7 +7050,7 @@
         <v>304</v>
       </c>
       <c r="B284">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C284">
         <v>13</v>
@@ -7061,7 +7061,7 @@
         <v>305</v>
       </c>
       <c r="B285">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C285">
         <v>12</v>
@@ -7072,7 +7072,7 @@
         <v>306</v>
       </c>
       <c r="B286">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C286">
         <v>21</v>
@@ -7083,7 +7083,7 @@
         <v>307</v>
       </c>
       <c r="B287">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C287">
         <v>20</v>
@@ -7094,7 +7094,7 @@
         <v>308</v>
       </c>
       <c r="B288">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C288">
         <v>19</v>
@@ -7105,7 +7105,7 @@
         <v>309</v>
       </c>
       <c r="B289">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C289">
         <v>18</v>
@@ -7116,7 +7116,7 @@
         <v>310</v>
       </c>
       <c r="B290">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C290">
         <v>17</v>
@@ -7127,7 +7127,7 @@
         <v>311</v>
       </c>
       <c r="B291">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C291">
         <v>16</v>
@@ -7138,7 +7138,7 @@
         <v>312</v>
       </c>
       <c r="B292">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C292">
         <v>15</v>
@@ -7149,7 +7149,7 @@
         <v>313</v>
       </c>
       <c r="B293">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C293">
         <v>14</v>
@@ -7160,7 +7160,7 @@
         <v>314</v>
       </c>
       <c r="B294">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C294">
         <v>13</v>
@@ -7171,7 +7171,7 @@
         <v>315</v>
       </c>
       <c r="B295">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C295">
         <v>12</v>
@@ -7182,7 +7182,7 @@
         <v>316</v>
       </c>
       <c r="B296">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C296">
         <v>21</v>
@@ -7193,7 +7193,7 @@
         <v>317</v>
       </c>
       <c r="B297">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C297">
         <v>20</v>
@@ -7204,7 +7204,7 @@
         <v>318</v>
       </c>
       <c r="B298">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C298">
         <v>19</v>
@@ -7215,7 +7215,7 @@
         <v>319</v>
       </c>
       <c r="B299">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C299">
         <v>18</v>
@@ -7226,7 +7226,7 @@
         <v>320</v>
       </c>
       <c r="B300">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C300">
         <v>17</v>
@@ -7237,7 +7237,7 @@
         <v>321</v>
       </c>
       <c r="B301">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C301">
         <v>16</v>
@@ -7248,7 +7248,7 @@
         <v>322</v>
       </c>
       <c r="B302">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C302">
         <v>15</v>
@@ -7259,7 +7259,7 @@
         <v>323</v>
       </c>
       <c r="B303">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C303">
         <v>14</v>
@@ -7270,7 +7270,7 @@
         <v>324</v>
       </c>
       <c r="B304">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C304">
         <v>13</v>
@@ -7281,7 +7281,7 @@
         <v>325</v>
       </c>
       <c r="B305">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C305">
         <v>12</v>
@@ -7292,7 +7292,7 @@
         <v>326</v>
       </c>
       <c r="B306">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C306">
         <v>21</v>
@@ -7303,7 +7303,7 @@
         <v>327</v>
       </c>
       <c r="B307">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C307">
         <v>20</v>
@@ -7314,7 +7314,7 @@
         <v>328</v>
       </c>
       <c r="B308">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C308">
         <v>19</v>
@@ -7325,7 +7325,7 @@
         <v>329</v>
       </c>
       <c r="B309">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C309">
         <v>18</v>
@@ -7336,7 +7336,7 @@
         <v>330</v>
       </c>
       <c r="B310">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C310">
         <v>17</v>
@@ -7347,7 +7347,7 @@
         <v>331</v>
       </c>
       <c r="B311">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C311">
         <v>16</v>
@@ -7358,7 +7358,7 @@
         <v>332</v>
       </c>
       <c r="B312">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C312">
         <v>15</v>
@@ -7369,7 +7369,7 @@
         <v>333</v>
       </c>
       <c r="B313">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C313">
         <v>14</v>
@@ -7380,7 +7380,7 @@
         <v>334</v>
       </c>
       <c r="B314">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C314">
         <v>13</v>
@@ -7391,7 +7391,7 @@
         <v>335</v>
       </c>
       <c r="B315">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C315">
         <v>12</v>
@@ -7402,7 +7402,7 @@
         <v>336</v>
       </c>
       <c r="B316">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C316">
         <v>21</v>
@@ -7413,7 +7413,7 @@
         <v>337</v>
       </c>
       <c r="B317">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C317">
         <v>20</v>
@@ -7424,7 +7424,7 @@
         <v>338</v>
       </c>
       <c r="B318">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C318">
         <v>19</v>
@@ -7435,7 +7435,7 @@
         <v>339</v>
       </c>
       <c r="B319">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C319">
         <v>18</v>
@@ -7446,7 +7446,7 @@
         <v>340</v>
       </c>
       <c r="B320">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C320">
         <v>17</v>
@@ -7457,7 +7457,7 @@
         <v>341</v>
       </c>
       <c r="B321">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C321">
         <v>16</v>
@@ -7468,7 +7468,7 @@
         <v>342</v>
       </c>
       <c r="B322">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C322">
         <v>15</v>
@@ -7479,7 +7479,7 @@
         <v>343</v>
       </c>
       <c r="B323">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C323">
         <v>14</v>
@@ -7490,7 +7490,7 @@
         <v>344</v>
       </c>
       <c r="B324">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C324">
         <v>13</v>
@@ -7501,7 +7501,7 @@
         <v>345</v>
       </c>
       <c r="B325">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C325">
         <v>12</v>
@@ -7512,7 +7512,7 @@
         <v>346</v>
       </c>
       <c r="B326">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C326">
         <v>21</v>
@@ -7523,7 +7523,7 @@
         <v>347</v>
       </c>
       <c r="B327">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C327">
         <v>20</v>
@@ -7534,7 +7534,7 @@
         <v>348</v>
       </c>
       <c r="B328">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C328">
         <v>19</v>
@@ -7545,7 +7545,7 @@
         <v>349</v>
       </c>
       <c r="B329">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C329">
         <v>18</v>
@@ -7556,7 +7556,7 @@
         <v>350</v>
       </c>
       <c r="B330">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C330">
         <v>17</v>
@@ -7567,7 +7567,7 @@
         <v>351</v>
       </c>
       <c r="B331">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C331">
         <v>16</v>
@@ -7578,7 +7578,7 @@
         <v>352</v>
       </c>
       <c r="B332">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C332">
         <v>15</v>
@@ -7589,7 +7589,7 @@
         <v>353</v>
       </c>
       <c r="B333">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C333">
         <v>14</v>
@@ -7600,7 +7600,7 @@
         <v>354</v>
       </c>
       <c r="B334">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C334">
         <v>13</v>
@@ -7611,7 +7611,7 @@
         <v>355</v>
       </c>
       <c r="B335">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C335">
         <v>12</v>
@@ -7622,7 +7622,7 @@
         <v>356</v>
       </c>
       <c r="B336">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C336">
         <v>21</v>
@@ -7633,7 +7633,7 @@
         <v>357</v>
       </c>
       <c r="B337">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C337">
         <v>20</v>
@@ -7644,7 +7644,7 @@
         <v>358</v>
       </c>
       <c r="B338">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C338">
         <v>19</v>
@@ -7655,7 +7655,7 @@
         <v>359</v>
       </c>
       <c r="B339">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C339">
         <v>18</v>
@@ -7666,7 +7666,7 @@
         <v>360</v>
       </c>
       <c r="B340">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C340">
         <v>17</v>
@@ -7677,7 +7677,7 @@
         <v>361</v>
       </c>
       <c r="B341">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C341">
         <v>16</v>
@@ -7688,7 +7688,7 @@
         <v>362</v>
       </c>
       <c r="B342">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C342">
         <v>15</v>
@@ -7699,7 +7699,7 @@
         <v>363</v>
       </c>
       <c r="B343">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C343">
         <v>14</v>
@@ -7710,7 +7710,7 @@
         <v>364</v>
       </c>
       <c r="B344">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C344">
         <v>13</v>
@@ -7721,7 +7721,7 @@
         <v>365</v>
       </c>
       <c r="B345">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C345">
         <v>12</v>
@@ -7732,7 +7732,7 @@
         <v>366</v>
       </c>
       <c r="B346">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C346">
         <v>21</v>
@@ -7743,7 +7743,7 @@
         <v>367</v>
       </c>
       <c r="B347">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C347">
         <v>20</v>
@@ -7754,7 +7754,7 @@
         <v>368</v>
       </c>
       <c r="B348">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C348">
         <v>19</v>
@@ -7765,7 +7765,7 @@
         <v>369</v>
       </c>
       <c r="B349">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C349">
         <v>18</v>
@@ -7776,7 +7776,7 @@
         <v>370</v>
       </c>
       <c r="B350">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C350">
         <v>17</v>
@@ -7787,7 +7787,7 @@
         <v>371</v>
       </c>
       <c r="B351">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C351">
         <v>16</v>
@@ -7798,7 +7798,7 @@
         <v>372</v>
       </c>
       <c r="B352">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C352">
         <v>15</v>
@@ -7809,7 +7809,7 @@
         <v>373</v>
       </c>
       <c r="B353">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C353">
         <v>14</v>
@@ -7820,7 +7820,7 @@
         <v>374</v>
       </c>
       <c r="B354">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C354">
         <v>13</v>
@@ -7831,7 +7831,7 @@
         <v>375</v>
       </c>
       <c r="B355">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C355">
         <v>12</v>
@@ -7842,7 +7842,7 @@
         <v>376</v>
       </c>
       <c r="B356">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C356">
         <v>21</v>
@@ -7853,7 +7853,7 @@
         <v>377</v>
       </c>
       <c r="B357">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C357">
         <v>20</v>
@@ -7864,7 +7864,7 @@
         <v>378</v>
       </c>
       <c r="B358">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C358">
         <v>19</v>
@@ -7875,7 +7875,7 @@
         <v>379</v>
       </c>
       <c r="B359">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C359">
         <v>18</v>
@@ -7886,7 +7886,7 @@
         <v>380</v>
       </c>
       <c r="B360">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C360">
         <v>17</v>
@@ -7897,7 +7897,7 @@
         <v>381</v>
       </c>
       <c r="B361">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C361">
         <v>16</v>
@@ -7908,7 +7908,7 @@
         <v>382</v>
       </c>
       <c r="B362">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C362">
         <v>15</v>
@@ -7919,7 +7919,7 @@
         <v>383</v>
       </c>
       <c r="B363">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C363">
         <v>14</v>
@@ -7930,7 +7930,7 @@
         <v>384</v>
       </c>
       <c r="B364">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C364">
         <v>13</v>
@@ -7941,7 +7941,7 @@
         <v>385</v>
       </c>
       <c r="B365">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C365">
         <v>12</v>
@@ -7952,7 +7952,7 @@
         <v>386</v>
       </c>
       <c r="B366">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C366">
         <v>21</v>
@@ -7963,7 +7963,7 @@
         <v>387</v>
       </c>
       <c r="B367">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C367">
         <v>20</v>
@@ -7974,7 +7974,7 @@
         <v>388</v>
       </c>
       <c r="B368">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C368">
         <v>19</v>
@@ -7985,7 +7985,7 @@
         <v>389</v>
       </c>
       <c r="B369">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C369">
         <v>18</v>
@@ -7996,7 +7996,7 @@
         <v>390</v>
       </c>
       <c r="B370">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C370">
         <v>17</v>
@@ -8007,7 +8007,7 @@
         <v>391</v>
       </c>
       <c r="B371">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C371">
         <v>16</v>
@@ -8018,7 +8018,7 @@
         <v>392</v>
       </c>
       <c r="B372">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C372">
         <v>15</v>
@@ -8029,7 +8029,7 @@
         <v>393</v>
       </c>
       <c r="B373">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C373">
         <v>14</v>
@@ -8040,7 +8040,7 @@
         <v>394</v>
       </c>
       <c r="B374">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C374">
         <v>13</v>
@@ -8051,7 +8051,7 @@
         <v>395</v>
       </c>
       <c r="B375">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C375">
         <v>12</v>
@@ -8062,7 +8062,7 @@
         <v>396</v>
       </c>
       <c r="B376">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C376">
         <v>21</v>
@@ -8073,7 +8073,7 @@
         <v>397</v>
       </c>
       <c r="B377">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C377">
         <v>20</v>
@@ -8084,7 +8084,7 @@
         <v>398</v>
       </c>
       <c r="B378">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C378">
         <v>19</v>
@@ -8095,7 +8095,7 @@
         <v>399</v>
       </c>
       <c r="B379">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C379">
         <v>18</v>
@@ -8106,7 +8106,7 @@
         <v>400</v>
       </c>
       <c r="B380">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C380">
         <v>17</v>
@@ -8117,7 +8117,7 @@
         <v>401</v>
       </c>
       <c r="B381">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C381">
         <v>16</v>
@@ -8128,7 +8128,7 @@
         <v>402</v>
       </c>
       <c r="B382">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C382">
         <v>15</v>
@@ -8139,7 +8139,7 @@
         <v>403</v>
       </c>
       <c r="B383">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C383">
         <v>14</v>
@@ -8150,7 +8150,7 @@
         <v>404</v>
       </c>
       <c r="B384">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C384">
         <v>13</v>
@@ -8161,7 +8161,7 @@
         <v>405</v>
       </c>
       <c r="B385">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C385">
         <v>12</v>
@@ -8172,7 +8172,7 @@
         <v>406</v>
       </c>
       <c r="B386">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C386">
         <v>21</v>
@@ -8183,7 +8183,7 @@
         <v>407</v>
       </c>
       <c r="B387">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C387">
         <v>20</v>
@@ -8194,7 +8194,7 @@
         <v>408</v>
       </c>
       <c r="B388">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C388">
         <v>19</v>
@@ -8205,7 +8205,7 @@
         <v>409</v>
       </c>
       <c r="B389">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C389">
         <v>18</v>
@@ -8216,7 +8216,7 @@
         <v>410</v>
       </c>
       <c r="B390">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C390">
         <v>17</v>
@@ -8227,7 +8227,7 @@
         <v>411</v>
       </c>
       <c r="B391">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C391">
         <v>16</v>
@@ -8238,7 +8238,7 @@
         <v>412</v>
       </c>
       <c r="B392">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C392">
         <v>15</v>
@@ -8249,7 +8249,7 @@
         <v>413</v>
       </c>
       <c r="B393">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C393">
         <v>14</v>
@@ -8260,7 +8260,7 @@
         <v>414</v>
       </c>
       <c r="B394">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C394">
         <v>13</v>
@@ -8271,7 +8271,7 @@
         <v>415</v>
       </c>
       <c r="B395">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C395">
         <v>12</v>
@@ -8282,7 +8282,7 @@
         <v>416</v>
       </c>
       <c r="B396">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C396">
         <v>11</v>
@@ -8293,7 +8293,7 @@
         <v>417</v>
       </c>
       <c r="B397">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C397">
         <v>21</v>
@@ -8304,7 +8304,7 @@
         <v>418</v>
       </c>
       <c r="B398">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C398">
         <v>20</v>
@@ -8315,7 +8315,7 @@
         <v>419</v>
       </c>
       <c r="B399">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C399">
         <v>19</v>
@@ -8326,7 +8326,7 @@
         <v>420</v>
       </c>
       <c r="B400">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C400">
         <v>18</v>
@@ -8337,7 +8337,7 @@
         <v>421</v>
       </c>
       <c r="B401">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C401">
         <v>17</v>
@@ -8348,7 +8348,7 @@
         <v>422</v>
       </c>
       <c r="B402">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C402">
         <v>16</v>
@@ -8359,7 +8359,7 @@
         <v>423</v>
       </c>
       <c r="B403">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C403">
         <v>15</v>
@@ -8370,7 +8370,7 @@
         <v>424</v>
       </c>
       <c r="B404">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C404">
         <v>14</v>
@@ -8381,7 +8381,7 @@
         <v>425</v>
       </c>
       <c r="B405">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C405">
         <v>13</v>
@@ -8392,7 +8392,7 @@
         <v>426</v>
       </c>
       <c r="B406">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C406">
         <v>12</v>
@@ -8403,7 +8403,7 @@
         <v>427</v>
       </c>
       <c r="B407">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C407">
         <v>11</v>
@@ -8414,7 +8414,7 @@
         <v>428</v>
       </c>
       <c r="B408">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C408">
         <v>21</v>
@@ -8425,7 +8425,7 @@
         <v>429</v>
       </c>
       <c r="B409">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C409">
         <v>20</v>
@@ -8436,7 +8436,7 @@
         <v>430</v>
       </c>
       <c r="B410">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C410">
         <v>19</v>
@@ -8447,7 +8447,7 @@
         <v>431</v>
       </c>
       <c r="B411">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C411">
         <v>18</v>
@@ -8458,7 +8458,7 @@
         <v>432</v>
       </c>
       <c r="B412">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C412">
         <v>17</v>
@@ -8469,7 +8469,7 @@
         <v>433</v>
       </c>
       <c r="B413">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C413">
         <v>16</v>
@@ -8480,7 +8480,7 @@
         <v>434</v>
       </c>
       <c r="B414">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C414">
         <v>15</v>
@@ -8491,7 +8491,7 @@
         <v>435</v>
       </c>
       <c r="B415">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C415">
         <v>14</v>
@@ -8502,7 +8502,7 @@
         <v>436</v>
       </c>
       <c r="B416">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C416">
         <v>13</v>
@@ -8513,7 +8513,7 @@
         <v>437</v>
       </c>
       <c r="B417">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C417">
         <v>12</v>
@@ -8524,7 +8524,7 @@
         <v>438</v>
       </c>
       <c r="B418">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C418">
         <v>11</v>
@@ -8535,7 +8535,7 @@
         <v>439</v>
       </c>
       <c r="B419">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C419">
         <v>21</v>
@@ -8546,7 +8546,7 @@
         <v>440</v>
       </c>
       <c r="B420">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C420">
         <v>20</v>
@@ -8557,7 +8557,7 @@
         <v>441</v>
       </c>
       <c r="B421">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C421">
         <v>19</v>
@@ -8568,7 +8568,7 @@
         <v>442</v>
       </c>
       <c r="B422">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C422">
         <v>18</v>
@@ -8579,7 +8579,7 @@
         <v>443</v>
       </c>
       <c r="B423">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C423">
         <v>17</v>
@@ -8590,7 +8590,7 @@
         <v>444</v>
       </c>
       <c r="B424">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C424">
         <v>16</v>
@@ -8601,7 +8601,7 @@
         <v>445</v>
       </c>
       <c r="B425">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C425">
         <v>15</v>
@@ -8612,7 +8612,7 @@
         <v>446</v>
       </c>
       <c r="B426">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C426">
         <v>14</v>
@@ -8623,7 +8623,7 @@
         <v>447</v>
       </c>
       <c r="B427">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C427">
         <v>13</v>
@@ -8634,7 +8634,7 @@
         <v>448</v>
       </c>
       <c r="B428">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C428">
         <v>12</v>
@@ -8645,7 +8645,7 @@
         <v>449</v>
       </c>
       <c r="B429">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C429">
         <v>11</v>
@@ -8656,7 +8656,7 @@
         <v>450</v>
       </c>
       <c r="B430">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C430">
         <v>21</v>
@@ -8667,7 +8667,7 @@
         <v>451</v>
       </c>
       <c r="B431">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C431">
         <v>20</v>
@@ -8678,7 +8678,7 @@
         <v>452</v>
       </c>
       <c r="B432">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C432">
         <v>19</v>
@@ -8689,7 +8689,7 @@
         <v>453</v>
       </c>
       <c r="B433">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C433">
         <v>18</v>
@@ -8700,7 +8700,7 @@
         <v>454</v>
       </c>
       <c r="B434">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C434">
         <v>17</v>
@@ -8711,7 +8711,7 @@
         <v>455</v>
       </c>
       <c r="B435">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C435">
         <v>16</v>
@@ -8722,7 +8722,7 @@
         <v>456</v>
       </c>
       <c r="B436">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C436">
         <v>15</v>
@@ -8733,7 +8733,7 @@
         <v>457</v>
       </c>
       <c r="B437">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C437">
         <v>14</v>
@@ -8744,7 +8744,7 @@
         <v>458</v>
       </c>
       <c r="B438">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C438">
         <v>13</v>
@@ -8755,7 +8755,7 @@
         <v>459</v>
       </c>
       <c r="B439">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C439">
         <v>12</v>
@@ -8766,7 +8766,7 @@
         <v>460</v>
       </c>
       <c r="B440">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C440">
         <v>11</v>
@@ -8777,7 +8777,7 @@
         <v>461</v>
       </c>
       <c r="B441">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C441">
         <v>21</v>
@@ -8788,7 +8788,7 @@
         <v>462</v>
       </c>
       <c r="B442">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C442">
         <v>20</v>
@@ -8799,7 +8799,7 @@
         <v>463</v>
       </c>
       <c r="B443">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C443">
         <v>19</v>
@@ -8810,7 +8810,7 @@
         <v>464</v>
       </c>
       <c r="B444">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C444">
         <v>18</v>
@@ -8821,7 +8821,7 @@
         <v>465</v>
       </c>
       <c r="B445">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C445">
         <v>17</v>
@@ -8832,7 +8832,7 @@
         <v>466</v>
       </c>
       <c r="B446">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C446">
         <v>16</v>
@@ -8843,7 +8843,7 @@
         <v>467</v>
       </c>
       <c r="B447">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C447">
         <v>15</v>
@@ -8854,7 +8854,7 @@
         <v>468</v>
       </c>
       <c r="B448">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C448">
         <v>14</v>
@@ -8865,7 +8865,7 @@
         <v>469</v>
       </c>
       <c r="B449">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C449">
         <v>13</v>
@@ -8876,7 +8876,7 @@
         <v>470</v>
       </c>
       <c r="B450">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C450">
         <v>12</v>
@@ -8887,7 +8887,7 @@
         <v>471</v>
       </c>
       <c r="B451">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C451">
         <v>11</v>
@@ -8898,7 +8898,7 @@
         <v>472</v>
       </c>
       <c r="B452">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C452">
         <v>21</v>
@@ -8909,7 +8909,7 @@
         <v>473</v>
       </c>
       <c r="B453">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C453">
         <v>20</v>
@@ -8920,7 +8920,7 @@
         <v>474</v>
       </c>
       <c r="B454">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C454">
         <v>19</v>
@@ -8931,7 +8931,7 @@
         <v>475</v>
       </c>
       <c r="B455">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C455">
         <v>18</v>
@@ -8942,7 +8942,7 @@
         <v>476</v>
       </c>
       <c r="B456">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C456">
         <v>17</v>
@@ -8953,7 +8953,7 @@
         <v>477</v>
       </c>
       <c r="B457">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C457">
         <v>16</v>
@@ -8964,7 +8964,7 @@
         <v>478</v>
       </c>
       <c r="B458">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C458">
         <v>15</v>
@@ -8975,7 +8975,7 @@
         <v>479</v>
       </c>
       <c r="B459">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C459">
         <v>14</v>
@@ -8986,7 +8986,7 @@
         <v>480</v>
       </c>
       <c r="B460">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C460">
         <v>13</v>
@@ -8997,7 +8997,7 @@
         <v>481</v>
       </c>
       <c r="B461">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C461">
         <v>12</v>
@@ -9008,7 +9008,7 @@
         <v>482</v>
       </c>
       <c r="B462">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C462">
         <v>11</v>
@@ -9019,7 +9019,7 @@
         <v>483</v>
       </c>
       <c r="B463">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C463">
         <v>21</v>
@@ -9030,7 +9030,7 @@
         <v>484</v>
       </c>
       <c r="B464">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C464">
         <v>20</v>
@@ -9041,7 +9041,7 @@
         <v>485</v>
       </c>
       <c r="B465">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C465">
         <v>19</v>
@@ -9052,7 +9052,7 @@
         <v>486</v>
       </c>
       <c r="B466">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C466">
         <v>18</v>
@@ -9063,7 +9063,7 @@
         <v>487</v>
       </c>
       <c r="B467">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C467">
         <v>17</v>
@@ -9074,7 +9074,7 @@
         <v>488</v>
       </c>
       <c r="B468">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C468">
         <v>16</v>
@@ -9085,7 +9085,7 @@
         <v>489</v>
       </c>
       <c r="B469">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C469">
         <v>15</v>
@@ -9096,7 +9096,7 @@
         <v>490</v>
       </c>
       <c r="B470">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C470">
         <v>14</v>
@@ -9107,7 +9107,7 @@
         <v>491</v>
       </c>
       <c r="B471">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C471">
         <v>13</v>
@@ -9118,7 +9118,7 @@
         <v>492</v>
       </c>
       <c r="B472">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C472">
         <v>12</v>
@@ -9129,7 +9129,7 @@
         <v>493</v>
       </c>
       <c r="B473">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C473">
         <v>11</v>
@@ -9140,7 +9140,7 @@
         <v>494</v>
       </c>
       <c r="B474">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C474">
         <v>21</v>
@@ -9151,7 +9151,7 @@
         <v>495</v>
       </c>
       <c r="B475">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C475">
         <v>20</v>
@@ -9162,7 +9162,7 @@
         <v>496</v>
       </c>
       <c r="B476">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C476">
         <v>19</v>
@@ -9173,7 +9173,7 @@
         <v>497</v>
       </c>
       <c r="B477">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C477">
         <v>18</v>
@@ -9184,7 +9184,7 @@
         <v>498</v>
       </c>
       <c r="B478">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C478">
         <v>17</v>
@@ -9195,7 +9195,7 @@
         <v>499</v>
       </c>
       <c r="B479">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C479">
         <v>16</v>
@@ -9206,7 +9206,7 @@
         <v>500</v>
       </c>
       <c r="B480">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C480">
         <v>15</v>
@@ -9217,7 +9217,7 @@
         <v>501</v>
       </c>
       <c r="B481">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C481">
         <v>14</v>
@@ -9228,7 +9228,7 @@
         <v>502</v>
       </c>
       <c r="B482">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C482">
         <v>13</v>
@@ -9239,7 +9239,7 @@
         <v>503</v>
       </c>
       <c r="B483">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C483">
         <v>12</v>
@@ -9250,7 +9250,7 @@
         <v>504</v>
       </c>
       <c r="B484">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C484">
         <v>11</v>
@@ -9261,7 +9261,7 @@
         <v>505</v>
       </c>
       <c r="B485">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C485">
         <v>21</v>
@@ -9272,7 +9272,7 @@
         <v>506</v>
       </c>
       <c r="B486">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C486">
         <v>20</v>
@@ -9283,7 +9283,7 @@
         <v>507</v>
       </c>
       <c r="B487">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C487">
         <v>19</v>
@@ -9294,7 +9294,7 @@
         <v>508</v>
       </c>
       <c r="B488">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C488">
         <v>18</v>
@@ -9305,7 +9305,7 @@
         <v>509</v>
       </c>
       <c r="B489">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C489">
         <v>17</v>
@@ -9316,7 +9316,7 @@
         <v>510</v>
       </c>
       <c r="B490">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C490">
         <v>16</v>
@@ -9327,7 +9327,7 @@
         <v>511</v>
       </c>
       <c r="B491">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C491">
         <v>15</v>
@@ -9338,7 +9338,7 @@
         <v>512</v>
       </c>
       <c r="B492">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C492">
         <v>14</v>
@@ -9349,7 +9349,7 @@
         <v>513</v>
       </c>
       <c r="B493">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C493">
         <v>13</v>
@@ -9360,7 +9360,7 @@
         <v>514</v>
       </c>
       <c r="B494">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C494">
         <v>12</v>
@@ -9371,7 +9371,7 @@
         <v>515</v>
       </c>
       <c r="B495">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C495">
         <v>11</v>
@@ -9382,7 +9382,7 @@
         <v>516</v>
       </c>
       <c r="B496">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C496">
         <v>21</v>
@@ -9393,7 +9393,7 @@
         <v>517</v>
       </c>
       <c r="B497">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C497">
         <v>20</v>
@@ -9404,7 +9404,7 @@
         <v>518</v>
       </c>
       <c r="B498">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C498">
         <v>19</v>
@@ -9415,7 +9415,7 @@
         <v>519</v>
       </c>
       <c r="B499">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C499">
         <v>18</v>
@@ -9426,7 +9426,7 @@
         <v>520</v>
       </c>
       <c r="B500">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C500">
         <v>17</v>
@@ -9437,7 +9437,7 @@
         <v>521</v>
       </c>
       <c r="B501">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C501">
         <v>16</v>
@@ -9448,7 +9448,7 @@
         <v>522</v>
       </c>
       <c r="B502">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C502">
         <v>15</v>
@@ -9459,7 +9459,7 @@
         <v>523</v>
       </c>
       <c r="B503">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C503">
         <v>14</v>
@@ -9470,7 +9470,7 @@
         <v>524</v>
       </c>
       <c r="B504">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C504">
         <v>13</v>
@@ -9481,7 +9481,7 @@
         <v>525</v>
       </c>
       <c r="B505">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C505">
         <v>12</v>
@@ -9492,7 +9492,7 @@
         <v>526</v>
       </c>
       <c r="B506">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C506">
         <v>11</v>
@@ -9503,7 +9503,7 @@
         <v>527</v>
       </c>
       <c r="B507">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C507">
         <v>21</v>
@@ -9514,7 +9514,7 @@
         <v>528</v>
       </c>
       <c r="B508">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C508">
         <v>20</v>
@@ -9525,7 +9525,7 @@
         <v>529</v>
       </c>
       <c r="B509">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C509">
         <v>19</v>
@@ -9536,7 +9536,7 @@
         <v>530</v>
       </c>
       <c r="B510">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C510">
         <v>18</v>
@@ -9547,7 +9547,7 @@
         <v>531</v>
       </c>
       <c r="B511">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C511">
         <v>17</v>
@@ -9558,7 +9558,7 @@
         <v>532</v>
       </c>
       <c r="B512">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C512">
         <v>16</v>
@@ -9569,7 +9569,7 @@
         <v>533</v>
       </c>
       <c r="B513">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C513">
         <v>15</v>
@@ -9580,7 +9580,7 @@
         <v>534</v>
       </c>
       <c r="B514">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C514">
         <v>14</v>
@@ -9591,7 +9591,7 @@
         <v>535</v>
       </c>
       <c r="B515">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C515">
         <v>13</v>
@@ -9602,7 +9602,7 @@
         <v>536</v>
       </c>
       <c r="B516">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C516">
         <v>12</v>
@@ -9613,7 +9613,7 @@
         <v>537</v>
       </c>
       <c r="B517">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C517">
         <v>11</v>
@@ -9624,7 +9624,7 @@
         <v>538</v>
       </c>
       <c r="B518">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C518">
         <v>21</v>
@@ -9635,7 +9635,7 @@
         <v>539</v>
       </c>
       <c r="B519">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C519">
         <v>20</v>
@@ -9646,7 +9646,7 @@
         <v>540</v>
       </c>
       <c r="B520">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C520">
         <v>19</v>
@@ -9657,7 +9657,7 @@
         <v>541</v>
       </c>
       <c r="B521">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C521">
         <v>18</v>
@@ -9668,7 +9668,7 @@
         <v>542</v>
       </c>
       <c r="B522">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C522">
         <v>17</v>
@@ -9679,7 +9679,7 @@
         <v>543</v>
       </c>
       <c r="B523">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C523">
         <v>16</v>
@@ -9690,7 +9690,7 @@
         <v>544</v>
       </c>
       <c r="B524">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C524">
         <v>15</v>
@@ -9701,7 +9701,7 @@
         <v>545</v>
       </c>
       <c r="B525">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C525">
         <v>14</v>
@@ -9712,7 +9712,7 @@
         <v>546</v>
       </c>
       <c r="B526">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C526">
         <v>13</v>
@@ -9723,7 +9723,7 @@
         <v>547</v>
       </c>
       <c r="B527">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C527">
         <v>12</v>
@@ -9734,7 +9734,7 @@
         <v>548</v>
       </c>
       <c r="B528">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C528">
         <v>11</v>
@@ -9745,7 +9745,7 @@
         <v>549</v>
       </c>
       <c r="B529">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C529">
         <v>21</v>
@@ -9756,7 +9756,7 @@
         <v>550</v>
       </c>
       <c r="B530">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C530">
         <v>20</v>
@@ -9767,7 +9767,7 @@
         <v>551</v>
       </c>
       <c r="B531">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C531">
         <v>19</v>
@@ -9778,7 +9778,7 @@
         <v>552</v>
       </c>
       <c r="B532">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C532">
         <v>18</v>
@@ -9789,7 +9789,7 @@
         <v>553</v>
       </c>
       <c r="B533">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C533">
         <v>17</v>
@@ -9800,7 +9800,7 @@
         <v>554</v>
       </c>
       <c r="B534">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C534">
         <v>16</v>
@@ -9811,7 +9811,7 @@
         <v>555</v>
       </c>
       <c r="B535">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C535">
         <v>15</v>
@@ -9822,7 +9822,7 @@
         <v>556</v>
       </c>
       <c r="B536">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C536">
         <v>14</v>
@@ -9833,7 +9833,7 @@
         <v>557</v>
       </c>
       <c r="B537">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C537">
         <v>13</v>
@@ -9844,7 +9844,7 @@
         <v>558</v>
       </c>
       <c r="B538">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C538">
         <v>12</v>
@@ -9855,7 +9855,7 @@
         <v>559</v>
       </c>
       <c r="B539">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C539">
         <v>11</v>
@@ -9866,7 +9866,7 @@
         <v>560</v>
       </c>
       <c r="B540">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C540">
         <v>21</v>
@@ -9877,7 +9877,7 @@
         <v>561</v>
       </c>
       <c r="B541">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C541">
         <v>20</v>
@@ -9888,7 +9888,7 @@
         <v>562</v>
       </c>
       <c r="B542">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C542">
         <v>19</v>
@@ -9899,7 +9899,7 @@
         <v>563</v>
       </c>
       <c r="B543">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C543">
         <v>18</v>
@@ -9910,7 +9910,7 @@
         <v>564</v>
       </c>
       <c r="B544">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C544">
         <v>17</v>
@@ -9921,7 +9921,7 @@
         <v>565</v>
       </c>
       <c r="B545">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C545">
         <v>16</v>
@@ -9932,7 +9932,7 @@
         <v>566</v>
       </c>
       <c r="B546">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C546">
         <v>15</v>
@@ -9943,7 +9943,7 @@
         <v>567</v>
       </c>
       <c r="B547">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C547">
         <v>14</v>
@@ -9954,7 +9954,7 @@
         <v>568</v>
       </c>
       <c r="B548">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C548">
         <v>13</v>
@@ -9965,7 +9965,7 @@
         <v>569</v>
       </c>
       <c r="B549">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C549">
         <v>12</v>
@@ -9976,7 +9976,7 @@
         <v>570</v>
       </c>
       <c r="B550">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C550">
         <v>11</v>
@@ -9987,7 +9987,7 @@
         <v>571</v>
       </c>
       <c r="B551">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C551">
         <v>21</v>
@@ -9998,7 +9998,7 @@
         <v>572</v>
       </c>
       <c r="B552">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C552">
         <v>20</v>
@@ -10009,7 +10009,7 @@
         <v>573</v>
       </c>
       <c r="B553">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C553">
         <v>19</v>
@@ -10020,7 +10020,7 @@
         <v>574</v>
       </c>
       <c r="B554">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C554">
         <v>18</v>
@@ -10031,7 +10031,7 @@
         <v>575</v>
       </c>
       <c r="B555">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C555">
         <v>17</v>
@@ -10042,7 +10042,7 @@
         <v>576</v>
       </c>
       <c r="B556">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C556">
         <v>16</v>
@@ -10053,7 +10053,7 @@
         <v>577</v>
       </c>
       <c r="B557">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C557">
         <v>15</v>
@@ -10064,7 +10064,7 @@
         <v>578</v>
       </c>
       <c r="B558">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C558">
         <v>14</v>
@@ -10075,7 +10075,7 @@
         <v>579</v>
       </c>
       <c r="B559">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C559">
         <v>13</v>
@@ -10086,7 +10086,7 @@
         <v>580</v>
       </c>
       <c r="B560">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C560">
         <v>12</v>
@@ -10097,7 +10097,7 @@
         <v>581</v>
       </c>
       <c r="B561">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C561">
         <v>11</v>
@@ -10108,7 +10108,7 @@
         <v>582</v>
       </c>
       <c r="B562">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C562">
         <v>21</v>
@@ -10119,7 +10119,7 @@
         <v>583</v>
       </c>
       <c r="B563">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C563">
         <v>20</v>
@@ -10130,7 +10130,7 @@
         <v>584</v>
       </c>
       <c r="B564">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C564">
         <v>19</v>
@@ -10141,7 +10141,7 @@
         <v>585</v>
       </c>
       <c r="B565">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C565">
         <v>18</v>
@@ -10152,7 +10152,7 @@
         <v>586</v>
       </c>
       <c r="B566">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C566">
         <v>17</v>
@@ -10163,7 +10163,7 @@
         <v>587</v>
       </c>
       <c r="B567">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C567">
         <v>16</v>
@@ -10174,7 +10174,7 @@
         <v>588</v>
       </c>
       <c r="B568">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C568">
         <v>15</v>
@@ -10185,7 +10185,7 @@
         <v>589</v>
       </c>
       <c r="B569">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C569">
         <v>14</v>
@@ -10196,7 +10196,7 @@
         <v>590</v>
       </c>
       <c r="B570">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C570">
         <v>13</v>
@@ -10207,7 +10207,7 @@
         <v>591</v>
       </c>
       <c r="B571">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C571">
         <v>12</v>
@@ -10218,7 +10218,7 @@
         <v>592</v>
       </c>
       <c r="B572">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C572">
         <v>11</v>
@@ -10229,7 +10229,7 @@
         <v>593</v>
       </c>
       <c r="B573">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C573">
         <v>21</v>
@@ -10240,7 +10240,7 @@
         <v>594</v>
       </c>
       <c r="B574">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C574">
         <v>20</v>
@@ -10251,7 +10251,7 @@
         <v>595</v>
       </c>
       <c r="B575">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C575">
         <v>19</v>
@@ -10262,7 +10262,7 @@
         <v>596</v>
       </c>
       <c r="B576">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C576">
         <v>18</v>
@@ -10273,7 +10273,7 @@
         <v>597</v>
       </c>
       <c r="B577">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C577">
         <v>17</v>
@@ -10284,7 +10284,7 @@
         <v>598</v>
       </c>
       <c r="B578">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C578">
         <v>16</v>
@@ -10295,7 +10295,7 @@
         <v>599</v>
       </c>
       <c r="B579">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C579">
         <v>15</v>
@@ -10306,7 +10306,7 @@
         <v>600</v>
       </c>
       <c r="B580">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C580">
         <v>14</v>
@@ -10317,7 +10317,7 @@
         <v>601</v>
       </c>
       <c r="B581">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C581">
         <v>13</v>
@@ -10328,7 +10328,7 @@
         <v>602</v>
       </c>
       <c r="B582">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C582">
         <v>12</v>
@@ -10339,7 +10339,7 @@
         <v>603</v>
       </c>
       <c r="B583">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C583">
         <v>11</v>
@@ -10350,7 +10350,7 @@
         <v>604</v>
       </c>
       <c r="B584">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C584">
         <v>21</v>
@@ -10361,7 +10361,7 @@
         <v>605</v>
       </c>
       <c r="B585">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C585">
         <v>20</v>
@@ -10372,7 +10372,7 @@
         <v>606</v>
       </c>
       <c r="B586">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C586">
         <v>19</v>
@@ -10383,7 +10383,7 @@
         <v>607</v>
       </c>
       <c r="B587">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C587">
         <v>18</v>
@@ -10394,7 +10394,7 @@
         <v>608</v>
       </c>
       <c r="B588">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C588">
         <v>17</v>
@@ -10405,7 +10405,7 @@
         <v>609</v>
       </c>
       <c r="B589">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C589">
         <v>16</v>
@@ -10416,7 +10416,7 @@
         <v>610</v>
       </c>
       <c r="B590">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C590">
         <v>15</v>
@@ -10427,7 +10427,7 @@
         <v>611</v>
       </c>
       <c r="B591">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C591">
         <v>14</v>
@@ -10438,7 +10438,7 @@
         <v>612</v>
       </c>
       <c r="B592">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C592">
         <v>13</v>
@@ -10449,7 +10449,7 @@
         <v>613</v>
       </c>
       <c r="B593">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C593">
         <v>12</v>
@@ -10460,7 +10460,7 @@
         <v>614</v>
       </c>
       <c r="B594">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C594">
         <v>11</v>
@@ -10471,7 +10471,7 @@
         <v>615</v>
       </c>
       <c r="B595">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C595">
         <v>21</v>
@@ -10482,7 +10482,7 @@
         <v>616</v>
       </c>
       <c r="B596">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C596">
         <v>20</v>
@@ -10493,7 +10493,7 @@
         <v>617</v>
       </c>
       <c r="B597">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C597">
         <v>19</v>
@@ -10504,7 +10504,7 @@
         <v>618</v>
       </c>
       <c r="B598">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C598">
         <v>18</v>
@@ -10515,7 +10515,7 @@
         <v>619</v>
       </c>
       <c r="B599">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C599">
         <v>17</v>
@@ -10526,7 +10526,7 @@
         <v>620</v>
       </c>
       <c r="B600">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C600">
         <v>16</v>
@@ -10537,7 +10537,7 @@
         <v>621</v>
       </c>
       <c r="B601">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C601">
         <v>15</v>
@@ -10548,7 +10548,7 @@
         <v>622</v>
       </c>
       <c r="B602">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C602">
         <v>14</v>
@@ -10559,7 +10559,7 @@
         <v>623</v>
       </c>
       <c r="B603">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C603">
         <v>13</v>
@@ -10570,7 +10570,7 @@
         <v>624</v>
       </c>
       <c r="B604">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C604">
         <v>12</v>
@@ -10581,7 +10581,7 @@
         <v>625</v>
       </c>
       <c r="B605">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C605">
         <v>11</v>
@@ -10592,7 +10592,7 @@
         <v>626</v>
       </c>
       <c r="B606">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C606">
         <v>21</v>
@@ -10603,7 +10603,7 @@
         <v>627</v>
       </c>
       <c r="B607">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C607">
         <v>20</v>
@@ -10614,7 +10614,7 @@
         <v>628</v>
       </c>
       <c r="B608">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C608">
         <v>19</v>
@@ -10625,7 +10625,7 @@
         <v>629</v>
       </c>
       <c r="B609">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C609">
         <v>18</v>
@@ -10636,7 +10636,7 @@
         <v>630</v>
       </c>
       <c r="B610">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C610">
         <v>17</v>
@@ -10647,7 +10647,7 @@
         <v>631</v>
       </c>
       <c r="B611">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C611">
         <v>16</v>
@@ -10658,7 +10658,7 @@
         <v>632</v>
       </c>
       <c r="B612">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C612">
         <v>15</v>
@@ -10669,7 +10669,7 @@
         <v>633</v>
       </c>
       <c r="B613">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C613">
         <v>14</v>
@@ -10680,7 +10680,7 @@
         <v>634</v>
       </c>
       <c r="B614">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C614">
         <v>13</v>
@@ -10691,7 +10691,7 @@
         <v>635</v>
       </c>
       <c r="B615">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C615">
         <v>12</v>
@@ -10702,7 +10702,7 @@
         <v>636</v>
       </c>
       <c r="B616">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C616">
         <v>11</v>
@@ -10713,7 +10713,7 @@
         <v>637</v>
       </c>
       <c r="B617">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C617">
         <v>21</v>
@@ -10724,7 +10724,7 @@
         <v>638</v>
       </c>
       <c r="B618">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C618">
         <v>20</v>
@@ -10735,7 +10735,7 @@
         <v>639</v>
       </c>
       <c r="B619">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C619">
         <v>19</v>
@@ -10746,7 +10746,7 @@
         <v>640</v>
       </c>
       <c r="B620">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C620">
         <v>18</v>
@@ -10757,7 +10757,7 @@
         <v>641</v>
       </c>
       <c r="B621">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C621">
         <v>17</v>
@@ -10768,7 +10768,7 @@
         <v>642</v>
       </c>
       <c r="B622">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C622">
         <v>16</v>
@@ -10779,7 +10779,7 @@
         <v>643</v>
       </c>
       <c r="B623">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C623">
         <v>15</v>
@@ -10790,7 +10790,7 @@
         <v>644</v>
       </c>
       <c r="B624">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C624">
         <v>14</v>
@@ -10801,7 +10801,7 @@
         <v>645</v>
       </c>
       <c r="B625">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C625">
         <v>13</v>
@@ -10812,7 +10812,7 @@
         <v>646</v>
       </c>
       <c r="B626">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C626">
         <v>12</v>
@@ -10823,7 +10823,7 @@
         <v>647</v>
       </c>
       <c r="B627">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C627">
         <v>11</v>
@@ -10834,7 +10834,7 @@
         <v>648</v>
       </c>
       <c r="B628">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C628">
         <v>21</v>
@@ -10845,7 +10845,7 @@
         <v>649</v>
       </c>
       <c r="B629">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C629">
         <v>20</v>
@@ -10856,7 +10856,7 @@
         <v>650</v>
       </c>
       <c r="B630">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C630">
         <v>19</v>
@@ -10867,7 +10867,7 @@
         <v>651</v>
       </c>
       <c r="B631">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C631">
         <v>18</v>
@@ -10878,7 +10878,7 @@
         <v>652</v>
       </c>
       <c r="B632">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C632">
         <v>17</v>
@@ -10889,7 +10889,7 @@
         <v>653</v>
       </c>
       <c r="B633">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C633">
         <v>16</v>
@@ -10900,7 +10900,7 @@
         <v>654</v>
       </c>
       <c r="B634">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C634">
         <v>15</v>
@@ -10911,7 +10911,7 @@
         <v>655</v>
       </c>
       <c r="B635">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C635">
         <v>14</v>
@@ -10922,7 +10922,7 @@
         <v>656</v>
       </c>
       <c r="B636">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C636">
         <v>13</v>
@@ -10933,7 +10933,7 @@
         <v>657</v>
       </c>
       <c r="B637">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C637">
         <v>12</v>
@@ -10944,7 +10944,7 @@
         <v>658</v>
       </c>
       <c r="B638">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C638">
         <v>11</v>
@@ -10955,7 +10955,7 @@
         <v>659</v>
       </c>
       <c r="B639">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C639">
         <v>21</v>
@@ -10966,7 +10966,7 @@
         <v>660</v>
       </c>
       <c r="B640">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C640">
         <v>20</v>
@@ -10977,7 +10977,7 @@
         <v>661</v>
       </c>
       <c r="B641">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C641">
         <v>19</v>
@@ -10988,7 +10988,7 @@
         <v>662</v>
       </c>
       <c r="B642">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C642">
         <v>18</v>
@@ -10999,7 +10999,7 @@
         <v>663</v>
       </c>
       <c r="B643">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C643">
         <v>17</v>
@@ -11010,7 +11010,7 @@
         <v>664</v>
       </c>
       <c r="B644">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C644">
         <v>16</v>
@@ -11021,7 +11021,7 @@
         <v>665</v>
       </c>
       <c r="B645">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C645">
         <v>15</v>
@@ -11032,7 +11032,7 @@
         <v>666</v>
       </c>
       <c r="B646">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C646">
         <v>14</v>
@@ -11043,7 +11043,7 @@
         <v>667</v>
       </c>
       <c r="B647">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C647">
         <v>13</v>
@@ -11054,7 +11054,7 @@
         <v>668</v>
       </c>
       <c r="B648">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C648">
         <v>12</v>
@@ -11065,7 +11065,7 @@
         <v>669</v>
       </c>
       <c r="B649">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C649">
         <v>11</v>
@@ -11076,7 +11076,7 @@
         <v>670</v>
       </c>
       <c r="B650">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C650">
         <v>21</v>
@@ -11087,7 +11087,7 @@
         <v>671</v>
       </c>
       <c r="B651">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C651">
         <v>20</v>
@@ -11098,7 +11098,7 @@
         <v>672</v>
       </c>
       <c r="B652">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C652">
         <v>19</v>
@@ -11109,7 +11109,7 @@
         <v>673</v>
       </c>
       <c r="B653">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C653">
         <v>18</v>
@@ -11120,7 +11120,7 @@
         <v>674</v>
       </c>
       <c r="B654">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C654">
         <v>17</v>
@@ -11131,7 +11131,7 @@
         <v>675</v>
       </c>
       <c r="B655">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C655">
         <v>16</v>
@@ -11142,7 +11142,7 @@
         <v>676</v>
       </c>
       <c r="B656">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C656">
         <v>15</v>
@@ -11153,7 +11153,7 @@
         <v>677</v>
       </c>
       <c r="B657">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C657">
         <v>14</v>
@@ -11164,7 +11164,7 @@
         <v>678</v>
       </c>
       <c r="B658">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C658">
         <v>13</v>
@@ -11175,7 +11175,7 @@
         <v>679</v>
       </c>
       <c r="B659">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C659">
         <v>12</v>
@@ -11186,7 +11186,7 @@
         <v>680</v>
       </c>
       <c r="B660">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C660">
         <v>11</v>
@@ -11197,7 +11197,7 @@
         <v>681</v>
       </c>
       <c r="B661">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C661">
         <v>21</v>
@@ -11208,7 +11208,7 @@
         <v>682</v>
       </c>
       <c r="B662">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C662">
         <v>20</v>
@@ -11219,7 +11219,7 @@
         <v>683</v>
       </c>
       <c r="B663">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C663">
         <v>19</v>
@@ -11230,7 +11230,7 @@
         <v>684</v>
       </c>
       <c r="B664">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C664">
         <v>18</v>
@@ -11241,7 +11241,7 @@
         <v>685</v>
       </c>
       <c r="B665">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C665">
         <v>17</v>
@@ -11252,7 +11252,7 @@
         <v>686</v>
       </c>
       <c r="B666">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C666">
         <v>16</v>
@@ -11263,7 +11263,7 @@
         <v>687</v>
       </c>
       <c r="B667">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C667">
         <v>15</v>
@@ -11274,7 +11274,7 @@
         <v>688</v>
       </c>
       <c r="B668">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C668">
         <v>14</v>
@@ -11285,7 +11285,7 @@
         <v>689</v>
       </c>
       <c r="B669">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C669">
         <v>13</v>
@@ -11296,7 +11296,7 @@
         <v>690</v>
       </c>
       <c r="B670">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C670">
         <v>12</v>
@@ -11307,7 +11307,7 @@
         <v>691</v>
       </c>
       <c r="B671">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C671">
         <v>11</v>
@@ -11318,7 +11318,7 @@
         <v>692</v>
       </c>
       <c r="B672">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C672">
         <v>21</v>
@@ -11329,7 +11329,7 @@
         <v>693</v>
       </c>
       <c r="B673">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C673">
         <v>20</v>
@@ -11340,7 +11340,7 @@
         <v>694</v>
       </c>
       <c r="B674">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C674">
         <v>19</v>
@@ -11351,7 +11351,7 @@
         <v>695</v>
       </c>
       <c r="B675">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C675">
         <v>18</v>
@@ -11362,7 +11362,7 @@
         <v>696</v>
       </c>
       <c r="B676">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C676">
         <v>17</v>
@@ -11373,7 +11373,7 @@
         <v>697</v>
       </c>
       <c r="B677">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C677">
         <v>16</v>
@@ -11384,7 +11384,7 @@
         <v>698</v>
       </c>
       <c r="B678">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C678">
         <v>15</v>
@@ -11395,7 +11395,7 @@
         <v>699</v>
       </c>
       <c r="B679">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C679">
         <v>14</v>
@@ -11406,7 +11406,7 @@
         <v>700</v>
       </c>
       <c r="B680">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C680">
         <v>13</v>
@@ -11417,7 +11417,7 @@
         <v>701</v>
       </c>
       <c r="B681">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C681">
         <v>12</v>
@@ -11428,7 +11428,7 @@
         <v>702</v>
       </c>
       <c r="B682">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C682">
         <v>11</v>
@@ -11439,7 +11439,7 @@
         <v>703</v>
       </c>
       <c r="B683">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C683">
         <v>21</v>
@@ -11450,7 +11450,7 @@
         <v>704</v>
       </c>
       <c r="B684">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C684">
         <v>20</v>
@@ -11461,7 +11461,7 @@
         <v>705</v>
       </c>
       <c r="B685">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C685">
         <v>19</v>
@@ -11472,7 +11472,7 @@
         <v>706</v>
       </c>
       <c r="B686">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C686">
         <v>18</v>
@@ -11483,7 +11483,7 @@
         <v>707</v>
       </c>
       <c r="B687">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C687">
         <v>17</v>
@@ -11494,7 +11494,7 @@
         <v>708</v>
       </c>
       <c r="B688">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C688">
         <v>16</v>
@@ -11505,7 +11505,7 @@
         <v>709</v>
       </c>
       <c r="B689">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C689">
         <v>15</v>
@@ -11516,7 +11516,7 @@
         <v>710</v>
       </c>
       <c r="B690">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C690">
         <v>14</v>
@@ -11527,7 +11527,7 @@
         <v>711</v>
       </c>
       <c r="B691">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C691">
         <v>13</v>
@@ -11538,7 +11538,7 @@
         <v>712</v>
       </c>
       <c r="B692">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C692">
         <v>12</v>
@@ -11549,7 +11549,7 @@
         <v>713</v>
       </c>
       <c r="B693">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C693">
         <v>11</v>
@@ -11560,7 +11560,7 @@
         <v>714</v>
       </c>
       <c r="B694">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C694">
         <v>21</v>
@@ -11571,7 +11571,7 @@
         <v>715</v>
       </c>
       <c r="B695">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C695">
         <v>20</v>
@@ -11582,7 +11582,7 @@
         <v>716</v>
       </c>
       <c r="B696">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C696">
         <v>19</v>
@@ -11593,7 +11593,7 @@
         <v>717</v>
       </c>
       <c r="B697">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C697">
         <v>18</v>
@@ -11604,7 +11604,7 @@
         <v>718</v>
       </c>
       <c r="B698">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C698">
         <v>17</v>
@@ -11615,7 +11615,7 @@
         <v>719</v>
       </c>
       <c r="B699">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C699">
         <v>16</v>
@@ -11626,7 +11626,7 @@
         <v>720</v>
       </c>
       <c r="B700">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C700">
         <v>15</v>
@@ -11637,7 +11637,7 @@
         <v>721</v>
       </c>
       <c r="B701">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C701">
         <v>14</v>
@@ -11648,7 +11648,7 @@
         <v>722</v>
       </c>
       <c r="B702">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C702">
         <v>13</v>
@@ -11659,7 +11659,7 @@
         <v>723</v>
       </c>
       <c r="B703">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C703">
         <v>12</v>
@@ -11670,7 +11670,7 @@
         <v>724</v>
       </c>
       <c r="B704">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C704">
         <v>11</v>
@@ -11681,7 +11681,7 @@
         <v>725</v>
       </c>
       <c r="B705">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C705">
         <v>21</v>
@@ -11692,7 +11692,7 @@
         <v>726</v>
       </c>
       <c r="B706">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C706">
         <v>20</v>
@@ -11703,7 +11703,7 @@
         <v>727</v>
       </c>
       <c r="B707">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C707">
         <v>19</v>
@@ -11714,7 +11714,7 @@
         <v>728</v>
       </c>
       <c r="B708">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C708">
         <v>18</v>
@@ -11725,7 +11725,7 @@
         <v>729</v>
       </c>
       <c r="B709">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C709">
         <v>17</v>
@@ -11736,7 +11736,7 @@
         <v>730</v>
       </c>
       <c r="B710">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C710">
         <v>16</v>
@@ -11747,7 +11747,7 @@
         <v>731</v>
       </c>
       <c r="B711">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C711">
         <v>15</v>
@@ -11758,7 +11758,7 @@
         <v>732</v>
       </c>
       <c r="B712">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C712">
         <v>14</v>
@@ -11769,7 +11769,7 @@
         <v>733</v>
       </c>
       <c r="B713">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C713">
         <v>13</v>
@@ -11780,7 +11780,7 @@
         <v>734</v>
       </c>
       <c r="B714">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C714">
         <v>12</v>
@@ -11791,7 +11791,7 @@
         <v>735</v>
       </c>
       <c r="B715">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C715">
         <v>11</v>
@@ -11802,7 +11802,7 @@
         <v>736</v>
       </c>
       <c r="B716">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C716">
         <v>21</v>
@@ -11813,7 +11813,7 @@
         <v>737</v>
       </c>
       <c r="B717">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C717">
         <v>20</v>
@@ -11824,7 +11824,7 @@
         <v>738</v>
       </c>
       <c r="B718">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C718">
         <v>19</v>
@@ -11835,7 +11835,7 @@
         <v>739</v>
       </c>
       <c r="B719">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C719">
         <v>18</v>
@@ -11846,7 +11846,7 @@
         <v>740</v>
       </c>
       <c r="B720">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C720">
         <v>17</v>
@@ -11857,7 +11857,7 @@
         <v>741</v>
       </c>
       <c r="B721">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C721">
         <v>16</v>
@@ -11868,7 +11868,7 @@
         <v>742</v>
       </c>
       <c r="B722">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C722">
         <v>15</v>
@@ -11879,7 +11879,7 @@
         <v>743</v>
       </c>
       <c r="B723">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C723">
         <v>14</v>
@@ -11890,7 +11890,7 @@
         <v>744</v>
       </c>
       <c r="B724">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C724">
         <v>13</v>
@@ -11901,7 +11901,7 @@
         <v>745</v>
       </c>
       <c r="B725">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C725">
         <v>12</v>
@@ -11912,7 +11912,7 @@
         <v>746</v>
       </c>
       <c r="B726">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C726">
         <v>11</v>
@@ -11923,7 +11923,7 @@
         <v>747</v>
       </c>
       <c r="B727">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C727">
         <v>21</v>
@@ -11934,7 +11934,7 @@
         <v>748</v>
       </c>
       <c r="B728">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C728">
         <v>20</v>
@@ -11945,7 +11945,7 @@
         <v>749</v>
       </c>
       <c r="B729">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C729">
         <v>19</v>
@@ -11956,7 +11956,7 @@
         <v>750</v>
       </c>
       <c r="B730">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C730">
         <v>18</v>
@@ -11967,7 +11967,7 @@
         <v>751</v>
       </c>
       <c r="B731">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C731">
         <v>17</v>
@@ -11978,7 +11978,7 @@
         <v>752</v>
       </c>
       <c r="B732">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C732">
         <v>16</v>
@@ -11989,7 +11989,7 @@
         <v>753</v>
       </c>
       <c r="B733">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C733">
         <v>15</v>
@@ -12000,7 +12000,7 @@
         <v>754</v>
       </c>
       <c r="B734">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C734">
         <v>14</v>
@@ -12011,7 +12011,7 @@
         <v>755</v>
       </c>
       <c r="B735">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C735">
         <v>13</v>
@@ -12022,7 +12022,7 @@
         <v>756</v>
       </c>
       <c r="B736">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C736">
         <v>12</v>
@@ -12033,7 +12033,7 @@
         <v>757</v>
       </c>
       <c r="B737">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C737">
         <v>11</v>
@@ -12044,7 +12044,7 @@
         <v>758</v>
       </c>
       <c r="B738">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C738">
         <v>21</v>
@@ -12055,7 +12055,7 @@
         <v>759</v>
       </c>
       <c r="B739">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C739">
         <v>20</v>
@@ -12066,7 +12066,7 @@
         <v>760</v>
       </c>
       <c r="B740">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C740">
         <v>19</v>
@@ -12077,7 +12077,7 @@
         <v>761</v>
       </c>
       <c r="B741">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C741">
         <v>18</v>
@@ -12088,7 +12088,7 @@
         <v>762</v>
       </c>
       <c r="B742">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C742">
         <v>17</v>
@@ -12099,7 +12099,7 @@
         <v>763</v>
       </c>
       <c r="B743">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C743">
         <v>16</v>
@@ -12110,7 +12110,7 @@
         <v>764</v>
       </c>
       <c r="B744">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C744">
         <v>15</v>
@@ -12121,7 +12121,7 @@
         <v>765</v>
       </c>
       <c r="B745">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C745">
         <v>14</v>
@@ -12132,7 +12132,7 @@
         <v>766</v>
       </c>
       <c r="B746">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C746">
         <v>13</v>
@@ -12143,7 +12143,7 @@
         <v>767</v>
       </c>
       <c r="B747">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C747">
         <v>12</v>
@@ -12154,7 +12154,7 @@
         <v>768</v>
       </c>
       <c r="B748">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C748">
         <v>11</v>
@@ -12165,7 +12165,7 @@
         <v>769</v>
       </c>
       <c r="B749">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C749">
         <v>21</v>
@@ -12176,7 +12176,7 @@
         <v>770</v>
       </c>
       <c r="B750">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C750">
         <v>20</v>
@@ -12187,7 +12187,7 @@
         <v>771</v>
       </c>
       <c r="B751">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C751">
         <v>19</v>
@@ -12198,7 +12198,7 @@
         <v>772</v>
       </c>
       <c r="B752">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C752">
         <v>18</v>
@@ -12209,7 +12209,7 @@
         <v>773</v>
       </c>
       <c r="B753">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C753">
         <v>17</v>
@@ -12220,7 +12220,7 @@
         <v>774</v>
       </c>
       <c r="B754">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C754">
         <v>16</v>
@@ -12231,7 +12231,7 @@
         <v>775</v>
       </c>
       <c r="B755">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C755">
         <v>15</v>
@@ -12242,7 +12242,7 @@
         <v>776</v>
       </c>
       <c r="B756">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C756">
         <v>14</v>
@@ -12253,7 +12253,7 @@
         <v>777</v>
       </c>
       <c r="B757">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C757">
         <v>13</v>
@@ -12264,7 +12264,7 @@
         <v>778</v>
       </c>
       <c r="B758">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C758">
         <v>12</v>
@@ -12275,7 +12275,7 @@
         <v>779</v>
       </c>
       <c r="B759">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C759">
         <v>11</v>
@@ -12286,7 +12286,7 @@
         <v>780</v>
       </c>
       <c r="B760">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C760">
         <v>21</v>
@@ -12297,7 +12297,7 @@
         <v>781</v>
       </c>
       <c r="B761">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C761">
         <v>20</v>
@@ -12308,7 +12308,7 @@
         <v>782</v>
       </c>
       <c r="B762">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C762">
         <v>19</v>
@@ -12319,7 +12319,7 @@
         <v>783</v>
       </c>
       <c r="B763">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C763">
         <v>18</v>
@@ -12330,7 +12330,7 @@
         <v>784</v>
       </c>
       <c r="B764">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C764">
         <v>17</v>
@@ -12341,7 +12341,7 @@
         <v>785</v>
       </c>
       <c r="B765">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C765">
         <v>16</v>
@@ -12352,7 +12352,7 @@
         <v>786</v>
       </c>
       <c r="B766">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C766">
         <v>15</v>
@@ -12363,7 +12363,7 @@
         <v>787</v>
       </c>
       <c r="B767">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C767">
         <v>14</v>
@@ -12374,7 +12374,7 @@
         <v>788</v>
       </c>
       <c r="B768">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C768">
         <v>13</v>
@@ -12385,7 +12385,7 @@
         <v>789</v>
       </c>
       <c r="B769">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C769">
         <v>12</v>
@@ -12396,7 +12396,7 @@
         <v>790</v>
       </c>
       <c r="B770">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C770">
         <v>11</v>
@@ -12407,7 +12407,7 @@
         <v>791</v>
       </c>
       <c r="B771">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C771">
         <v>21</v>
@@ -12418,7 +12418,7 @@
         <v>792</v>
       </c>
       <c r="B772">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C772">
         <v>20</v>
@@ -12429,7 +12429,7 @@
         <v>793</v>
       </c>
       <c r="B773">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C773">
         <v>19</v>
@@ -12440,7 +12440,7 @@
         <v>794</v>
       </c>
       <c r="B774">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C774">
         <v>18</v>
@@ -12451,7 +12451,7 @@
         <v>795</v>
       </c>
       <c r="B775">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C775">
         <v>17</v>
@@ -12462,7 +12462,7 @@
         <v>796</v>
       </c>
       <c r="B776">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C776">
         <v>16</v>
@@ -12473,7 +12473,7 @@
         <v>797</v>
       </c>
       <c r="B777">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C777">
         <v>15</v>
@@ -12484,7 +12484,7 @@
         <v>798</v>
       </c>
       <c r="B778">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C778">
         <v>14</v>
@@ -12495,7 +12495,7 @@
         <v>799</v>
       </c>
       <c r="B779">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C779">
         <v>13</v>
@@ -12506,7 +12506,7 @@
         <v>800</v>
       </c>
       <c r="B780">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C780">
         <v>12</v>
@@ -12517,7 +12517,7 @@
         <v>801</v>
       </c>
       <c r="B781">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C781">
         <v>11</v>
@@ -12528,7 +12528,7 @@
         <v>802</v>
       </c>
       <c r="B782">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C782">
         <v>21</v>
@@ -12539,7 +12539,7 @@
         <v>803</v>
       </c>
       <c r="B783">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C783">
         <v>20</v>
@@ -12550,7 +12550,7 @@
         <v>804</v>
       </c>
       <c r="B784">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C784">
         <v>19</v>
@@ -12561,7 +12561,7 @@
         <v>805</v>
       </c>
       <c r="B785">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C785">
         <v>18</v>
@@ -12572,7 +12572,7 @@
         <v>806</v>
       </c>
       <c r="B786">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C786">
         <v>17</v>
@@ -12583,7 +12583,7 @@
         <v>807</v>
       </c>
       <c r="B787">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C787">
         <v>16</v>
@@ -12594,7 +12594,7 @@
         <v>808</v>
       </c>
       <c r="B788">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C788">
         <v>15</v>
@@ -12605,7 +12605,7 @@
         <v>809</v>
       </c>
       <c r="B789">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C789">
         <v>14</v>
@@ -12616,7 +12616,7 @@
         <v>810</v>
       </c>
       <c r="B790">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C790">
         <v>13</v>
@@ -12627,7 +12627,7 @@
         <v>811</v>
       </c>
       <c r="B791">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C791">
         <v>12</v>
@@ -12638,7 +12638,7 @@
         <v>812</v>
       </c>
       <c r="B792">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C792">
         <v>11</v>
@@ -12649,7 +12649,7 @@
         <v>813</v>
       </c>
       <c r="B793">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C793">
         <v>21</v>
@@ -12660,7 +12660,7 @@
         <v>814</v>
       </c>
       <c r="B794">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C794">
         <v>20</v>
@@ -12671,7 +12671,7 @@
         <v>815</v>
       </c>
       <c r="B795">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C795">
         <v>19</v>
@@ -12682,7 +12682,7 @@
         <v>816</v>
       </c>
       <c r="B796">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C796">
         <v>18</v>
@@ -12693,7 +12693,7 @@
         <v>817</v>
       </c>
       <c r="B797">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C797">
         <v>17</v>
@@ -12704,7 +12704,7 @@
         <v>818</v>
       </c>
       <c r="B798">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C798">
         <v>16</v>
@@ -12715,7 +12715,7 @@
         <v>819</v>
       </c>
       <c r="B799">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C799">
         <v>15</v>
@@ -12726,7 +12726,7 @@
         <v>820</v>
       </c>
       <c r="B800">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C800">
         <v>14</v>
@@ -12737,7 +12737,7 @@
         <v>821</v>
       </c>
       <c r="B801">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C801">
         <v>13</v>
@@ -12748,7 +12748,7 @@
         <v>822</v>
       </c>
       <c r="B802">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C802">
         <v>12</v>
@@ -12759,7 +12759,7 @@
         <v>823</v>
       </c>
       <c r="B803">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C803">
         <v>11</v>
@@ -12770,7 +12770,7 @@
         <v>824</v>
       </c>
       <c r="B804">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C804">
         <v>21</v>
@@ -12781,7 +12781,7 @@
         <v>825</v>
       </c>
       <c r="B805">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C805">
         <v>20</v>
@@ -12792,7 +12792,7 @@
         <v>826</v>
       </c>
       <c r="B806">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C806">
         <v>19</v>
@@ -12803,7 +12803,7 @@
         <v>827</v>
       </c>
       <c r="B807">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C807">
         <v>18</v>
@@ -12814,7 +12814,7 @@
         <v>828</v>
       </c>
       <c r="B808">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C808">
         <v>17</v>
@@ -12825,7 +12825,7 @@
         <v>829</v>
       </c>
       <c r="B809">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C809">
         <v>16</v>
@@ -12836,7 +12836,7 @@
         <v>830</v>
       </c>
       <c r="B810">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C810">
         <v>15</v>
@@ -12847,7 +12847,7 @@
         <v>831</v>
       </c>
       <c r="B811">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C811">
         <v>14</v>
@@ -12858,7 +12858,7 @@
         <v>832</v>
       </c>
       <c r="B812">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C812">
         <v>13</v>
@@ -12869,7 +12869,7 @@
         <v>833</v>
       </c>
       <c r="B813">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C813">
         <v>12</v>
@@ -12880,7 +12880,7 @@
         <v>834</v>
       </c>
       <c r="B814">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C814">
         <v>11</v>
@@ -12891,7 +12891,7 @@
         <v>835</v>
       </c>
       <c r="B815">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C815">
         <v>21</v>
@@ -12902,7 +12902,7 @@
         <v>836</v>
       </c>
       <c r="B816">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C816">
         <v>20</v>
@@ -12913,7 +12913,7 @@
         <v>837</v>
       </c>
       <c r="B817">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C817">
         <v>19</v>
@@ -12924,7 +12924,7 @@
         <v>838</v>
       </c>
       <c r="B818">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C818">
         <v>18</v>
@@ -12935,7 +12935,7 @@
         <v>839</v>
       </c>
       <c r="B819">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C819">
         <v>17</v>
@@ -12946,7 +12946,7 @@
         <v>840</v>
       </c>
       <c r="B820">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C820">
         <v>16</v>
@@ -12957,7 +12957,7 @@
         <v>841</v>
       </c>
       <c r="B821">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C821">
         <v>15</v>
@@ -12968,7 +12968,7 @@
         <v>842</v>
       </c>
       <c r="B822">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C822">
         <v>14</v>
@@ -12979,7 +12979,7 @@
         <v>843</v>
       </c>
       <c r="B823">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C823">
         <v>13</v>
@@ -12990,7 +12990,7 @@
         <v>844</v>
       </c>
       <c r="B824">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C824">
         <v>12</v>
@@ -13001,7 +13001,7 @@
         <v>845</v>
       </c>
       <c r="B825">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C825">
         <v>11</v>
@@ -13012,7 +13012,7 @@
         <v>846</v>
       </c>
       <c r="B826">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C826">
         <v>1</v>
@@ -13023,7 +13023,7 @@
         <v>847</v>
       </c>
       <c r="B827">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C827">
         <v>2</v>
@@ -13034,7 +13034,7 @@
         <v>848</v>
       </c>
       <c r="B828">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C828">
         <v>3</v>
@@ -13045,7 +13045,7 @@
         <v>849</v>
       </c>
       <c r="B829">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C829">
         <v>4</v>
@@ -13056,7 +13056,7 @@
         <v>850</v>
       </c>
       <c r="B830">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C830">
         <v>5</v>
@@ -13067,7 +13067,7 @@
         <v>851</v>
       </c>
       <c r="B831">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C831">
         <v>6</v>
@@ -13078,7 +13078,7 @@
         <v>852</v>
       </c>
       <c r="B832">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C832">
         <v>7</v>
@@ -13089,7 +13089,7 @@
         <v>853</v>
       </c>
       <c r="B833">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C833">
         <v>1</v>
@@ -13100,7 +13100,7 @@
         <v>854</v>
       </c>
       <c r="B834">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C834">
         <v>2</v>
@@ -13111,7 +13111,7 @@
         <v>855</v>
       </c>
       <c r="B835">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C835">
         <v>3</v>
@@ -13122,7 +13122,7 @@
         <v>856</v>
       </c>
       <c r="B836">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C836">
         <v>4</v>
@@ -13133,7 +13133,7 @@
         <v>857</v>
       </c>
       <c r="B837">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C837">
         <v>5</v>
@@ -13144,7 +13144,7 @@
         <v>858</v>
       </c>
       <c r="B838">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C838">
         <v>6</v>
@@ -13155,7 +13155,7 @@
         <v>859</v>
       </c>
       <c r="B839">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C839">
         <v>7</v>
@@ -13166,7 +13166,7 @@
         <v>860</v>
       </c>
       <c r="B840">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C840">
         <v>1</v>
@@ -13177,7 +13177,7 @@
         <v>861</v>
       </c>
       <c r="B841">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C841">
         <v>2</v>
@@ -13188,7 +13188,7 @@
         <v>862</v>
       </c>
       <c r="B842">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C842">
         <v>3</v>
@@ -13199,7 +13199,7 @@
         <v>863</v>
       </c>
       <c r="B843">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C843">
         <v>4</v>
@@ -13210,7 +13210,7 @@
         <v>864</v>
       </c>
       <c r="B844">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C844">
         <v>5</v>
@@ -13221,7 +13221,7 @@
         <v>865</v>
       </c>
       <c r="B845">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C845">
         <v>6</v>
@@ -13232,7 +13232,7 @@
         <v>866</v>
       </c>
       <c r="B846">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C846">
         <v>7</v>
@@ -13243,7 +13243,7 @@
         <v>867</v>
       </c>
       <c r="B847">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C847">
         <v>1</v>
@@ -13254,7 +13254,7 @@
         <v>868</v>
       </c>
       <c r="B848">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C848">
         <v>2</v>
@@ -13265,7 +13265,7 @@
         <v>869</v>
       </c>
       <c r="B849">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C849">
         <v>3</v>
@@ -13276,7 +13276,7 @@
         <v>870</v>
       </c>
       <c r="B850">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C850">
         <v>4</v>
@@ -13287,7 +13287,7 @@
         <v>871</v>
       </c>
       <c r="B851">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C851">
         <v>5</v>
@@ -13298,7 +13298,7 @@
         <v>872</v>
       </c>
       <c r="B852">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C852">
         <v>6</v>
@@ -13309,7 +13309,7 @@
         <v>873</v>
       </c>
       <c r="B853">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C853">
         <v>7</v>
@@ -13320,7 +13320,7 @@
         <v>874</v>
       </c>
       <c r="B854">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C854">
         <v>1</v>
@@ -13331,7 +13331,7 @@
         <v>875</v>
       </c>
       <c r="B855">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C855">
         <v>2</v>
@@ -13342,7 +13342,7 @@
         <v>876</v>
       </c>
       <c r="B856">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C856">
         <v>3</v>
@@ -13353,7 +13353,7 @@
         <v>877</v>
       </c>
       <c r="B857">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C857">
         <v>4</v>
@@ -13364,7 +13364,7 @@
         <v>878</v>
       </c>
       <c r="B858">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C858">
         <v>5</v>
@@ -13375,7 +13375,7 @@
         <v>879</v>
       </c>
       <c r="B859">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C859">
         <v>6</v>
@@ -13386,7 +13386,7 @@
         <v>880</v>
       </c>
       <c r="B860">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C860">
         <v>7</v>
@@ -13397,7 +13397,7 @@
         <v>881</v>
       </c>
       <c r="B861">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C861">
         <v>1</v>
@@ -13408,7 +13408,7 @@
         <v>882</v>
       </c>
       <c r="B862">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C862">
         <v>2</v>
@@ -13419,7 +13419,7 @@
         <v>883</v>
       </c>
       <c r="B863">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C863">
         <v>3</v>
@@ -13430,7 +13430,7 @@
         <v>884</v>
       </c>
       <c r="B864">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C864">
         <v>4</v>
@@ -13441,7 +13441,7 @@
         <v>885</v>
       </c>
       <c r="B865">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C865">
         <v>5</v>
@@ -13452,7 +13452,7 @@
         <v>886</v>
       </c>
       <c r="B866">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C866">
         <v>6</v>
@@ -13463,7 +13463,7 @@
         <v>887</v>
       </c>
       <c r="B867">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C867">
         <v>7</v>
@@ -13474,7 +13474,7 @@
         <v>888</v>
       </c>
       <c r="B868">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C868">
         <v>1</v>
@@ -13485,7 +13485,7 @@
         <v>889</v>
       </c>
       <c r="B869">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C869">
         <v>2</v>
@@ -13496,7 +13496,7 @@
         <v>890</v>
       </c>
       <c r="B870">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C870">
         <v>3</v>
@@ -13507,7 +13507,7 @@
         <v>891</v>
       </c>
       <c r="B871">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C871">
         <v>4</v>
@@ -13518,7 +13518,7 @@
         <v>892</v>
       </c>
       <c r="B872">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C872">
         <v>5</v>
@@ -13529,7 +13529,7 @@
         <v>893</v>
       </c>
       <c r="B873">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C873">
         <v>6</v>
@@ -13540,7 +13540,7 @@
         <v>894</v>
       </c>
       <c r="B874">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C874">
         <v>7</v>
@@ -13551,7 +13551,7 @@
         <v>895</v>
       </c>
       <c r="B875">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C875">
         <v>1</v>
@@ -13562,7 +13562,7 @@
         <v>896</v>
       </c>
       <c r="B876">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C876">
         <v>2</v>
@@ -13573,7 +13573,7 @@
         <v>897</v>
       </c>
       <c r="B877">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C877">
         <v>3</v>
@@ -13584,7 +13584,7 @@
         <v>898</v>
       </c>
       <c r="B878">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C878">
         <v>4</v>
@@ -13595,7 +13595,7 @@
         <v>899</v>
       </c>
       <c r="B879">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C879">
         <v>5</v>
@@ -13606,7 +13606,7 @@
         <v>900</v>
       </c>
       <c r="B880">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C880">
         <v>6</v>
@@ -13617,7 +13617,7 @@
         <v>901</v>
       </c>
       <c r="B881">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C881">
         <v>7</v>
@@ -13628,7 +13628,7 @@
         <v>902</v>
       </c>
       <c r="B882">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C882">
         <v>1</v>
@@ -13639,7 +13639,7 @@
         <v>903</v>
       </c>
       <c r="B883">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C883">
         <v>2</v>
@@ -13650,7 +13650,7 @@
         <v>904</v>
       </c>
       <c r="B884">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C884">
         <v>3</v>
@@ -13661,7 +13661,7 @@
         <v>905</v>
       </c>
       <c r="B885">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C885">
         <v>4</v>
@@ -13672,7 +13672,7 @@
         <v>906</v>
       </c>
       <c r="B886">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C886">
         <v>5</v>
@@ -13683,7 +13683,7 @@
         <v>907</v>
       </c>
       <c r="B887">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C887">
         <v>6</v>
@@ -13694,7 +13694,7 @@
         <v>908</v>
       </c>
       <c r="B888">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C888">
         <v>7</v>
@@ -13705,7 +13705,7 @@
         <v>909</v>
       </c>
       <c r="B889">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C889">
         <v>1</v>
@@ -13716,7 +13716,7 @@
         <v>910</v>
       </c>
       <c r="B890">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C890">
         <v>2</v>
@@ -13727,7 +13727,7 @@
         <v>911</v>
       </c>
       <c r="B891">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C891">
         <v>3</v>
@@ -13738,7 +13738,7 @@
         <v>912</v>
       </c>
       <c r="B892">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C892">
         <v>4</v>
@@ -13749,7 +13749,7 @@
         <v>913</v>
       </c>
       <c r="B893">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C893">
         <v>5</v>
@@ -13760,7 +13760,7 @@
         <v>914</v>
       </c>
       <c r="B894">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C894">
         <v>6</v>
@@ -13771,7 +13771,7 @@
         <v>915</v>
       </c>
       <c r="B895">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C895">
         <v>7</v>
@@ -13782,7 +13782,7 @@
         <v>916</v>
       </c>
       <c r="B896">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C896">
         <v>1</v>
@@ -13793,7 +13793,7 @@
         <v>917</v>
       </c>
       <c r="B897">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C897">
         <v>2</v>
@@ -13804,7 +13804,7 @@
         <v>918</v>
       </c>
       <c r="B898">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C898">
         <v>3</v>
@@ -13815,7 +13815,7 @@
         <v>919</v>
       </c>
       <c r="B899">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C899">
         <v>4</v>
@@ -13826,7 +13826,7 @@
         <v>920</v>
       </c>
       <c r="B900">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C900">
         <v>5</v>
@@ -13837,7 +13837,7 @@
         <v>921</v>
       </c>
       <c r="B901">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C901">
         <v>6</v>
@@ -13848,7 +13848,7 @@
         <v>922</v>
       </c>
       <c r="B902">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C902">
         <v>7</v>
@@ -13859,7 +13859,7 @@
         <v>923</v>
       </c>
       <c r="B903">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C903">
         <v>1</v>
@@ -13870,7 +13870,7 @@
         <v>924</v>
       </c>
       <c r="B904">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C904">
         <v>2</v>
@@ -13881,7 +13881,7 @@
         <v>925</v>
       </c>
       <c r="B905">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C905">
         <v>3</v>
@@ -13892,7 +13892,7 @@
         <v>926</v>
       </c>
       <c r="B906">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C906">
         <v>4</v>
@@ -13903,7 +13903,7 @@
         <v>927</v>
       </c>
       <c r="B907">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C907">
         <v>5</v>
@@ -13914,7 +13914,7 @@
         <v>928</v>
       </c>
       <c r="B908">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C908">
         <v>6</v>
@@ -13925,7 +13925,7 @@
         <v>929</v>
       </c>
       <c r="B909">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C909">
         <v>7</v>
@@ -13936,7 +13936,7 @@
         <v>930</v>
       </c>
       <c r="B910">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C910">
         <v>1</v>
@@ -13947,7 +13947,7 @@
         <v>931</v>
       </c>
       <c r="B911">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C911">
         <v>2</v>
@@ -13958,7 +13958,7 @@
         <v>932</v>
       </c>
       <c r="B912">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C912">
         <v>3</v>
@@ -13969,7 +13969,7 @@
         <v>933</v>
       </c>
       <c r="B913">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C913">
         <v>4</v>
@@ -13980,7 +13980,7 @@
         <v>934</v>
       </c>
       <c r="B914">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C914">
         <v>5</v>
@@ -13991,7 +13991,7 @@
         <v>935</v>
       </c>
       <c r="B915">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C915">
         <v>6</v>
@@ -14002,7 +14002,7 @@
         <v>936</v>
       </c>
       <c r="B916">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C916">
         <v>7</v>
@@ -14013,7 +14013,7 @@
         <v>937</v>
       </c>
       <c r="B917">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C917">
         <v>1</v>
@@ -14024,7 +14024,7 @@
         <v>938</v>
       </c>
       <c r="B918">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C918">
         <v>2</v>
@@ -14035,7 +14035,7 @@
         <v>939</v>
       </c>
       <c r="B919">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C919">
         <v>3</v>
@@ -14046,7 +14046,7 @@
         <v>940</v>
       </c>
       <c r="B920">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C920">
         <v>4</v>
@@ -14057,7 +14057,7 @@
         <v>941</v>
       </c>
       <c r="B921">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C921">
         <v>5</v>
@@ -14068,7 +14068,7 @@
         <v>942</v>
       </c>
       <c r="B922">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C922">
         <v>6</v>
@@ -14079,7 +14079,7 @@
         <v>943</v>
       </c>
       <c r="B923">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C923">
         <v>7</v>
@@ -14090,7 +14090,7 @@
         <v>944</v>
       </c>
       <c r="B924">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C924">
         <v>1</v>
@@ -14101,7 +14101,7 @@
         <v>945</v>
       </c>
       <c r="B925">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C925">
         <v>2</v>
@@ -14112,7 +14112,7 @@
         <v>946</v>
       </c>
       <c r="B926">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C926">
         <v>3</v>
@@ -14123,7 +14123,7 @@
         <v>947</v>
       </c>
       <c r="B927">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C927">
         <v>4</v>
@@ -14134,7 +14134,7 @@
         <v>948</v>
       </c>
       <c r="B928">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C928">
         <v>5</v>
@@ -14145,7 +14145,7 @@
         <v>949</v>
       </c>
       <c r="B929">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C929">
         <v>6</v>
@@ -14156,7 +14156,7 @@
         <v>950</v>
       </c>
       <c r="B930">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C930">
         <v>7</v>
@@ -14167,7 +14167,7 @@
         <v>951</v>
       </c>
       <c r="B931">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C931">
         <v>1</v>
@@ -14178,7 +14178,7 @@
         <v>952</v>
       </c>
       <c r="B932">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C932">
         <v>2</v>
@@ -14189,7 +14189,7 @@
         <v>953</v>
       </c>
       <c r="B933">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C933">
         <v>3</v>
@@ -14200,7 +14200,7 @@
         <v>954</v>
       </c>
       <c r="B934">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C934">
         <v>4</v>
@@ -14211,7 +14211,7 @@
         <v>955</v>
       </c>
       <c r="B935">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C935">
         <v>5</v>
@@ -14222,7 +14222,7 @@
         <v>956</v>
       </c>
       <c r="B936">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C936">
         <v>6</v>
@@ -14233,7 +14233,7 @@
         <v>957</v>
       </c>
       <c r="B937">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C937">
         <v>7</v>
@@ -14244,7 +14244,7 @@
         <v>958</v>
       </c>
       <c r="B938">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C938">
         <v>1</v>
@@ -14255,7 +14255,7 @@
         <v>959</v>
       </c>
       <c r="B939">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C939">
         <v>2</v>
@@ -14266,7 +14266,7 @@
         <v>960</v>
       </c>
       <c r="B940">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C940">
         <v>3</v>
@@ -14277,7 +14277,7 @@
         <v>961</v>
       </c>
       <c r="B941">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C941">
         <v>4</v>
@@ -14288,7 +14288,7 @@
         <v>962</v>
       </c>
       <c r="B942">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C942">
         <v>5</v>
@@ -14299,7 +14299,7 @@
         <v>963</v>
       </c>
       <c r="B943">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C943">
         <v>6</v>
@@ -14310,7 +14310,7 @@
         <v>964</v>
       </c>
       <c r="B944">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C944">
         <v>7</v>
@@ -14321,7 +14321,7 @@
         <v>965</v>
       </c>
       <c r="B945">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C945">
         <v>1</v>
@@ -14332,7 +14332,7 @@
         <v>966</v>
       </c>
       <c r="B946">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C946">
         <v>2</v>
@@ -14343,7 +14343,7 @@
         <v>967</v>
       </c>
       <c r="B947">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C947">
         <v>3</v>
@@ -14354,7 +14354,7 @@
         <v>968</v>
       </c>
       <c r="B948">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C948">
         <v>4</v>
@@ -14365,7 +14365,7 @@
         <v>969</v>
       </c>
       <c r="B949">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C949">
         <v>5</v>
@@ -14376,7 +14376,7 @@
         <v>970</v>
       </c>
       <c r="B950">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C950">
         <v>6</v>
@@ -14387,7 +14387,7 @@
         <v>971</v>
       </c>
       <c r="B951">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C951">
         <v>7</v>
@@ -14398,7 +14398,7 @@
         <v>972</v>
       </c>
       <c r="B952">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C952">
         <v>1</v>
@@ -14409,7 +14409,7 @@
         <v>973</v>
       </c>
       <c r="B953">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C953">
         <v>2</v>
@@ -14420,7 +14420,7 @@
         <v>974</v>
       </c>
       <c r="B954">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C954">
         <v>3</v>
@@ -14431,7 +14431,7 @@
         <v>975</v>
       </c>
       <c r="B955">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C955">
         <v>4</v>
@@ -14442,7 +14442,7 @@
         <v>976</v>
       </c>
       <c r="B956">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C956">
         <v>5</v>
@@ -14453,7 +14453,7 @@
         <v>977</v>
       </c>
       <c r="B957">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C957">
         <v>6</v>
@@ -14464,7 +14464,7 @@
         <v>978</v>
       </c>
       <c r="B958">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C958">
         <v>7</v>
@@ -14475,7 +14475,7 @@
         <v>979</v>
       </c>
       <c r="B959">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C959">
         <v>1</v>
@@ -14486,7 +14486,7 @@
         <v>980</v>
       </c>
       <c r="B960">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C960">
         <v>2</v>
@@ -14497,7 +14497,7 @@
         <v>981</v>
       </c>
       <c r="B961">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C961">
         <v>3</v>
@@ -14508,7 +14508,7 @@
         <v>982</v>
       </c>
       <c r="B962">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C962">
         <v>4</v>
@@ -14519,7 +14519,7 @@
         <v>983</v>
       </c>
       <c r="B963">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C963">
         <v>5</v>
@@ -14530,7 +14530,7 @@
         <v>984</v>
       </c>
       <c r="B964">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C964">
         <v>6</v>
@@ -14541,7 +14541,7 @@
         <v>985</v>
       </c>
       <c r="B965">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C965">
         <v>7</v>
@@ -14552,7 +14552,7 @@
         <v>986</v>
       </c>
       <c r="B966">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C966">
         <v>1</v>
@@ -14563,7 +14563,7 @@
         <v>987</v>
       </c>
       <c r="B967">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C967">
         <v>2</v>
@@ -14574,7 +14574,7 @@
         <v>988</v>
       </c>
       <c r="B968">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C968">
         <v>3</v>
@@ -14585,7 +14585,7 @@
         <v>989</v>
       </c>
       <c r="B969">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C969">
         <v>4</v>
@@ -14596,7 +14596,7 @@
         <v>990</v>
       </c>
       <c r="B970">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C970">
         <v>5</v>
@@ -14607,7 +14607,7 @@
         <v>991</v>
       </c>
       <c r="B971">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C971">
         <v>6</v>
@@ -14618,7 +14618,7 @@
         <v>992</v>
       </c>
       <c r="B972">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C972">
         <v>7</v>
@@ -14629,7 +14629,7 @@
         <v>993</v>
       </c>
       <c r="B973">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C973">
         <v>1</v>
@@ -14640,7 +14640,7 @@
         <v>994</v>
       </c>
       <c r="B974">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C974">
         <v>2</v>
@@ -14651,7 +14651,7 @@
         <v>995</v>
       </c>
       <c r="B975">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C975">
         <v>3</v>
@@ -14662,7 +14662,7 @@
         <v>996</v>
       </c>
       <c r="B976">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C976">
         <v>4</v>
@@ -14673,7 +14673,7 @@
         <v>997</v>
       </c>
       <c r="B977">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C977">
         <v>5</v>
@@ -14684,7 +14684,7 @@
         <v>998</v>
       </c>
       <c r="B978">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C978">
         <v>6</v>
@@ -14695,7 +14695,7 @@
         <v>999</v>
       </c>
       <c r="B979">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C979">
         <v>7</v>
@@ -14706,7 +14706,7 @@
         <v>1000</v>
       </c>
       <c r="B980">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C980">
         <v>1</v>
@@ -14717,7 +14717,7 @@
         <v>1001</v>
       </c>
       <c r="B981">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C981">
         <v>2</v>
@@ -14728,7 +14728,7 @@
         <v>1002</v>
       </c>
       <c r="B982">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C982">
         <v>3</v>
@@ -14739,7 +14739,7 @@
         <v>1003</v>
       </c>
       <c r="B983">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C983">
         <v>4</v>
@@ -14750,7 +14750,7 @@
         <v>1004</v>
       </c>
       <c r="B984">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C984">
         <v>5</v>
@@ -14761,7 +14761,7 @@
         <v>1005</v>
       </c>
       <c r="B985">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C985">
         <v>6</v>
@@ -14772,7 +14772,7 @@
         <v>1006</v>
       </c>
       <c r="B986">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C986">
         <v>7</v>
@@ -14783,7 +14783,7 @@
         <v>1007</v>
       </c>
       <c r="B987">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C987">
         <v>1</v>
@@ -14794,7 +14794,7 @@
         <v>1008</v>
       </c>
       <c r="B988">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C988">
         <v>2</v>
@@ -14805,7 +14805,7 @@
         <v>1009</v>
       </c>
       <c r="B989">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C989">
         <v>3</v>
@@ -14816,7 +14816,7 @@
         <v>1010</v>
       </c>
       <c r="B990">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C990">
         <v>4</v>
@@ -14827,7 +14827,7 @@
         <v>1011</v>
       </c>
       <c r="B991">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C991">
         <v>5</v>
@@ -14838,7 +14838,7 @@
         <v>1012</v>
       </c>
       <c r="B992">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C992">
         <v>6</v>
@@ -14849,7 +14849,7 @@
         <v>1013</v>
       </c>
       <c r="B993">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C993">
         <v>7</v>
@@ -14860,7 +14860,7 @@
         <v>1014</v>
       </c>
       <c r="B994">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C994">
         <v>1</v>
@@ -14871,7 +14871,7 @@
         <v>1015</v>
       </c>
       <c r="B995">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C995">
         <v>2</v>
@@ -14882,7 +14882,7 @@
         <v>1016</v>
       </c>
       <c r="B996">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C996">
         <v>3</v>
@@ -14893,7 +14893,7 @@
         <v>1017</v>
       </c>
       <c r="B997">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C997">
         <v>4</v>
@@ -14904,7 +14904,7 @@
         <v>1018</v>
       </c>
       <c r="B998">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C998">
         <v>5</v>
@@ -14915,7 +14915,7 @@
         <v>1019</v>
       </c>
       <c r="B999">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C999">
         <v>6</v>
@@ -14926,7 +14926,7 @@
         <v>1020</v>
       </c>
       <c r="B1000">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1000">
         <v>7</v>
@@ -14937,7 +14937,7 @@
         <v>1021</v>
       </c>
       <c r="B1001">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1001">
         <v>1</v>
@@ -14948,7 +14948,7 @@
         <v>1022</v>
       </c>
       <c r="B1002">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1002">
         <v>2</v>
@@ -14959,7 +14959,7 @@
         <v>1023</v>
       </c>
       <c r="B1003">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1003">
         <v>3</v>
@@ -14970,7 +14970,7 @@
         <v>1024</v>
       </c>
       <c r="B1004">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1004">
         <v>4</v>
@@ -14981,7 +14981,7 @@
         <v>1025</v>
       </c>
       <c r="B1005">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1005">
         <v>5</v>
@@ -14992,7 +14992,7 @@
         <v>1026</v>
       </c>
       <c r="B1006">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1006">
         <v>6</v>
@@ -15003,7 +15003,7 @@
         <v>1027</v>
       </c>
       <c r="B1007">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1007">
         <v>7</v>
@@ -15014,7 +15014,7 @@
         <v>1028</v>
       </c>
       <c r="B1008">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1008">
         <v>1</v>
@@ -15025,7 +15025,7 @@
         <v>1029</v>
       </c>
       <c r="B1009">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1009">
         <v>2</v>
@@ -15036,7 +15036,7 @@
         <v>1030</v>
       </c>
       <c r="B1010">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1010">
         <v>3</v>
@@ -15047,7 +15047,7 @@
         <v>1031</v>
       </c>
       <c r="B1011">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1011">
         <v>4</v>
@@ -15058,7 +15058,7 @@
         <v>1032</v>
       </c>
       <c r="B1012">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1012">
         <v>5</v>
@@ -15069,7 +15069,7 @@
         <v>1033</v>
       </c>
       <c r="B1013">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1013">
         <v>6</v>
@@ -15080,7 +15080,7 @@
         <v>1034</v>
       </c>
       <c r="B1014">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1014">
         <v>7</v>
@@ -15091,7 +15091,7 @@
         <v>1035</v>
       </c>
       <c r="B1015">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C1015">
         <v>1</v>
@@ -15102,7 +15102,7 @@
         <v>1036</v>
       </c>
       <c r="B1016">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C1016">
         <v>2</v>
@@ -15113,7 +15113,7 @@
         <v>1037</v>
       </c>
       <c r="B1017">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C1017">
         <v>3</v>
@@ -15124,7 +15124,7 @@
         <v>1038</v>
       </c>
       <c r="B1018">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C1018">
         <v>4</v>
@@ -15135,7 +15135,7 @@
         <v>1039</v>
       </c>
       <c r="B1019">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C1019">
         <v>5</v>
@@ -15146,7 +15146,7 @@
         <v>1040</v>
       </c>
       <c r="B1020">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C1020">
         <v>6</v>
@@ -15157,7 +15157,7 @@
         <v>1041</v>
       </c>
       <c r="B1021">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C1021">
         <v>7</v>
@@ -15168,7 +15168,7 @@
         <v>1042</v>
       </c>
       <c r="B1022">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1022">
         <v>1</v>
@@ -15179,7 +15179,7 @@
         <v>1043</v>
       </c>
       <c r="B1023">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1023">
         <v>2</v>
@@ -15190,7 +15190,7 @@
         <v>1044</v>
       </c>
       <c r="B1024">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1024">
         <v>3</v>
@@ -15201,7 +15201,7 @@
         <v>1045</v>
       </c>
       <c r="B1025">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1025">
         <v>4</v>
@@ -15212,7 +15212,7 @@
         <v>1046</v>
       </c>
       <c r="B1026">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1026">
         <v>5</v>
@@ -15223,7 +15223,7 @@
         <v>1047</v>
       </c>
       <c r="B1027">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1027">
         <v>6</v>
@@ -15234,7 +15234,7 @@
         <v>1048</v>
       </c>
       <c r="B1028">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1028">
         <v>7</v>
@@ -15245,7 +15245,7 @@
         <v>1049</v>
       </c>
       <c r="B1029">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1029">
         <v>1</v>
@@ -15256,7 +15256,7 @@
         <v>1050</v>
       </c>
       <c r="B1030">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1030">
         <v>2</v>
@@ -15267,7 +15267,7 @@
         <v>1051</v>
       </c>
       <c r="B1031">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1031">
         <v>3</v>
@@ -15278,7 +15278,7 @@
         <v>1052</v>
       </c>
       <c r="B1032">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1032">
         <v>4</v>
@@ -15289,7 +15289,7 @@
         <v>1053</v>
       </c>
       <c r="B1033">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1033">
         <v>5</v>
@@ -15300,7 +15300,7 @@
         <v>1054</v>
       </c>
       <c r="B1034">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1034">
         <v>6</v>
@@ -15311,7 +15311,7 @@
         <v>1055</v>
       </c>
       <c r="B1035">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1035">
         <v>7</v>
@@ -15322,7 +15322,7 @@
         <v>1056</v>
       </c>
       <c r="B1036">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C1036">
         <v>1</v>
@@ -15333,7 +15333,7 @@
         <v>1057</v>
       </c>
       <c r="B1037">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C1037">
         <v>2</v>
@@ -15344,7 +15344,7 @@
         <v>1058</v>
       </c>
       <c r="B1038">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C1038">
         <v>3</v>
@@ -15355,7 +15355,7 @@
         <v>1059</v>
       </c>
       <c r="B1039">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C1039">
         <v>4</v>
@@ -15366,7 +15366,7 @@
         <v>1060</v>
       </c>
       <c r="B1040">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C1040">
         <v>5</v>
@@ -15377,7 +15377,7 @@
         <v>1061</v>
       </c>
       <c r="B1041">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C1041">
         <v>6</v>
@@ -15388,7 +15388,7 @@
         <v>1062</v>
       </c>
       <c r="B1042">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C1042">
         <v>7</v>
@@ -15399,7 +15399,7 @@
         <v>1063</v>
       </c>
       <c r="B1043">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1043">
         <v>1</v>
@@ -15410,7 +15410,7 @@
         <v>1064</v>
       </c>
       <c r="B1044">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1044">
         <v>2</v>
@@ -15421,7 +15421,7 @@
         <v>1065</v>
       </c>
       <c r="B1045">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1045">
         <v>3</v>
@@ -15432,7 +15432,7 @@
         <v>1066</v>
       </c>
       <c r="B1046">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1046">
         <v>4</v>
@@ -15443,7 +15443,7 @@
         <v>1067</v>
       </c>
       <c r="B1047">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1047">
         <v>5</v>
@@ -15454,7 +15454,7 @@
         <v>1068</v>
       </c>
       <c r="B1048">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1048">
         <v>6</v>
@@ -15465,7 +15465,7 @@
         <v>1069</v>
       </c>
       <c r="B1049">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1049">
         <v>7</v>
@@ -15476,7 +15476,7 @@
         <v>1070</v>
       </c>
       <c r="B1050">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1050">
         <v>1</v>
@@ -15487,7 +15487,7 @@
         <v>1071</v>
       </c>
       <c r="B1051">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1051">
         <v>2</v>
@@ -15498,7 +15498,7 @@
         <v>1072</v>
       </c>
       <c r="B1052">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1052">
         <v>3</v>
@@ -15509,7 +15509,7 @@
         <v>1073</v>
       </c>
       <c r="B1053">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1053">
         <v>4</v>
@@ -15520,7 +15520,7 @@
         <v>1074</v>
       </c>
       <c r="B1054">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1054">
         <v>5</v>
@@ -15531,7 +15531,7 @@
         <v>1075</v>
       </c>
       <c r="B1055">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1055">
         <v>6</v>
@@ -15542,7 +15542,7 @@
         <v>1076</v>
       </c>
       <c r="B1056">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1056">
         <v>7</v>
@@ -15553,7 +15553,7 @@
         <v>1077</v>
       </c>
       <c r="B1057">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1057">
         <v>1</v>
@@ -15564,7 +15564,7 @@
         <v>1078</v>
       </c>
       <c r="B1058">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1058">
         <v>2</v>
@@ -15575,7 +15575,7 @@
         <v>1079</v>
       </c>
       <c r="B1059">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1059">
         <v>3</v>
@@ -15586,7 +15586,7 @@
         <v>1080</v>
       </c>
       <c r="B1060">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1060">
         <v>4</v>
@@ -15597,7 +15597,7 @@
         <v>1081</v>
       </c>
       <c r="B1061">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1061">
         <v>5</v>
@@ -15608,7 +15608,7 @@
         <v>1082</v>
       </c>
       <c r="B1062">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1062">
         <v>6</v>
@@ -15619,7 +15619,7 @@
         <v>1083</v>
       </c>
       <c r="B1063">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1063">
         <v>7</v>
@@ -15630,7 +15630,7 @@
         <v>1084</v>
       </c>
       <c r="B1064">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C1064">
         <v>1</v>
@@ -15641,7 +15641,7 @@
         <v>1085</v>
       </c>
       <c r="B1065">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C1065">
         <v>2</v>
@@ -15652,7 +15652,7 @@
         <v>1086</v>
       </c>
       <c r="B1066">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C1066">
         <v>3</v>
@@ -15663,7 +15663,7 @@
         <v>1087</v>
       </c>
       <c r="B1067">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C1067">
         <v>4</v>
@@ -15674,7 +15674,7 @@
         <v>1088</v>
       </c>
       <c r="B1068">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C1068">
         <v>5</v>
@@ -15685,7 +15685,7 @@
         <v>1089</v>
       </c>
       <c r="B1069">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C1069">
         <v>6</v>
@@ -15696,7 +15696,7 @@
         <v>1090</v>
       </c>
       <c r="B1070">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C1070">
         <v>7</v>
@@ -15707,7 +15707,7 @@
         <v>1091</v>
       </c>
       <c r="B1071">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1071">
         <v>1</v>
@@ -15718,7 +15718,7 @@
         <v>1092</v>
       </c>
       <c r="B1072">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1072">
         <v>2</v>
@@ -15729,7 +15729,7 @@
         <v>1093</v>
       </c>
       <c r="B1073">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1073">
         <v>3</v>
@@ -15740,7 +15740,7 @@
         <v>1094</v>
       </c>
       <c r="B1074">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1074">
         <v>4</v>
@@ -15751,7 +15751,7 @@
         <v>1095</v>
       </c>
       <c r="B1075">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1075">
         <v>5</v>
@@ -15762,7 +15762,7 @@
         <v>1096</v>
       </c>
       <c r="B1076">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1076">
         <v>6</v>
@@ -15773,7 +15773,7 @@
         <v>1097</v>
       </c>
       <c r="B1077">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1077">
         <v>7</v>
@@ -15784,7 +15784,7 @@
         <v>1098</v>
       </c>
       <c r="B1078">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C1078">
         <v>1</v>
@@ -15795,7 +15795,7 @@
         <v>1099</v>
       </c>
       <c r="B1079">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C1079">
         <v>2</v>
@@ -15806,7 +15806,7 @@
         <v>1100</v>
       </c>
       <c r="B1080">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C1080">
         <v>3</v>
@@ -15817,7 +15817,7 @@
         <v>1101</v>
       </c>
       <c r="B1081">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C1081">
         <v>4</v>
@@ -15828,7 +15828,7 @@
         <v>1102</v>
       </c>
       <c r="B1082">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C1082">
         <v>5</v>
@@ -15839,7 +15839,7 @@
         <v>1103</v>
       </c>
       <c r="B1083">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C1083">
         <v>6</v>
@@ -15850,7 +15850,7 @@
         <v>1104</v>
       </c>
       <c r="B1084">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C1084">
         <v>7</v>
@@ -15861,7 +15861,7 @@
         <v>1105</v>
       </c>
       <c r="B1085">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1085">
         <v>1</v>
@@ -15872,7 +15872,7 @@
         <v>1106</v>
       </c>
       <c r="B1086">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1086">
         <v>2</v>
@@ -15883,7 +15883,7 @@
         <v>1107</v>
       </c>
       <c r="B1087">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1087">
         <v>3</v>
@@ -15894,7 +15894,7 @@
         <v>1108</v>
       </c>
       <c r="B1088">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1088">
         <v>4</v>
@@ -15905,7 +15905,7 @@
         <v>1109</v>
       </c>
       <c r="B1089">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1089">
         <v>5</v>
@@ -15916,7 +15916,7 @@
         <v>1110</v>
       </c>
       <c r="B1090">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1090">
         <v>6</v>
@@ -15927,7 +15927,7 @@
         <v>1111</v>
       </c>
       <c r="B1091">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1091">
         <v>7</v>
@@ -15938,7 +15938,7 @@
         <v>1112</v>
       </c>
       <c r="B1092">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1092">
         <v>1</v>
@@ -15949,7 +15949,7 @@
         <v>1113</v>
       </c>
       <c r="B1093">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1093">
         <v>2</v>
@@ -15960,7 +15960,7 @@
         <v>1114</v>
       </c>
       <c r="B1094">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1094">
         <v>3</v>
@@ -15971,7 +15971,7 @@
         <v>1115</v>
       </c>
       <c r="B1095">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1095">
         <v>4</v>
@@ -15982,7 +15982,7 @@
         <v>1116</v>
       </c>
       <c r="B1096">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1096">
         <v>5</v>
@@ -15993,7 +15993,7 @@
         <v>1117</v>
       </c>
       <c r="B1097">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1097">
         <v>6</v>
@@ -16004,7 +16004,7 @@
         <v>1118</v>
       </c>
       <c r="B1098">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1098">
         <v>7</v>
@@ -16015,7 +16015,7 @@
         <v>1119</v>
       </c>
       <c r="B1099">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1099">
         <v>1</v>
@@ -16026,7 +16026,7 @@
         <v>1120</v>
       </c>
       <c r="B1100">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1100">
         <v>2</v>
@@ -16037,7 +16037,7 @@
         <v>1121</v>
       </c>
       <c r="B1101">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1101">
         <v>3</v>
@@ -16048,7 +16048,7 @@
         <v>1122</v>
       </c>
       <c r="B1102">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1102">
         <v>4</v>
@@ -16059,7 +16059,7 @@
         <v>1123</v>
       </c>
       <c r="B1103">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1103">
         <v>5</v>
@@ -16070,7 +16070,7 @@
         <v>1124</v>
       </c>
       <c r="B1104">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1104">
         <v>6</v>
@@ -16081,7 +16081,7 @@
         <v>1125</v>
       </c>
       <c r="B1105">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1105">
         <v>7</v>
@@ -16092,7 +16092,7 @@
         <v>1126</v>
       </c>
       <c r="B1106">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1106">
         <v>1</v>
@@ -16103,7 +16103,7 @@
         <v>1127</v>
       </c>
       <c r="B1107">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1107">
         <v>2</v>
@@ -16114,7 +16114,7 @@
         <v>1128</v>
       </c>
       <c r="B1108">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1108">
         <v>3</v>
@@ -16125,7 +16125,7 @@
         <v>1129</v>
       </c>
       <c r="B1109">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1109">
         <v>4</v>
@@ -16136,7 +16136,7 @@
         <v>1130</v>
       </c>
       <c r="B1110">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1110">
         <v>5</v>
@@ -16147,7 +16147,7 @@
         <v>1131</v>
       </c>
       <c r="B1111">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1111">
         <v>6</v>
@@ -16158,7 +16158,7 @@
         <v>1132</v>
       </c>
       <c r="B1112">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1112">
         <v>7</v>
@@ -16169,7 +16169,7 @@
         <v>1133</v>
       </c>
       <c r="B1113">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1113">
         <v>1</v>
@@ -16180,7 +16180,7 @@
         <v>1134</v>
       </c>
       <c r="B1114">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1114">
         <v>2</v>
@@ -16191,7 +16191,7 @@
         <v>1135</v>
       </c>
       <c r="B1115">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1115">
         <v>3</v>
@@ -16202,7 +16202,7 @@
         <v>1136</v>
       </c>
       <c r="B1116">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1116">
         <v>4</v>
@@ -16213,7 +16213,7 @@
         <v>1137</v>
       </c>
       <c r="B1117">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1117">
         <v>5</v>
@@ -16224,7 +16224,7 @@
         <v>1138</v>
       </c>
       <c r="B1118">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1118">
         <v>6</v>
@@ -16235,7 +16235,7 @@
         <v>1139</v>
       </c>
       <c r="B1119">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1119">
         <v>7</v>
@@ -16246,7 +16246,7 @@
         <v>1140</v>
       </c>
       <c r="B1120">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1120">
         <v>1</v>
@@ -16257,7 +16257,7 @@
         <v>1141</v>
       </c>
       <c r="B1121">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1121">
         <v>2</v>
@@ -16268,7 +16268,7 @@
         <v>1142</v>
       </c>
       <c r="B1122">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1122">
         <v>3</v>
@@ -16279,7 +16279,7 @@
         <v>1143</v>
       </c>
       <c r="B1123">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1123">
         <v>4</v>
@@ -16290,7 +16290,7 @@
         <v>1144</v>
       </c>
       <c r="B1124">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1124">
         <v>5</v>
@@ -16301,7 +16301,7 @@
         <v>1145</v>
       </c>
       <c r="B1125">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1125">
         <v>6</v>
@@ -16312,7 +16312,7 @@
         <v>1146</v>
       </c>
       <c r="B1126">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1126">
         <v>7</v>
@@ -16323,7 +16323,7 @@
         <v>1147</v>
       </c>
       <c r="B1127">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1127">
         <v>1</v>
@@ -16334,7 +16334,7 @@
         <v>1148</v>
       </c>
       <c r="B1128">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1128">
         <v>2</v>
@@ -16345,7 +16345,7 @@
         <v>1149</v>
       </c>
       <c r="B1129">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1129">
         <v>3</v>
@@ -16356,7 +16356,7 @@
         <v>1150</v>
       </c>
       <c r="B1130">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1130">
         <v>4</v>
@@ -16367,7 +16367,7 @@
         <v>1151</v>
       </c>
       <c r="B1131">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1131">
         <v>5</v>
@@ -16378,7 +16378,7 @@
         <v>1152</v>
       </c>
       <c r="B1132">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1132">
         <v>6</v>
@@ -16389,7 +16389,7 @@
         <v>1153</v>
       </c>
       <c r="B1133">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1133">
         <v>7</v>

--- a/mysite/DB6_Storage.xlsx
+++ b/mysite/DB6_Storage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22703"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22718"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSC\django-wms-skk\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AFC4B9-4F65-4528-80F5-462AB68B9615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8342855D-AA59-418B-9FD4-A64F608EF131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="1140">
   <si>
     <t>storage_id</t>
   </si>
@@ -3450,48 +3451,6 @@
   </si>
   <si>
     <t>B42R07</t>
-  </si>
-  <si>
-    <t>B43R01</t>
-  </si>
-  <si>
-    <t>B43R02</t>
-  </si>
-  <si>
-    <t>B43R03</t>
-  </si>
-  <si>
-    <t>B43R04</t>
-  </si>
-  <si>
-    <t>B43R05</t>
-  </si>
-  <si>
-    <t>B43R06</t>
-  </si>
-  <si>
-    <t>B43R07</t>
-  </si>
-  <si>
-    <t>B44R01</t>
-  </si>
-  <si>
-    <t>B44R02</t>
-  </si>
-  <si>
-    <t>B44R03</t>
-  </si>
-  <si>
-    <t>B44R04</t>
-  </si>
-  <si>
-    <t>B44R05</t>
-  </si>
-  <si>
-    <t>B44R06</t>
-  </si>
-  <si>
-    <t>B44R07</t>
   </si>
 </sst>
 </file>
@@ -3845,11 +3804,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V1133"/>
+  <dimension ref="A1:V1119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1135" sqref="D1135"/>
+      <pane ySplit="1" topLeftCell="A913" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B930" sqref="B924:B930"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13012,7 +12971,7 @@
         <v>846</v>
       </c>
       <c r="B826">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C826">
         <v>1</v>
@@ -13023,7 +12982,7 @@
         <v>847</v>
       </c>
       <c r="B827">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C827">
         <v>2</v>
@@ -13034,7 +12993,7 @@
         <v>848</v>
       </c>
       <c r="B828">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C828">
         <v>3</v>
@@ -13045,7 +13004,7 @@
         <v>849</v>
       </c>
       <c r="B829">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C829">
         <v>4</v>
@@ -13056,7 +13015,7 @@
         <v>850</v>
       </c>
       <c r="B830">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C830">
         <v>5</v>
@@ -13067,7 +13026,7 @@
         <v>851</v>
       </c>
       <c r="B831">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C831">
         <v>6</v>
@@ -13078,7 +13037,7 @@
         <v>852</v>
       </c>
       <c r="B832">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C832">
         <v>7</v>
@@ -13089,7 +13048,7 @@
         <v>853</v>
       </c>
       <c r="B833">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C833">
         <v>1</v>
@@ -13100,7 +13059,7 @@
         <v>854</v>
       </c>
       <c r="B834">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C834">
         <v>2</v>
@@ -13111,7 +13070,7 @@
         <v>855</v>
       </c>
       <c r="B835">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C835">
         <v>3</v>
@@ -13122,7 +13081,7 @@
         <v>856</v>
       </c>
       <c r="B836">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C836">
         <v>4</v>
@@ -13133,7 +13092,7 @@
         <v>857</v>
       </c>
       <c r="B837">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C837">
         <v>5</v>
@@ -13144,7 +13103,7 @@
         <v>858</v>
       </c>
       <c r="B838">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C838">
         <v>6</v>
@@ -13155,7 +13114,7 @@
         <v>859</v>
       </c>
       <c r="B839">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C839">
         <v>7</v>
@@ -13166,7 +13125,7 @@
         <v>860</v>
       </c>
       <c r="B840">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C840">
         <v>1</v>
@@ -13177,7 +13136,7 @@
         <v>861</v>
       </c>
       <c r="B841">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C841">
         <v>2</v>
@@ -13188,7 +13147,7 @@
         <v>862</v>
       </c>
       <c r="B842">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C842">
         <v>3</v>
@@ -13199,7 +13158,7 @@
         <v>863</v>
       </c>
       <c r="B843">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C843">
         <v>4</v>
@@ -13210,7 +13169,7 @@
         <v>864</v>
       </c>
       <c r="B844">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C844">
         <v>5</v>
@@ -13221,7 +13180,7 @@
         <v>865</v>
       </c>
       <c r="B845">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C845">
         <v>6</v>
@@ -13232,7 +13191,7 @@
         <v>866</v>
       </c>
       <c r="B846">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C846">
         <v>7</v>
@@ -13243,7 +13202,7 @@
         <v>867</v>
       </c>
       <c r="B847">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C847">
         <v>1</v>
@@ -13254,7 +13213,7 @@
         <v>868</v>
       </c>
       <c r="B848">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C848">
         <v>2</v>
@@ -13265,7 +13224,7 @@
         <v>869</v>
       </c>
       <c r="B849">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C849">
         <v>3</v>
@@ -13276,7 +13235,7 @@
         <v>870</v>
       </c>
       <c r="B850">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C850">
         <v>4</v>
@@ -13287,7 +13246,7 @@
         <v>871</v>
       </c>
       <c r="B851">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C851">
         <v>5</v>
@@ -13298,7 +13257,7 @@
         <v>872</v>
       </c>
       <c r="B852">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C852">
         <v>6</v>
@@ -13309,7 +13268,7 @@
         <v>873</v>
       </c>
       <c r="B853">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C853">
         <v>7</v>
@@ -13320,7 +13279,7 @@
         <v>874</v>
       </c>
       <c r="B854">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C854">
         <v>1</v>
@@ -13331,7 +13290,7 @@
         <v>875</v>
       </c>
       <c r="B855">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C855">
         <v>2</v>
@@ -13342,7 +13301,7 @@
         <v>876</v>
       </c>
       <c r="B856">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C856">
         <v>3</v>
@@ -13353,7 +13312,7 @@
         <v>877</v>
       </c>
       <c r="B857">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C857">
         <v>4</v>
@@ -13364,7 +13323,7 @@
         <v>878</v>
       </c>
       <c r="B858">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C858">
         <v>5</v>
@@ -13375,7 +13334,7 @@
         <v>879</v>
       </c>
       <c r="B859">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C859">
         <v>6</v>
@@ -13386,7 +13345,7 @@
         <v>880</v>
       </c>
       <c r="B860">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C860">
         <v>7</v>
@@ -13397,7 +13356,7 @@
         <v>881</v>
       </c>
       <c r="B861">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C861">
         <v>1</v>
@@ -13408,7 +13367,7 @@
         <v>882</v>
       </c>
       <c r="B862">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C862">
         <v>2</v>
@@ -13419,7 +13378,7 @@
         <v>883</v>
       </c>
       <c r="B863">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C863">
         <v>3</v>
@@ -13430,7 +13389,7 @@
         <v>884</v>
       </c>
       <c r="B864">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C864">
         <v>4</v>
@@ -13441,7 +13400,7 @@
         <v>885</v>
       </c>
       <c r="B865">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C865">
         <v>5</v>
@@ -13452,7 +13411,7 @@
         <v>886</v>
       </c>
       <c r="B866">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C866">
         <v>6</v>
@@ -13463,7 +13422,7 @@
         <v>887</v>
       </c>
       <c r="B867">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C867">
         <v>7</v>
@@ -13474,7 +13433,7 @@
         <v>888</v>
       </c>
       <c r="B868">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C868">
         <v>1</v>
@@ -13485,7 +13444,7 @@
         <v>889</v>
       </c>
       <c r="B869">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C869">
         <v>2</v>
@@ -13496,7 +13455,7 @@
         <v>890</v>
       </c>
       <c r="B870">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C870">
         <v>3</v>
@@ -13507,7 +13466,7 @@
         <v>891</v>
       </c>
       <c r="B871">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C871">
         <v>4</v>
@@ -13518,7 +13477,7 @@
         <v>892</v>
       </c>
       <c r="B872">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C872">
         <v>5</v>
@@ -13529,7 +13488,7 @@
         <v>893</v>
       </c>
       <c r="B873">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C873">
         <v>6</v>
@@ -13540,7 +13499,7 @@
         <v>894</v>
       </c>
       <c r="B874">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C874">
         <v>7</v>
@@ -13551,7 +13510,7 @@
         <v>895</v>
       </c>
       <c r="B875">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C875">
         <v>1</v>
@@ -13562,7 +13521,7 @@
         <v>896</v>
       </c>
       <c r="B876">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C876">
         <v>2</v>
@@ -13573,7 +13532,7 @@
         <v>897</v>
       </c>
       <c r="B877">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C877">
         <v>3</v>
@@ -13584,7 +13543,7 @@
         <v>898</v>
       </c>
       <c r="B878">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C878">
         <v>4</v>
@@ -13595,7 +13554,7 @@
         <v>899</v>
       </c>
       <c r="B879">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C879">
         <v>5</v>
@@ -13606,7 +13565,7 @@
         <v>900</v>
       </c>
       <c r="B880">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C880">
         <v>6</v>
@@ -13617,7 +13576,7 @@
         <v>901</v>
       </c>
       <c r="B881">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C881">
         <v>7</v>
@@ -13628,7 +13587,7 @@
         <v>902</v>
       </c>
       <c r="B882">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C882">
         <v>1</v>
@@ -13639,7 +13598,7 @@
         <v>903</v>
       </c>
       <c r="B883">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C883">
         <v>2</v>
@@ -13650,7 +13609,7 @@
         <v>904</v>
       </c>
       <c r="B884">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C884">
         <v>3</v>
@@ -13661,7 +13620,7 @@
         <v>905</v>
       </c>
       <c r="B885">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C885">
         <v>4</v>
@@ -13672,7 +13631,7 @@
         <v>906</v>
       </c>
       <c r="B886">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C886">
         <v>5</v>
@@ -13683,7 +13642,7 @@
         <v>907</v>
       </c>
       <c r="B887">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C887">
         <v>6</v>
@@ -13694,7 +13653,7 @@
         <v>908</v>
       </c>
       <c r="B888">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C888">
         <v>7</v>
@@ -13705,7 +13664,7 @@
         <v>909</v>
       </c>
       <c r="B889">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C889">
         <v>1</v>
@@ -13716,7 +13675,7 @@
         <v>910</v>
       </c>
       <c r="B890">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C890">
         <v>2</v>
@@ -13727,7 +13686,7 @@
         <v>911</v>
       </c>
       <c r="B891">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C891">
         <v>3</v>
@@ -13738,7 +13697,7 @@
         <v>912</v>
       </c>
       <c r="B892">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C892">
         <v>4</v>
@@ -13749,7 +13708,7 @@
         <v>913</v>
       </c>
       <c r="B893">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C893">
         <v>5</v>
@@ -13760,7 +13719,7 @@
         <v>914</v>
       </c>
       <c r="B894">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C894">
         <v>6</v>
@@ -13771,7 +13730,7 @@
         <v>915</v>
       </c>
       <c r="B895">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C895">
         <v>7</v>
@@ -13782,7 +13741,7 @@
         <v>916</v>
       </c>
       <c r="B896">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C896">
         <v>1</v>
@@ -13793,7 +13752,7 @@
         <v>917</v>
       </c>
       <c r="B897">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C897">
         <v>2</v>
@@ -13804,7 +13763,7 @@
         <v>918</v>
       </c>
       <c r="B898">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C898">
         <v>3</v>
@@ -13815,7 +13774,7 @@
         <v>919</v>
       </c>
       <c r="B899">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C899">
         <v>4</v>
@@ -13826,7 +13785,7 @@
         <v>920</v>
       </c>
       <c r="B900">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C900">
         <v>5</v>
@@ -13837,7 +13796,7 @@
         <v>921</v>
       </c>
       <c r="B901">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C901">
         <v>6</v>
@@ -13848,7 +13807,7 @@
         <v>922</v>
       </c>
       <c r="B902">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C902">
         <v>7</v>
@@ -13859,7 +13818,7 @@
         <v>923</v>
       </c>
       <c r="B903">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C903">
         <v>1</v>
@@ -13870,7 +13829,7 @@
         <v>924</v>
       </c>
       <c r="B904">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C904">
         <v>2</v>
@@ -13881,7 +13840,7 @@
         <v>925</v>
       </c>
       <c r="B905">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C905">
         <v>3</v>
@@ -13892,7 +13851,7 @@
         <v>926</v>
       </c>
       <c r="B906">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C906">
         <v>4</v>
@@ -13903,7 +13862,7 @@
         <v>927</v>
       </c>
       <c r="B907">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C907">
         <v>5</v>
@@ -13914,7 +13873,7 @@
         <v>928</v>
       </c>
       <c r="B908">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C908">
         <v>6</v>
@@ -13925,7 +13884,7 @@
         <v>929</v>
       </c>
       <c r="B909">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C909">
         <v>7</v>
@@ -13936,7 +13895,7 @@
         <v>930</v>
       </c>
       <c r="B910">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C910">
         <v>1</v>
@@ -13947,7 +13906,7 @@
         <v>931</v>
       </c>
       <c r="B911">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C911">
         <v>2</v>
@@ -13958,7 +13917,7 @@
         <v>932</v>
       </c>
       <c r="B912">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C912">
         <v>3</v>
@@ -13969,7 +13928,7 @@
         <v>933</v>
       </c>
       <c r="B913">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C913">
         <v>4</v>
@@ -13980,7 +13939,7 @@
         <v>934</v>
       </c>
       <c r="B914">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C914">
         <v>5</v>
@@ -13991,7 +13950,7 @@
         <v>935</v>
       </c>
       <c r="B915">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C915">
         <v>6</v>
@@ -14002,7 +13961,7 @@
         <v>936</v>
       </c>
       <c r="B916">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C916">
         <v>7</v>
@@ -14013,7 +13972,7 @@
         <v>937</v>
       </c>
       <c r="B917">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C917">
         <v>1</v>
@@ -14024,7 +13983,7 @@
         <v>938</v>
       </c>
       <c r="B918">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C918">
         <v>2</v>
@@ -14035,7 +13994,7 @@
         <v>939</v>
       </c>
       <c r="B919">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C919">
         <v>3</v>
@@ -14046,7 +14005,7 @@
         <v>940</v>
       </c>
       <c r="B920">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C920">
         <v>4</v>
@@ -14057,7 +14016,7 @@
         <v>941</v>
       </c>
       <c r="B921">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C921">
         <v>5</v>
@@ -14068,7 +14027,7 @@
         <v>942</v>
       </c>
       <c r="B922">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C922">
         <v>6</v>
@@ -14079,7 +14038,7 @@
         <v>943</v>
       </c>
       <c r="B923">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C923">
         <v>7</v>
@@ -14090,7 +14049,7 @@
         <v>944</v>
       </c>
       <c r="B924">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C924">
         <v>1</v>
@@ -14101,7 +14060,7 @@
         <v>945</v>
       </c>
       <c r="B925">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C925">
         <v>2</v>
@@ -14112,7 +14071,7 @@
         <v>946</v>
       </c>
       <c r="B926">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C926">
         <v>3</v>
@@ -14123,7 +14082,7 @@
         <v>947</v>
       </c>
       <c r="B927">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C927">
         <v>4</v>
@@ -14134,7 +14093,7 @@
         <v>948</v>
       </c>
       <c r="B928">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C928">
         <v>5</v>
@@ -14145,7 +14104,7 @@
         <v>949</v>
       </c>
       <c r="B929">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C929">
         <v>6</v>
@@ -14156,7 +14115,7 @@
         <v>950</v>
       </c>
       <c r="B930">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C930">
         <v>7</v>
@@ -14167,7 +14126,7 @@
         <v>951</v>
       </c>
       <c r="B931">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C931">
         <v>1</v>
@@ -14178,7 +14137,7 @@
         <v>952</v>
       </c>
       <c r="B932">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C932">
         <v>2</v>
@@ -14189,7 +14148,7 @@
         <v>953</v>
       </c>
       <c r="B933">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C933">
         <v>3</v>
@@ -14200,7 +14159,7 @@
         <v>954</v>
       </c>
       <c r="B934">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C934">
         <v>4</v>
@@ -14211,7 +14170,7 @@
         <v>955</v>
       </c>
       <c r="B935">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C935">
         <v>5</v>
@@ -14222,7 +14181,7 @@
         <v>956</v>
       </c>
       <c r="B936">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C936">
         <v>6</v>
@@ -14233,7 +14192,7 @@
         <v>957</v>
       </c>
       <c r="B937">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C937">
         <v>7</v>
@@ -14244,7 +14203,7 @@
         <v>958</v>
       </c>
       <c r="B938">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C938">
         <v>1</v>
@@ -14255,7 +14214,7 @@
         <v>959</v>
       </c>
       <c r="B939">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C939">
         <v>2</v>
@@ -14266,7 +14225,7 @@
         <v>960</v>
       </c>
       <c r="B940">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C940">
         <v>3</v>
@@ -14277,7 +14236,7 @@
         <v>961</v>
       </c>
       <c r="B941">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C941">
         <v>4</v>
@@ -14288,7 +14247,7 @@
         <v>962</v>
       </c>
       <c r="B942">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C942">
         <v>5</v>
@@ -14299,7 +14258,7 @@
         <v>963</v>
       </c>
       <c r="B943">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C943">
         <v>6</v>
@@ -14310,7 +14269,7 @@
         <v>964</v>
       </c>
       <c r="B944">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C944">
         <v>7</v>
@@ -14321,7 +14280,7 @@
         <v>965</v>
       </c>
       <c r="B945">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C945">
         <v>1</v>
@@ -14332,7 +14291,7 @@
         <v>966</v>
       </c>
       <c r="B946">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C946">
         <v>2</v>
@@ -14343,7 +14302,7 @@
         <v>967</v>
       </c>
       <c r="B947">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C947">
         <v>3</v>
@@ -14354,7 +14313,7 @@
         <v>968</v>
       </c>
       <c r="B948">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C948">
         <v>4</v>
@@ -14365,7 +14324,7 @@
         <v>969</v>
       </c>
       <c r="B949">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C949">
         <v>5</v>
@@ -14376,7 +14335,7 @@
         <v>970</v>
       </c>
       <c r="B950">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C950">
         <v>6</v>
@@ -14387,7 +14346,7 @@
         <v>971</v>
       </c>
       <c r="B951">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C951">
         <v>7</v>
@@ -14398,7 +14357,7 @@
         <v>972</v>
       </c>
       <c r="B952">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C952">
         <v>1</v>
@@ -14409,7 +14368,7 @@
         <v>973</v>
       </c>
       <c r="B953">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C953">
         <v>2</v>
@@ -14420,7 +14379,7 @@
         <v>974</v>
       </c>
       <c r="B954">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C954">
         <v>3</v>
@@ -14431,7 +14390,7 @@
         <v>975</v>
       </c>
       <c r="B955">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C955">
         <v>4</v>
@@ -14442,7 +14401,7 @@
         <v>976</v>
       </c>
       <c r="B956">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C956">
         <v>5</v>
@@ -14453,7 +14412,7 @@
         <v>977</v>
       </c>
       <c r="B957">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C957">
         <v>6</v>
@@ -14464,7 +14423,7 @@
         <v>978</v>
       </c>
       <c r="B958">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C958">
         <v>7</v>
@@ -14475,7 +14434,7 @@
         <v>979</v>
       </c>
       <c r="B959">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C959">
         <v>1</v>
@@ -14486,7 +14445,7 @@
         <v>980</v>
       </c>
       <c r="B960">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C960">
         <v>2</v>
@@ -14497,7 +14456,7 @@
         <v>981</v>
       </c>
       <c r="B961">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C961">
         <v>3</v>
@@ -14508,7 +14467,7 @@
         <v>982</v>
       </c>
       <c r="B962">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C962">
         <v>4</v>
@@ -14519,7 +14478,7 @@
         <v>983</v>
       </c>
       <c r="B963">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C963">
         <v>5</v>
@@ -14530,7 +14489,7 @@
         <v>984</v>
       </c>
       <c r="B964">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C964">
         <v>6</v>
@@ -14541,7 +14500,7 @@
         <v>985</v>
       </c>
       <c r="B965">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C965">
         <v>7</v>
@@ -14552,7 +14511,7 @@
         <v>986</v>
       </c>
       <c r="B966">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C966">
         <v>1</v>
@@ -14563,7 +14522,7 @@
         <v>987</v>
       </c>
       <c r="B967">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C967">
         <v>2</v>
@@ -14574,7 +14533,7 @@
         <v>988</v>
       </c>
       <c r="B968">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C968">
         <v>3</v>
@@ -14585,7 +14544,7 @@
         <v>989</v>
       </c>
       <c r="B969">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C969">
         <v>4</v>
@@ -14596,7 +14555,7 @@
         <v>990</v>
       </c>
       <c r="B970">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C970">
         <v>5</v>
@@ -14607,7 +14566,7 @@
         <v>991</v>
       </c>
       <c r="B971">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C971">
         <v>6</v>
@@ -14618,7 +14577,7 @@
         <v>992</v>
       </c>
       <c r="B972">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C972">
         <v>7</v>
@@ -14629,7 +14588,7 @@
         <v>993</v>
       </c>
       <c r="B973">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C973">
         <v>1</v>
@@ -14640,7 +14599,7 @@
         <v>994</v>
       </c>
       <c r="B974">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C974">
         <v>2</v>
@@ -14651,7 +14610,7 @@
         <v>995</v>
       </c>
       <c r="B975">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C975">
         <v>3</v>
@@ -14662,7 +14621,7 @@
         <v>996</v>
       </c>
       <c r="B976">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C976">
         <v>4</v>
@@ -14673,7 +14632,7 @@
         <v>997</v>
       </c>
       <c r="B977">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C977">
         <v>5</v>
@@ -14684,7 +14643,7 @@
         <v>998</v>
       </c>
       <c r="B978">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C978">
         <v>6</v>
@@ -14695,7 +14654,7 @@
         <v>999</v>
       </c>
       <c r="B979">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C979">
         <v>7</v>
@@ -14706,7 +14665,7 @@
         <v>1000</v>
       </c>
       <c r="B980">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C980">
         <v>1</v>
@@ -14717,7 +14676,7 @@
         <v>1001</v>
       </c>
       <c r="B981">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C981">
         <v>2</v>
@@ -14728,7 +14687,7 @@
         <v>1002</v>
       </c>
       <c r="B982">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C982">
         <v>3</v>
@@ -14739,7 +14698,7 @@
         <v>1003</v>
       </c>
       <c r="B983">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C983">
         <v>4</v>
@@ -14750,7 +14709,7 @@
         <v>1004</v>
       </c>
       <c r="B984">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C984">
         <v>5</v>
@@ -14761,7 +14720,7 @@
         <v>1005</v>
       </c>
       <c r="B985">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C985">
         <v>6</v>
@@ -14772,7 +14731,7 @@
         <v>1006</v>
       </c>
       <c r="B986">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C986">
         <v>7</v>
@@ -14783,7 +14742,7 @@
         <v>1007</v>
       </c>
       <c r="B987">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C987">
         <v>1</v>
@@ -14794,7 +14753,7 @@
         <v>1008</v>
       </c>
       <c r="B988">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C988">
         <v>2</v>
@@ -14805,7 +14764,7 @@
         <v>1009</v>
       </c>
       <c r="B989">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C989">
         <v>3</v>
@@ -14816,7 +14775,7 @@
         <v>1010</v>
       </c>
       <c r="B990">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C990">
         <v>4</v>
@@ -14827,7 +14786,7 @@
         <v>1011</v>
       </c>
       <c r="B991">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C991">
         <v>5</v>
@@ -14838,7 +14797,7 @@
         <v>1012</v>
       </c>
       <c r="B992">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C992">
         <v>6</v>
@@ -14849,7 +14808,7 @@
         <v>1013</v>
       </c>
       <c r="B993">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C993">
         <v>7</v>
@@ -14860,7 +14819,7 @@
         <v>1014</v>
       </c>
       <c r="B994">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C994">
         <v>1</v>
@@ -14871,7 +14830,7 @@
         <v>1015</v>
       </c>
       <c r="B995">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C995">
         <v>2</v>
@@ -14882,7 +14841,7 @@
         <v>1016</v>
       </c>
       <c r="B996">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C996">
         <v>3</v>
@@ -14893,7 +14852,7 @@
         <v>1017</v>
       </c>
       <c r="B997">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C997">
         <v>4</v>
@@ -14904,7 +14863,7 @@
         <v>1018</v>
       </c>
       <c r="B998">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C998">
         <v>5</v>
@@ -14915,7 +14874,7 @@
         <v>1019</v>
       </c>
       <c r="B999">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C999">
         <v>6</v>
@@ -14926,7 +14885,7 @@
         <v>1020</v>
       </c>
       <c r="B1000">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1000">
         <v>7</v>
@@ -14937,7 +14896,7 @@
         <v>1021</v>
       </c>
       <c r="B1001">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1001">
         <v>1</v>
@@ -14948,7 +14907,7 @@
         <v>1022</v>
       </c>
       <c r="B1002">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1002">
         <v>2</v>
@@ -14959,7 +14918,7 @@
         <v>1023</v>
       </c>
       <c r="B1003">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1003">
         <v>3</v>
@@ -14970,7 +14929,7 @@
         <v>1024</v>
       </c>
       <c r="B1004">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1004">
         <v>4</v>
@@ -14981,7 +14940,7 @@
         <v>1025</v>
       </c>
       <c r="B1005">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1005">
         <v>5</v>
@@ -14992,7 +14951,7 @@
         <v>1026</v>
       </c>
       <c r="B1006">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1006">
         <v>6</v>
@@ -15003,7 +14962,7 @@
         <v>1027</v>
       </c>
       <c r="B1007">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1007">
         <v>7</v>
@@ -15014,7 +14973,7 @@
         <v>1028</v>
       </c>
       <c r="B1008">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1008">
         <v>1</v>
@@ -15025,7 +14984,7 @@
         <v>1029</v>
       </c>
       <c r="B1009">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1009">
         <v>2</v>
@@ -15036,7 +14995,7 @@
         <v>1030</v>
       </c>
       <c r="B1010">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1010">
         <v>3</v>
@@ -15047,7 +15006,7 @@
         <v>1031</v>
       </c>
       <c r="B1011">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1011">
         <v>4</v>
@@ -15058,7 +15017,7 @@
         <v>1032</v>
       </c>
       <c r="B1012">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1012">
         <v>5</v>
@@ -15069,7 +15028,7 @@
         <v>1033</v>
       </c>
       <c r="B1013">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1013">
         <v>6</v>
@@ -15080,7 +15039,7 @@
         <v>1034</v>
       </c>
       <c r="B1014">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1014">
         <v>7</v>
@@ -15091,7 +15050,7 @@
         <v>1035</v>
       </c>
       <c r="B1015">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1015">
         <v>1</v>
@@ -15102,7 +15061,7 @@
         <v>1036</v>
       </c>
       <c r="B1016">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1016">
         <v>2</v>
@@ -15113,7 +15072,7 @@
         <v>1037</v>
       </c>
       <c r="B1017">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1017">
         <v>3</v>
@@ -15124,7 +15083,7 @@
         <v>1038</v>
       </c>
       <c r="B1018">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1018">
         <v>4</v>
@@ -15135,7 +15094,7 @@
         <v>1039</v>
       </c>
       <c r="B1019">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1019">
         <v>5</v>
@@ -15146,7 +15105,7 @@
         <v>1040</v>
       </c>
       <c r="B1020">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1020">
         <v>6</v>
@@ -15157,7 +15116,7 @@
         <v>1041</v>
       </c>
       <c r="B1021">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1021">
         <v>7</v>
@@ -15168,7 +15127,7 @@
         <v>1042</v>
       </c>
       <c r="B1022">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1022">
         <v>1</v>
@@ -15179,7 +15138,7 @@
         <v>1043</v>
       </c>
       <c r="B1023">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1023">
         <v>2</v>
@@ -15190,7 +15149,7 @@
         <v>1044</v>
       </c>
       <c r="B1024">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1024">
         <v>3</v>
@@ -15201,7 +15160,7 @@
         <v>1045</v>
       </c>
       <c r="B1025">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1025">
         <v>4</v>
@@ -15212,7 +15171,7 @@
         <v>1046</v>
       </c>
       <c r="B1026">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1026">
         <v>5</v>
@@ -15223,7 +15182,7 @@
         <v>1047</v>
       </c>
       <c r="B1027">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1027">
         <v>6</v>
@@ -15234,7 +15193,7 @@
         <v>1048</v>
       </c>
       <c r="B1028">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1028">
         <v>7</v>
@@ -15245,7 +15204,7 @@
         <v>1049</v>
       </c>
       <c r="B1029">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1029">
         <v>1</v>
@@ -15256,7 +15215,7 @@
         <v>1050</v>
       </c>
       <c r="B1030">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1030">
         <v>2</v>
@@ -15267,7 +15226,7 @@
         <v>1051</v>
       </c>
       <c r="B1031">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1031">
         <v>3</v>
@@ -15278,7 +15237,7 @@
         <v>1052</v>
       </c>
       <c r="B1032">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1032">
         <v>4</v>
@@ -15289,7 +15248,7 @@
         <v>1053</v>
       </c>
       <c r="B1033">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1033">
         <v>5</v>
@@ -15300,7 +15259,7 @@
         <v>1054</v>
       </c>
       <c r="B1034">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1034">
         <v>6</v>
@@ -15311,7 +15270,7 @@
         <v>1055</v>
       </c>
       <c r="B1035">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1035">
         <v>7</v>
@@ -15322,7 +15281,7 @@
         <v>1056</v>
       </c>
       <c r="B1036">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1036">
         <v>1</v>
@@ -15333,7 +15292,7 @@
         <v>1057</v>
       </c>
       <c r="B1037">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1037">
         <v>2</v>
@@ -15344,7 +15303,7 @@
         <v>1058</v>
       </c>
       <c r="B1038">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1038">
         <v>3</v>
@@ -15355,7 +15314,7 @@
         <v>1059</v>
       </c>
       <c r="B1039">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1039">
         <v>4</v>
@@ -15366,7 +15325,7 @@
         <v>1060</v>
       </c>
       <c r="B1040">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1040">
         <v>5</v>
@@ -15377,7 +15336,7 @@
         <v>1061</v>
       </c>
       <c r="B1041">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1041">
         <v>6</v>
@@ -15388,7 +15347,7 @@
         <v>1062</v>
       </c>
       <c r="B1042">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1042">
         <v>7</v>
@@ -15399,7 +15358,7 @@
         <v>1063</v>
       </c>
       <c r="B1043">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1043">
         <v>1</v>
@@ -15410,7 +15369,7 @@
         <v>1064</v>
       </c>
       <c r="B1044">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1044">
         <v>2</v>
@@ -15421,7 +15380,7 @@
         <v>1065</v>
       </c>
       <c r="B1045">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1045">
         <v>3</v>
@@ -15432,7 +15391,7 @@
         <v>1066</v>
       </c>
       <c r="B1046">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1046">
         <v>4</v>
@@ -15443,7 +15402,7 @@
         <v>1067</v>
       </c>
       <c r="B1047">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1047">
         <v>5</v>
@@ -15454,7 +15413,7 @@
         <v>1068</v>
       </c>
       <c r="B1048">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1048">
         <v>6</v>
@@ -15465,7 +15424,7 @@
         <v>1069</v>
       </c>
       <c r="B1049">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1049">
         <v>7</v>
@@ -15476,7 +15435,7 @@
         <v>1070</v>
       </c>
       <c r="B1050">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1050">
         <v>1</v>
@@ -15487,7 +15446,7 @@
         <v>1071</v>
       </c>
       <c r="B1051">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1051">
         <v>2</v>
@@ -15498,7 +15457,7 @@
         <v>1072</v>
       </c>
       <c r="B1052">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1052">
         <v>3</v>
@@ -15509,7 +15468,7 @@
         <v>1073</v>
       </c>
       <c r="B1053">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1053">
         <v>4</v>
@@ -15520,7 +15479,7 @@
         <v>1074</v>
       </c>
       <c r="B1054">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1054">
         <v>5</v>
@@ -15531,7 +15490,7 @@
         <v>1075</v>
       </c>
       <c r="B1055">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1055">
         <v>6</v>
@@ -15542,7 +15501,7 @@
         <v>1076</v>
       </c>
       <c r="B1056">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1056">
         <v>7</v>
@@ -15553,7 +15512,7 @@
         <v>1077</v>
       </c>
       <c r="B1057">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1057">
         <v>1</v>
@@ -15564,7 +15523,7 @@
         <v>1078</v>
       </c>
       <c r="B1058">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1058">
         <v>2</v>
@@ -15575,7 +15534,7 @@
         <v>1079</v>
       </c>
       <c r="B1059">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1059">
         <v>3</v>
@@ -15586,7 +15545,7 @@
         <v>1080</v>
       </c>
       <c r="B1060">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1060">
         <v>4</v>
@@ -15597,7 +15556,7 @@
         <v>1081</v>
       </c>
       <c r="B1061">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1061">
         <v>5</v>
@@ -15608,7 +15567,7 @@
         <v>1082</v>
       </c>
       <c r="B1062">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1062">
         <v>6</v>
@@ -15619,7 +15578,7 @@
         <v>1083</v>
       </c>
       <c r="B1063">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1063">
         <v>7</v>
@@ -15630,7 +15589,7 @@
         <v>1084</v>
       </c>
       <c r="B1064">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1064">
         <v>1</v>
@@ -15641,7 +15600,7 @@
         <v>1085</v>
       </c>
       <c r="B1065">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1065">
         <v>2</v>
@@ -15652,7 +15611,7 @@
         <v>1086</v>
       </c>
       <c r="B1066">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1066">
         <v>3</v>
@@ -15663,7 +15622,7 @@
         <v>1087</v>
       </c>
       <c r="B1067">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1067">
         <v>4</v>
@@ -15674,7 +15633,7 @@
         <v>1088</v>
       </c>
       <c r="B1068">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1068">
         <v>5</v>
@@ -15685,7 +15644,7 @@
         <v>1089</v>
       </c>
       <c r="B1069">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1069">
         <v>6</v>
@@ -15696,7 +15655,7 @@
         <v>1090</v>
       </c>
       <c r="B1070">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1070">
         <v>7</v>
@@ -15707,7 +15666,7 @@
         <v>1091</v>
       </c>
       <c r="B1071">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1071">
         <v>1</v>
@@ -15718,7 +15677,7 @@
         <v>1092</v>
       </c>
       <c r="B1072">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1072">
         <v>2</v>
@@ -15729,7 +15688,7 @@
         <v>1093</v>
       </c>
       <c r="B1073">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1073">
         <v>3</v>
@@ -15740,7 +15699,7 @@
         <v>1094</v>
       </c>
       <c r="B1074">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1074">
         <v>4</v>
@@ -15751,7 +15710,7 @@
         <v>1095</v>
       </c>
       <c r="B1075">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1075">
         <v>5</v>
@@ -15762,7 +15721,7 @@
         <v>1096</v>
       </c>
       <c r="B1076">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1076">
         <v>6</v>
@@ -15773,7 +15732,7 @@
         <v>1097</v>
       </c>
       <c r="B1077">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1077">
         <v>7</v>
@@ -15784,7 +15743,7 @@
         <v>1098</v>
       </c>
       <c r="B1078">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1078">
         <v>1</v>
@@ -15795,7 +15754,7 @@
         <v>1099</v>
       </c>
       <c r="B1079">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1079">
         <v>2</v>
@@ -15806,7 +15765,7 @@
         <v>1100</v>
       </c>
       <c r="B1080">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1080">
         <v>3</v>
@@ -15817,7 +15776,7 @@
         <v>1101</v>
       </c>
       <c r="B1081">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1081">
         <v>4</v>
@@ -15828,7 +15787,7 @@
         <v>1102</v>
       </c>
       <c r="B1082">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1082">
         <v>5</v>
@@ -15839,7 +15798,7 @@
         <v>1103</v>
       </c>
       <c r="B1083">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1083">
         <v>6</v>
@@ -15850,7 +15809,7 @@
         <v>1104</v>
       </c>
       <c r="B1084">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1084">
         <v>7</v>
@@ -15861,7 +15820,7 @@
         <v>1105</v>
       </c>
       <c r="B1085">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1085">
         <v>1</v>
@@ -15872,7 +15831,7 @@
         <v>1106</v>
       </c>
       <c r="B1086">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1086">
         <v>2</v>
@@ -15883,7 +15842,7 @@
         <v>1107</v>
       </c>
       <c r="B1087">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1087">
         <v>3</v>
@@ -15894,7 +15853,7 @@
         <v>1108</v>
       </c>
       <c r="B1088">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1088">
         <v>4</v>
@@ -15905,7 +15864,7 @@
         <v>1109</v>
       </c>
       <c r="B1089">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1089">
         <v>5</v>
@@ -15916,7 +15875,7 @@
         <v>1110</v>
       </c>
       <c r="B1090">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1090">
         <v>6</v>
@@ -15927,7 +15886,7 @@
         <v>1111</v>
       </c>
       <c r="B1091">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1091">
         <v>7</v>
@@ -15938,7 +15897,7 @@
         <v>1112</v>
       </c>
       <c r="B1092">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1092">
         <v>1</v>
@@ -15949,7 +15908,7 @@
         <v>1113</v>
       </c>
       <c r="B1093">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1093">
         <v>2</v>
@@ -15960,7 +15919,7 @@
         <v>1114</v>
       </c>
       <c r="B1094">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1094">
         <v>3</v>
@@ -15971,7 +15930,7 @@
         <v>1115</v>
       </c>
       <c r="B1095">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1095">
         <v>4</v>
@@ -15982,7 +15941,7 @@
         <v>1116</v>
       </c>
       <c r="B1096">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1096">
         <v>5</v>
@@ -15993,7 +15952,7 @@
         <v>1117</v>
       </c>
       <c r="B1097">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1097">
         <v>6</v>
@@ -16004,7 +15963,7 @@
         <v>1118</v>
       </c>
       <c r="B1098">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1098">
         <v>7</v>
@@ -16015,7 +15974,7 @@
         <v>1119</v>
       </c>
       <c r="B1099">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1099">
         <v>1</v>
@@ -16026,7 +15985,7 @@
         <v>1120</v>
       </c>
       <c r="B1100">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1100">
         <v>2</v>
@@ -16037,7 +15996,7 @@
         <v>1121</v>
       </c>
       <c r="B1101">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1101">
         <v>3</v>
@@ -16048,7 +16007,7 @@
         <v>1122</v>
       </c>
       <c r="B1102">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1102">
         <v>4</v>
@@ -16059,7 +16018,7 @@
         <v>1123</v>
       </c>
       <c r="B1103">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1103">
         <v>5</v>
@@ -16070,7 +16029,7 @@
         <v>1124</v>
       </c>
       <c r="B1104">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1104">
         <v>6</v>
@@ -16081,7 +16040,7 @@
         <v>1125</v>
       </c>
       <c r="B1105">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1105">
         <v>7</v>
@@ -16092,7 +16051,7 @@
         <v>1126</v>
       </c>
       <c r="B1106">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1106">
         <v>1</v>
@@ -16103,7 +16062,7 @@
         <v>1127</v>
       </c>
       <c r="B1107">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1107">
         <v>2</v>
@@ -16114,7 +16073,7 @@
         <v>1128</v>
       </c>
       <c r="B1108">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1108">
         <v>3</v>
@@ -16125,7 +16084,7 @@
         <v>1129</v>
       </c>
       <c r="B1109">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1109">
         <v>4</v>
@@ -16136,7 +16095,7 @@
         <v>1130</v>
       </c>
       <c r="B1110">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1110">
         <v>5</v>
@@ -16147,7 +16106,7 @@
         <v>1131</v>
       </c>
       <c r="B1111">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1111">
         <v>6</v>
@@ -16158,7 +16117,7 @@
         <v>1132</v>
       </c>
       <c r="B1112">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1112">
         <v>7</v>
@@ -16169,7 +16128,7 @@
         <v>1133</v>
       </c>
       <c r="B1113">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1113">
         <v>1</v>
@@ -16180,7 +16139,7 @@
         <v>1134</v>
       </c>
       <c r="B1114">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1114">
         <v>2</v>
@@ -16191,7 +16150,7 @@
         <v>1135</v>
       </c>
       <c r="B1115">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1115">
         <v>3</v>
@@ -16202,7 +16161,7 @@
         <v>1136</v>
       </c>
       <c r="B1116">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1116">
         <v>4</v>
@@ -16213,7 +16172,7 @@
         <v>1137</v>
       </c>
       <c r="B1117">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1117">
         <v>5</v>
@@ -16224,7 +16183,7 @@
         <v>1138</v>
       </c>
       <c r="B1118">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1118">
         <v>6</v>
@@ -16235,163 +16194,9 @@
         <v>1139</v>
       </c>
       <c r="B1119">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1119">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1120" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B1120">
-        <v>71</v>
-      </c>
-      <c r="C1120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1121" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B1121">
-        <v>71</v>
-      </c>
-      <c r="C1121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1122" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B1122">
-        <v>71</v>
-      </c>
-      <c r="C1122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1123" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B1123">
-        <v>71</v>
-      </c>
-      <c r="C1123">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1124" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B1124">
-        <v>71</v>
-      </c>
-      <c r="C1124">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1125" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B1125">
-        <v>71</v>
-      </c>
-      <c r="C1125">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1126" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B1126">
-        <v>71</v>
-      </c>
-      <c r="C1126">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1127" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B1127">
-        <v>72</v>
-      </c>
-      <c r="C1127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1128" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B1128">
-        <v>72</v>
-      </c>
-      <c r="C1128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1129" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B1129">
-        <v>72</v>
-      </c>
-      <c r="C1129">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1130" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B1130">
-        <v>72</v>
-      </c>
-      <c r="C1130">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1131" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B1131">
-        <v>72</v>
-      </c>
-      <c r="C1131">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1132" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B1132">
-        <v>72</v>
-      </c>
-      <c r="C1132">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1133" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B1133">
-        <v>72</v>
-      </c>
-      <c r="C1133">
         <v>7</v>
       </c>
     </row>
